--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_4/forecast_point_GW3.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_4/forecast_point_GW3.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.8605182959074726</v>
+        <v>1.8052553762270525</v>
       </c>
       <c r="C2" t="n">
-        <v>1.8420468393719382</v>
+        <v>1.7770821237180836</v>
       </c>
       <c r="D2" t="n">
-        <v>1.9347495661269618</v>
+        <v>1.8620244141322246</v>
       </c>
       <c r="E2" t="n">
-        <v>1.9022755651906544</v>
+        <v>1.827542479990565</v>
       </c>
       <c r="F2" t="n">
-        <v>1.6921041784935837</v>
+        <v>1.6267136362622583</v>
       </c>
       <c r="G2" t="n">
-        <v>1.8605182959074726</v>
+        <v>1.6567536754452643</v>
       </c>
       <c r="H2" t="n">
-        <v>1.8420468393719382</v>
+        <v>1.824164398296292</v>
       </c>
       <c r="I2" t="n">
-        <v>1.9347495661269618</v>
+        <v>1.7856567062453343</v>
       </c>
       <c r="J2" t="n">
-        <v>1.9022755651906544</v>
+        <v>1.8063568131369092</v>
       </c>
       <c r="K2" t="n">
-        <v>1.6921041784935837</v>
+        <v>1.7212900103505853</v>
       </c>
       <c r="L2" t="n">
-        <v>1.8605182959074726</v>
+        <v>1.5689553885514342</v>
       </c>
     </row>
     <row r="3">
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>3.0212090924156274</v>
+        <v>2.9912961311045816</v>
       </c>
       <c r="C10" t="n">
-        <v>2.8950118027017644</v>
+        <v>2.863663071053376</v>
       </c>
       <c r="D10" t="n">
-        <v>2.7322076616588533</v>
+        <v>2.6938100884487604</v>
       </c>
       <c r="E10" t="n">
-        <v>3.144958257159609</v>
+        <v>3.0834807306666057</v>
       </c>
       <c r="F10" t="n">
-        <v>3.108270759382339</v>
+        <v>3.0263792347490703</v>
       </c>
       <c r="G10" t="n">
-        <v>3.0212090924156274</v>
+        <v>2.9912961311045816</v>
       </c>
       <c r="H10" t="n">
-        <v>2.8950118027017644</v>
+        <v>2.630222296634796</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7322076616588533</v>
+        <v>2.690853107470942</v>
       </c>
       <c r="J10" t="n">
-        <v>3.144958257159609</v>
+        <v>2.98947217033274</v>
       </c>
       <c r="K10" t="n">
-        <v>3.108270759382339</v>
+        <v>2.725255342648903</v>
       </c>
       <c r="L10" t="n">
-        <v>3.0212090924156274</v>
+        <v>2.757443398135324</v>
       </c>
     </row>
     <row r="11">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>3.435244613345073</v>
+        <v>3.401232290440666</v>
       </c>
       <c r="C13" t="n">
-        <v>3.5944671801760966</v>
+        <v>3.565746338931035</v>
       </c>
       <c r="D13" t="n">
-        <v>3.69787617356233</v>
+        <v>3.685986621528668</v>
       </c>
       <c r="E13" t="n">
-        <v>3.597011846819296</v>
+        <v>3.5477879068245395</v>
       </c>
       <c r="F13" t="n">
-        <v>3.933175539538344</v>
+        <v>3.8423618101421497</v>
       </c>
       <c r="G13" t="n">
-        <v>3.435244613345073</v>
+        <v>3.8470248738612485</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5944671801760966</v>
+        <v>3.359775829290969</v>
       </c>
       <c r="I13" t="n">
-        <v>3.69787617356233</v>
+        <v>3.8681494732974664</v>
       </c>
       <c r="J13" t="n">
-        <v>3.597011846819296</v>
+        <v>3.906282803686021</v>
       </c>
       <c r="K13" t="n">
-        <v>3.933175539538344</v>
+        <v>3.823822069659646</v>
       </c>
       <c r="L13" t="n">
-        <v>3.435244613345073</v>
+        <v>3.4834598843106543</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1.6697902831760447</v>
+        <v>1.6866568516929745</v>
       </c>
       <c r="C19" t="n">
-        <v>1.5979713168057883</v>
+        <v>1.6051366666543088</v>
       </c>
       <c r="D19" t="n">
-        <v>1.6113596327616935</v>
+        <v>1.6159154242135783</v>
       </c>
       <c r="E19" t="n">
-        <v>1.6375945356715689</v>
+        <v>1.624094973892903</v>
       </c>
       <c r="F19" t="n">
-        <v>1.7021640146619432</v>
+        <v>1.678860966777529</v>
       </c>
       <c r="G19" t="n">
-        <v>1.6697902831760447</v>
+        <v>1.8161263292503984</v>
       </c>
       <c r="H19" t="n">
-        <v>1.5979713168057883</v>
+        <v>1.5866158588169579</v>
       </c>
       <c r="I19" t="n">
-        <v>1.6113596327616935</v>
+        <v>1.5302813265719122</v>
       </c>
       <c r="J19" t="n">
-        <v>1.6375945356715689</v>
+        <v>1.7522092622976884</v>
       </c>
       <c r="K19" t="n">
-        <v>1.7021640146619432</v>
+        <v>1.7824943596570608</v>
       </c>
       <c r="L19" t="n">
-        <v>1.6697902831760447</v>
+        <v>1.7500853707952435</v>
       </c>
     </row>
     <row r="20">
@@ -977,37 +977,37 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>2.626015580816147</v>
+        <v>2.652540990723381</v>
       </c>
       <c r="C24" t="n">
-        <v>2.6315592471071314</v>
+        <v>2.66710649725231</v>
       </c>
       <c r="D24" t="n">
-        <v>2.6014616352550775</v>
+        <v>2.6365425526413557</v>
       </c>
       <c r="E24" t="n">
-        <v>2.319543581826163</v>
+        <v>2.345164995075941</v>
       </c>
       <c r="F24" t="n">
-        <v>2.6544721316142446</v>
+        <v>2.693399600438543</v>
       </c>
       <c r="G24" t="n">
-        <v>2.626015580816147</v>
+        <v>2.55330600783</v>
       </c>
       <c r="H24" t="n">
-        <v>2.6315592471071314</v>
+        <v>2.3992247813449277</v>
       </c>
       <c r="I24" t="n">
-        <v>2.6014616352550775</v>
+        <v>2.4298985832494084</v>
       </c>
       <c r="J24" t="n">
-        <v>2.319543581826163</v>
+        <v>2.6238820834564542</v>
       </c>
       <c r="K24" t="n">
-        <v>2.6544721316142446</v>
+        <v>2.444847623758191</v>
       </c>
       <c r="L24" t="n">
-        <v>2.626015580816147</v>
+        <v>2.66710649725231</v>
       </c>
     </row>
     <row r="25">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>4.0701890345011105</v>
+        <v>4.029487144156099</v>
       </c>
       <c r="C26" t="n">
-        <v>3.573436662815369</v>
+        <v>3.5233989354254764</v>
       </c>
       <c r="D26" t="n">
-        <v>4.122659246086505</v>
+        <v>4.054057188102769</v>
       </c>
       <c r="E26" t="n">
-        <v>4.007601101178058</v>
+        <v>4.010044507147515</v>
       </c>
       <c r="F26" t="n">
-        <v>3.6675794578014083</v>
+        <v>3.718486460475422</v>
       </c>
       <c r="G26" t="n">
-        <v>4.0701890345011105</v>
+        <v>3.9907885900139335</v>
       </c>
       <c r="H26" t="n">
-        <v>3.573436662815369</v>
+        <v>3.739400332919904</v>
       </c>
       <c r="I26" t="n">
-        <v>4.122659246086505</v>
+        <v>3.7205673143553026</v>
       </c>
       <c r="J26" t="n">
-        <v>4.007601101178058</v>
+        <v>4.056530682036342</v>
       </c>
       <c r="K26" t="n">
-        <v>3.6675794578014083</v>
+        <v>3.5668743511981336</v>
       </c>
       <c r="L26" t="n">
-        <v>4.0701890345011105</v>
+        <v>3.6490964828941843</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>3.398488546795126</v>
+        <v>3.467144881073816</v>
       </c>
       <c r="C31" t="n">
-        <v>3.740483638952431</v>
+        <v>3.819627262901508</v>
       </c>
       <c r="D31" t="n">
-        <v>3.674829732493509</v>
+        <v>3.782339868286886</v>
       </c>
       <c r="E31" t="n">
-        <v>3.6882252243443006</v>
+        <v>3.782339868286886</v>
       </c>
       <c r="F31" t="n">
-        <v>3.435901389233061</v>
+        <v>3.486645133813756</v>
       </c>
       <c r="G31" t="n">
-        <v>3.398488546795126</v>
+        <v>3.826700645622826</v>
       </c>
       <c r="H31" t="n">
-        <v>3.740483638952431</v>
+        <v>3.7616838891938427</v>
       </c>
       <c r="I31" t="n">
-        <v>3.674829732493509</v>
+        <v>3.8989025457630047</v>
       </c>
       <c r="J31" t="n">
-        <v>3.6882252243443006</v>
+        <v>3.7571242691649727</v>
       </c>
       <c r="K31" t="n">
-        <v>3.435901389233061</v>
+        <v>3.4061840916334685</v>
       </c>
       <c r="L31" t="n">
-        <v>3.398488546795126</v>
+        <v>3.7389958074654595</v>
       </c>
     </row>
     <row r="32">
@@ -1281,37 +1281,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>0.28096225837630384</v>
+        <v>0.2838889485677236</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2778372411225365</v>
+        <v>0.2823012027448239</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3018508960896879</v>
+        <v>0.30591184863279963</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2725092794335712</v>
+        <v>0.2773376650878818</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3034346767934993</v>
+        <v>0.3062831011366208</v>
       </c>
       <c r="G32" t="n">
-        <v>0.28096225837630384</v>
+        <v>0.3079649482880534</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2778372411225365</v>
+        <v>0.31745569216388303</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3018508960896879</v>
+        <v>0.31157688295654434</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2725092794335712</v>
+        <v>0.2674904878081157</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3034346767934993</v>
+        <v>0.3110009553509219</v>
       </c>
       <c r="L32" t="n">
-        <v>0.28096225837630384</v>
+        <v>0.3079649482880534</v>
       </c>
     </row>
     <row r="33">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.4435587653745434</v>
+        <v>1.4581401670449932</v>
       </c>
       <c r="C34" t="n">
-        <v>1.352534328974932</v>
+        <v>1.359407676676063</v>
       </c>
       <c r="D34" t="n">
-        <v>1.4574735693363927</v>
+        <v>1.4740664558416583</v>
       </c>
       <c r="E34" t="n">
-        <v>1.4714583315098917</v>
+        <v>1.4722797073710467</v>
       </c>
       <c r="F34" t="n">
-        <v>1.4655566747946613</v>
+        <v>1.4821607792325977</v>
       </c>
       <c r="G34" t="n">
-        <v>1.4435587653745434</v>
+        <v>1.3662888181387967</v>
       </c>
       <c r="H34" t="n">
-        <v>1.352534328974932</v>
+        <v>1.4995441468286412</v>
       </c>
       <c r="I34" t="n">
-        <v>1.4574735693363927</v>
+        <v>1.4967723466173637</v>
       </c>
       <c r="J34" t="n">
-        <v>1.4714583315098917</v>
+        <v>1.4651758256854992</v>
       </c>
       <c r="K34" t="n">
-        <v>1.4655566747946613</v>
+        <v>1.5278374330748374</v>
       </c>
       <c r="L34" t="n">
-        <v>1.4435587653745434</v>
+        <v>1.4123613476985537</v>
       </c>
     </row>
     <row r="35">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>3.266739316487756</v>
+        <v>3.2014045301580007</v>
       </c>
       <c r="C38" t="n">
-        <v>2.9240290062836714</v>
+        <v>2.879858412769775</v>
       </c>
       <c r="D38" t="n">
-        <v>2.9729476381460227</v>
+        <v>2.934620820844209</v>
       </c>
       <c r="E38" t="n">
-        <v>3.252271097631372</v>
+        <v>3.199452454528615</v>
       </c>
       <c r="F38" t="n">
-        <v>3.211110797996141</v>
+        <v>3.149521024837896</v>
       </c>
       <c r="G38" t="n">
-        <v>3.266739316487756</v>
+        <v>2.814968898669305</v>
       </c>
       <c r="H38" t="n">
-        <v>2.9240290062836714</v>
+        <v>3.1647177496196863</v>
       </c>
       <c r="I38" t="n">
-        <v>2.9729476381460227</v>
+        <v>3.0506407132721987</v>
       </c>
       <c r="J38" t="n">
-        <v>3.252271097631372</v>
+        <v>2.8830230918530466</v>
       </c>
       <c r="K38" t="n">
-        <v>3.211110797996141</v>
+        <v>3.1800618332902806</v>
       </c>
       <c r="L38" t="n">
-        <v>3.266739316487756</v>
+        <v>3.183921134337924</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2.7247389665239714</v>
+        <v>2.6980258394011876</v>
       </c>
       <c r="C45" t="n">
-        <v>2.9946737373075227</v>
+        <v>2.9596027335511175</v>
       </c>
       <c r="D45" t="n">
-        <v>2.6193706828955605</v>
+        <v>2.5722037546185685</v>
       </c>
       <c r="E45" t="n">
-        <v>2.6917132228726213</v>
+        <v>2.7146244323815645</v>
       </c>
       <c r="F45" t="n">
-        <v>2.8478722212794545</v>
+        <v>2.835050661172613</v>
       </c>
       <c r="G45" t="n">
-        <v>2.7247389665239714</v>
+        <v>2.6639673356012916</v>
       </c>
       <c r="H45" t="n">
-        <v>2.9946737373075227</v>
+        <v>2.821946793209325</v>
       </c>
       <c r="I45" t="n">
-        <v>2.6193706828955605</v>
+        <v>2.9416657470079985</v>
       </c>
       <c r="J45" t="n">
-        <v>2.6917132228726213</v>
+        <v>3.052672003404982</v>
       </c>
       <c r="K45" t="n">
-        <v>2.8478722212794545</v>
+        <v>2.9614084701422807</v>
       </c>
       <c r="L45" t="n">
-        <v>2.7247389665239714</v>
+        <v>2.9906028868490195</v>
       </c>
     </row>
     <row r="46">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>1.8016066018777301</v>
+        <v>1.8198046483613437</v>
       </c>
       <c r="C51" t="n">
-        <v>1.750912955636514</v>
+        <v>1.778800466049349</v>
       </c>
       <c r="D51" t="n">
-        <v>1.9858847269672915</v>
+        <v>2.022992109415324</v>
       </c>
       <c r="E51" t="n">
-        <v>1.9608261465213366</v>
+        <v>2.022992109415324</v>
       </c>
       <c r="F51" t="n">
-        <v>1.8384292868807062</v>
+        <v>1.8554471565616302</v>
       </c>
       <c r="G51" t="n">
-        <v>1.8016066018777301</v>
+        <v>1.9277232956580503</v>
       </c>
       <c r="H51" t="n">
-        <v>1.750912955636514</v>
+        <v>2.0095054953525553</v>
       </c>
       <c r="I51" t="n">
-        <v>1.9858847269672915</v>
+        <v>1.82180443337882</v>
       </c>
       <c r="J51" t="n">
-        <v>1.9608261465213366</v>
+        <v>2.0467185606712195</v>
       </c>
       <c r="K51" t="n">
-        <v>1.8384292868807062</v>
+        <v>2.011944217324019</v>
       </c>
       <c r="L51" t="n">
-        <v>1.8016066018777301</v>
+        <v>2.0853358926283634</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>1.6647350843276698</v>
+        <v>1.6815505902299694</v>
       </c>
       <c r="C59" t="n">
-        <v>1.6929815370246415</v>
+        <v>1.7164506968401456</v>
       </c>
       <c r="D59" t="n">
-        <v>1.6355506680996437</v>
+        <v>1.6381492242783597</v>
       </c>
       <c r="E59" t="n">
-        <v>1.5863687487636677</v>
+        <v>1.5940869761045438</v>
       </c>
       <c r="F59" t="n">
-        <v>1.4847152633782426</v>
+        <v>1.4978905642178173</v>
       </c>
       <c r="G59" t="n">
-        <v>1.6647350843276698</v>
+        <v>1.5170409159475342</v>
       </c>
       <c r="H59" t="n">
-        <v>1.6929815370246415</v>
+        <v>1.6651352082812276</v>
       </c>
       <c r="I59" t="n">
-        <v>1.6355506680996437</v>
+        <v>1.656041631488266</v>
       </c>
       <c r="J59" t="n">
-        <v>1.5863687487636677</v>
+        <v>1.586718957767887</v>
       </c>
       <c r="K59" t="n">
-        <v>1.4847152633782426</v>
+        <v>1.446293909763406</v>
       </c>
       <c r="L59" t="n">
-        <v>1.6647350843276698</v>
+        <v>1.6846645723207039</v>
       </c>
     </row>
     <row r="60">
@@ -2424,34 +2424,34 @@
         <v>2.293039393089911</v>
       </c>
       <c r="C62" t="n">
-        <v>2.030026158539564</v>
+        <v>2.041057042485354</v>
       </c>
       <c r="D62" t="n">
-        <v>2.0414076034396245</v>
+        <v>2.0388165850473365</v>
       </c>
       <c r="E62" t="n">
-        <v>1.9971633422245572</v>
+        <v>1.9685870787352098</v>
       </c>
       <c r="F62" t="n">
-        <v>2.0627789486562023</v>
+        <v>2.064882611263627</v>
       </c>
       <c r="G62" t="n">
-        <v>2.293039393089911</v>
+        <v>2.265075497614343</v>
       </c>
       <c r="H62" t="n">
-        <v>2.030026158539564</v>
+        <v>2.169751944853891</v>
       </c>
       <c r="I62" t="n">
-        <v>2.0414076034396245</v>
+        <v>2.266457483669911</v>
       </c>
       <c r="J62" t="n">
-        <v>1.9971633422245572</v>
+        <v>2.0775860277825102</v>
       </c>
       <c r="K62" t="n">
-        <v>2.0627789486562023</v>
+        <v>2.2297261809544824</v>
       </c>
       <c r="L62" t="n">
-        <v>2.293039393089911</v>
+        <v>2.078748638697636</v>
       </c>
     </row>
     <row r="63">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1.3797899825844138</v>
+        <v>1.3383962831068814</v>
       </c>
       <c r="C65" t="n">
-        <v>1.3240007681378219</v>
+        <v>1.2897273266000524</v>
       </c>
       <c r="D65" t="n">
-        <v>1.3659371896108026</v>
+        <v>1.3136111663601489</v>
       </c>
       <c r="E65" t="n">
-        <v>1.2891729248296124</v>
+        <v>1.2372384242211314</v>
       </c>
       <c r="F65" t="n">
-        <v>1.313697948798097</v>
+        <v>1.2983832146980392</v>
       </c>
       <c r="G65" t="n">
-        <v>1.3797899825844138</v>
+        <v>1.1692582910989056</v>
       </c>
       <c r="H65" t="n">
-        <v>1.3240007681378219</v>
+        <v>1.1908506378381711</v>
       </c>
       <c r="I65" t="n">
-        <v>1.3659371896108026</v>
+        <v>1.1416577734863356</v>
       </c>
       <c r="J65" t="n">
-        <v>1.2891729248296124</v>
+        <v>1.1679748025041596</v>
       </c>
       <c r="K65" t="n">
-        <v>1.313697948798097</v>
+        <v>1.2975915177390516</v>
       </c>
       <c r="L65" t="n">
-        <v>1.3797899825844138</v>
+        <v>1.2429836101293539</v>
       </c>
     </row>
     <row r="66">
@@ -2687,37 +2687,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>3.540106177585495</v>
+        <v>3.5050556213717767</v>
       </c>
       <c r="C69" t="n">
-        <v>3.5049595641206954</v>
+        <v>3.4503548746634243</v>
       </c>
       <c r="D69" t="n">
-        <v>3.6813499260893794</v>
+        <v>3.6152774980379205</v>
       </c>
       <c r="E69" t="n">
-        <v>3.6195599337101507</v>
+        <v>3.5483279136796164</v>
       </c>
       <c r="F69" t="n">
-        <v>3.21965576397711</v>
+        <v>3.1584017697593767</v>
       </c>
       <c r="G69" t="n">
-        <v>3.540106177585495</v>
+        <v>3.216727040295162</v>
       </c>
       <c r="H69" t="n">
-        <v>3.5049595641206954</v>
+        <v>3.541769083063246</v>
       </c>
       <c r="I69" t="n">
-        <v>3.6813499260893794</v>
+        <v>3.4670031500730056</v>
       </c>
       <c r="J69" t="n">
-        <v>3.6195599337101507</v>
+        <v>3.5071941540599045</v>
       </c>
       <c r="K69" t="n">
-        <v>3.21965576397711</v>
+        <v>3.342029779409773</v>
       </c>
       <c r="L69" t="n">
-        <v>3.540106177585495</v>
+        <v>3.0462592587964594</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>3.7344765960584514</v>
+        <v>3.697501580255892</v>
       </c>
       <c r="C76" t="n">
-        <v>3.6974002489573237</v>
+        <v>3.6397974753161386</v>
       </c>
       <c r="D76" t="n">
-        <v>3.8834753680351386</v>
+        <v>3.8137752167331174</v>
       </c>
       <c r="E76" t="n">
-        <v>3.8182927806110962</v>
+        <v>3.743149748637001</v>
       </c>
       <c r="F76" t="n">
-        <v>3.396431772037389</v>
+        <v>3.331814611888469</v>
       </c>
       <c r="G76" t="n">
-        <v>3.7344765960584514</v>
+        <v>3.3933422460463873</v>
       </c>
       <c r="H76" t="n">
-        <v>3.6974002489573237</v>
+        <v>3.736230803778954</v>
       </c>
       <c r="I76" t="n">
-        <v>3.8834753680351386</v>
+        <v>3.6573598284668627</v>
       </c>
       <c r="J76" t="n">
-        <v>3.8182927806110962</v>
+        <v>3.6997575296181697</v>
       </c>
       <c r="K76" t="n">
-        <v>3.396431772037389</v>
+        <v>3.5255247635110716</v>
       </c>
       <c r="L76" t="n">
-        <v>3.7344765960584514</v>
+        <v>3.2135148882062037</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>2.2719077470746045</v>
+        <v>2.249413610964955</v>
       </c>
       <c r="C79" t="n">
-        <v>2.2493519650136906</v>
+        <v>2.214308717500366</v>
       </c>
       <c r="D79" t="n">
-        <v>2.3625527024388235</v>
+        <v>2.320149889181815</v>
       </c>
       <c r="E79" t="n">
-        <v>2.322898196235906</v>
+        <v>2.277184149812157</v>
       </c>
       <c r="F79" t="n">
-        <v>2.0662546562606163</v>
+        <v>2.0269441336317593</v>
       </c>
       <c r="G79" t="n">
-        <v>2.2719077470746045</v>
+        <v>2.064375110933929</v>
       </c>
       <c r="H79" t="n">
-        <v>2.2493519650136906</v>
+        <v>2.2729749376186272</v>
       </c>
       <c r="I79" t="n">
-        <v>2.3625527024388235</v>
+        <v>2.2249929580234165</v>
       </c>
       <c r="J79" t="n">
-        <v>2.322898196235906</v>
+        <v>2.250786041264445</v>
       </c>
       <c r="K79" t="n">
-        <v>2.0662546562606163</v>
+        <v>2.1447897226556356</v>
       </c>
       <c r="L79" t="n">
-        <v>2.2719077470746045</v>
+        <v>1.9549752641537201</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2.936677225058744</v>
+        <v>2.8785252008001545</v>
       </c>
       <c r="C90" t="n">
-        <v>2.814010870221805</v>
+        <v>2.755703867267734</v>
       </c>
       <c r="D90" t="n">
-        <v>2.6557619048171306</v>
+        <v>2.5922542890817346</v>
       </c>
       <c r="E90" t="n">
-        <v>3.0569639521959</v>
+        <v>2.967234469737353</v>
       </c>
       <c r="F90" t="n">
-        <v>3.0213029516258403</v>
+        <v>2.91228568238967</v>
       </c>
       <c r="G90" t="n">
-        <v>2.936677225058744</v>
+        <v>2.8785252008001545</v>
       </c>
       <c r="H90" t="n">
-        <v>2.814010870221805</v>
+        <v>2.531063737167993</v>
       </c>
       <c r="I90" t="n">
-        <v>2.6557619048171306</v>
+        <v>2.5894087853636543</v>
       </c>
       <c r="J90" t="n">
-        <v>3.0569639521959</v>
+        <v>2.8767700027799976</v>
       </c>
       <c r="K90" t="n">
-        <v>3.0213029516258403</v>
+        <v>2.6225140670152727</v>
       </c>
       <c r="L90" t="n">
-        <v>2.936677225058744</v>
+        <v>2.653488642858489</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2.5662927175581505</v>
+        <v>2.5154750399827415</v>
       </c>
       <c r="C93" t="n">
-        <v>2.4590974935065377</v>
+        <v>2.408144383717402</v>
       </c>
       <c r="D93" t="n">
-        <v>2.3208074682992206</v>
+        <v>2.265309666095927</v>
       </c>
       <c r="E93" t="n">
-        <v>2.6714084412873094</v>
+        <v>2.592995970410799</v>
       </c>
       <c r="F93" t="n">
-        <v>2.640245136964019</v>
+        <v>2.544977525753099</v>
       </c>
       <c r="G93" t="n">
-        <v>2.5662927175581505</v>
+        <v>2.5154750399827415</v>
       </c>
       <c r="H93" t="n">
-        <v>2.4590974935065377</v>
+        <v>2.2118366911228406</v>
       </c>
       <c r="I93" t="n">
-        <v>2.3208074682992206</v>
+        <v>2.2628230477480944</v>
       </c>
       <c r="J93" t="n">
-        <v>2.6714084412873094</v>
+        <v>2.51394121397743</v>
       </c>
       <c r="K93" t="n">
-        <v>2.640245136964019</v>
+        <v>2.2917529698009207</v>
       </c>
       <c r="L93" t="n">
-        <v>2.5662927175581505</v>
+        <v>2.318820918480336</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2.7700107420913986</v>
+        <v>2.7151590442282023</v>
       </c>
       <c r="C94" t="n">
-        <v>2.654306122703165</v>
+        <v>2.599308241715853</v>
       </c>
       <c r="D94" t="n">
-        <v>2.50503832767437</v>
+        <v>2.4451349864795815</v>
       </c>
       <c r="E94" t="n">
-        <v>2.883470785795818</v>
+        <v>2.7988337585557868</v>
       </c>
       <c r="F94" t="n">
-        <v>2.849833669053846</v>
+        <v>2.7470035029460873</v>
       </c>
       <c r="G94" t="n">
-        <v>2.7700107420913986</v>
+        <v>2.7151590442282023</v>
       </c>
       <c r="H94" t="n">
-        <v>2.654306122703165</v>
+        <v>2.3874172078046794</v>
       </c>
       <c r="I94" t="n">
-        <v>2.50503832767437</v>
+        <v>2.4424509748359164</v>
       </c>
       <c r="J94" t="n">
-        <v>2.883470785795818</v>
+        <v>2.7135034597026557</v>
       </c>
       <c r="K94" t="n">
-        <v>2.849833669053846</v>
+        <v>2.473677418454728</v>
       </c>
       <c r="L94" t="n">
-        <v>2.7700107420913986</v>
+        <v>2.502894081111863</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3.1774467911578954</v>
+        <v>3.1145270527191253</v>
       </c>
       <c r="C97" t="n">
-        <v>3.04472338109642</v>
+        <v>2.9816359577127556</v>
       </c>
       <c r="D97" t="n">
-        <v>2.87350004642467</v>
+        <v>2.8047856272468916</v>
       </c>
       <c r="E97" t="n">
-        <v>3.3075954748128367</v>
+        <v>3.210509334845764</v>
       </c>
       <c r="F97" t="n">
-        <v>3.2690107332335</v>
+        <v>3.151055457332065</v>
       </c>
       <c r="G97" t="n">
-        <v>3.1774467911578954</v>
+        <v>3.1145270527191253</v>
       </c>
       <c r="H97" t="n">
-        <v>3.04472338109642</v>
+        <v>2.7385782411683586</v>
       </c>
       <c r="I97" t="n">
-        <v>2.87350004642467</v>
+        <v>2.8017068290115623</v>
       </c>
       <c r="J97" t="n">
-        <v>3.3075954748128367</v>
+        <v>3.112627951153109</v>
       </c>
       <c r="K97" t="n">
-        <v>3.2690107332335</v>
+        <v>2.837526315762344</v>
       </c>
       <c r="L97" t="n">
-        <v>3.1774467911578954</v>
+        <v>2.871040406374919</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>2.549968583211363</v>
+        <v>2.499474155821039</v>
       </c>
       <c r="C100" t="n">
-        <v>2.6681588691607607</v>
+        <v>2.620371106501785</v>
       </c>
       <c r="D100" t="n">
-        <v>2.7449189587718577</v>
+        <v>2.708732457088182</v>
       </c>
       <c r="E100" t="n">
-        <v>2.6700477652148282</v>
+        <v>2.607173937624079</v>
       </c>
       <c r="F100" t="n">
-        <v>2.919580753905023</v>
+        <v>2.8236483784880693</v>
       </c>
       <c r="G100" t="n">
-        <v>2.549968583211363</v>
+        <v>2.8270751386319124</v>
       </c>
       <c r="H100" t="n">
-        <v>2.6681588691607607</v>
+        <v>2.469008917228928</v>
       </c>
       <c r="I100" t="n">
-        <v>2.7449189587718577</v>
+        <v>2.8425990387463784</v>
       </c>
       <c r="J100" t="n">
-        <v>2.6700477652148282</v>
+        <v>2.8706221978965076</v>
       </c>
       <c r="K100" t="n">
-        <v>2.919580753905023</v>
+        <v>2.8100240217154115</v>
       </c>
       <c r="L100" t="n">
-        <v>2.549968583211363</v>
+        <v>2.5599010035700225</v>
       </c>
     </row>
     <row r="101">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>1.958871523187686</v>
+        <v>1.881292452962431</v>
       </c>
       <c r="C101" t="n">
-        <v>2.049664636086401</v>
+        <v>1.9722886012411267</v>
       </c>
       <c r="D101" t="n">
-        <v>2.1086313051843977</v>
+        <v>2.0387960070507103</v>
       </c>
       <c r="E101" t="n">
-        <v>2.051115675410938</v>
+        <v>1.962355418234502</v>
       </c>
       <c r="F101" t="n">
-        <v>2.2428055138110463</v>
+        <v>2.125290382338146</v>
       </c>
       <c r="G101" t="n">
-        <v>1.958871523187686</v>
+        <v>2.12786962004769</v>
       </c>
       <c r="H101" t="n">
-        <v>2.049664636086401</v>
+        <v>1.8583620204522335</v>
       </c>
       <c r="I101" t="n">
-        <v>2.1086313051843977</v>
+        <v>2.139554076179342</v>
       </c>
       <c r="J101" t="n">
-        <v>2.051115675410938</v>
+        <v>2.1606464158198713</v>
       </c>
       <c r="K101" t="n">
-        <v>2.2428055138110463</v>
+        <v>2.115035665555748</v>
       </c>
       <c r="L101" t="n">
-        <v>1.958871523187686</v>
+        <v>1.926774248548003</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>2.853259999347264</v>
+        <v>2.796759801340387</v>
       </c>
       <c r="C104" t="n">
-        <v>2.9855077522925715</v>
+        <v>2.9320361477595305</v>
       </c>
       <c r="D104" t="n">
-        <v>3.0713976313583875</v>
+        <v>3.0309071333773043</v>
       </c>
       <c r="E104" t="n">
-        <v>2.9876213122750275</v>
+        <v>2.9172693171753012</v>
       </c>
       <c r="F104" t="n">
-        <v>3.2668335738828373</v>
+        <v>3.159491071225473</v>
       </c>
       <c r="G104" t="n">
-        <v>2.853259999347264</v>
+        <v>3.1633254077385415</v>
       </c>
       <c r="H104" t="n">
-        <v>2.9855077522925715</v>
+        <v>2.7626710493386004</v>
       </c>
       <c r="I104" t="n">
-        <v>3.0713976313583875</v>
+        <v>3.180695709287389</v>
       </c>
       <c r="J104" t="n">
-        <v>2.9876213122750275</v>
+        <v>3.2120519226873636</v>
       </c>
       <c r="K104" t="n">
-        <v>3.2668335738828373</v>
+        <v>3.1442462433275136</v>
       </c>
       <c r="L104" t="n">
-        <v>2.853259999347264</v>
+        <v>2.864373774588516</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>1.621546825469568</v>
+        <v>1.6382638030517283</v>
       </c>
       <c r="C106" t="n">
-        <v>1.5518028473786876</v>
+        <v>1.5590825705248672</v>
       </c>
       <c r="D106" t="n">
-        <v>1.5648043490974473</v>
+        <v>1.569552067229841</v>
       </c>
       <c r="E106" t="n">
-        <v>1.5902812751274005</v>
+        <v>1.5774969317418195</v>
       </c>
       <c r="F106" t="n">
-        <v>1.652985217493094</v>
+        <v>1.6306915953101762</v>
       </c>
       <c r="G106" t="n">
-        <v>1.621546825469568</v>
+        <v>1.7640185814878078</v>
       </c>
       <c r="H106" t="n">
-        <v>1.5518028473786876</v>
+        <v>1.54109315610856</v>
       </c>
       <c r="I106" t="n">
-        <v>1.5648043490974473</v>
+        <v>1.4863749572370633</v>
       </c>
       <c r="J106" t="n">
-        <v>1.5902812751274005</v>
+        <v>1.701935403702858</v>
       </c>
       <c r="K106" t="n">
-        <v>1.652985217493094</v>
+        <v>1.731351570201667</v>
       </c>
       <c r="L106" t="n">
-        <v>1.621546825469568</v>
+        <v>1.6998724502535112</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>1.621546825469568</v>
+        <v>1.6382638030517283</v>
       </c>
       <c r="C107" t="n">
-        <v>1.5518028473786876</v>
+        <v>1.5590825705248672</v>
       </c>
       <c r="D107" t="n">
-        <v>1.5648043490974473</v>
+        <v>1.569552067229841</v>
       </c>
       <c r="E107" t="n">
-        <v>1.5902812751274005</v>
+        <v>1.5774969317418195</v>
       </c>
       <c r="F107" t="n">
-        <v>1.652985217493094</v>
+        <v>1.6306915953101762</v>
       </c>
       <c r="G107" t="n">
-        <v>1.621546825469568</v>
+        <v>1.7640185814878078</v>
       </c>
       <c r="H107" t="n">
-        <v>1.5518028473786876</v>
+        <v>1.54109315610856</v>
       </c>
       <c r="I107" t="n">
-        <v>1.5648043490974473</v>
+        <v>1.4863749572370633</v>
       </c>
       <c r="J107" t="n">
-        <v>1.5902812751274005</v>
+        <v>1.701935403702858</v>
       </c>
       <c r="K107" t="n">
-        <v>1.652985217493094</v>
+        <v>1.731351570201667</v>
       </c>
       <c r="L107" t="n">
-        <v>1.621546825469568</v>
+        <v>1.6998724502535112</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>1.423384603991431</v>
+        <v>1.4380586720738169</v>
       </c>
       <c r="C111" t="n">
-        <v>1.3621637356967846</v>
+        <v>1.3685538353749678</v>
       </c>
       <c r="D111" t="n">
-        <v>1.373576380145021</v>
+        <v>1.3777439001867462</v>
       </c>
       <c r="E111" t="n">
-        <v>1.3959398812776895</v>
+        <v>1.3847178571823286</v>
       </c>
       <c r="F111" t="n">
-        <v>1.4509810461524988</v>
+        <v>1.4314118310771478</v>
       </c>
       <c r="G111" t="n">
-        <v>1.423384603991431</v>
+        <v>1.5484455031494075</v>
       </c>
       <c r="H111" t="n">
-        <v>1.3621637356967846</v>
+        <v>1.3527628294583929</v>
       </c>
       <c r="I111" t="n">
-        <v>1.373576380145021</v>
+        <v>1.3047315049178414</v>
       </c>
       <c r="J111" t="n">
-        <v>1.3959398812776895</v>
+        <v>1.4939492419018356</v>
       </c>
       <c r="K111" t="n">
-        <v>1.4509810461524988</v>
+        <v>1.5197705859698545</v>
       </c>
       <c r="L111" t="n">
-        <v>1.423384603991431</v>
+        <v>1.4921383930676053</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>2.1821696256379224</v>
+        <v>2.2262538604992947</v>
       </c>
       <c r="C116" t="n">
-        <v>2.2733712196968705</v>
+        <v>2.3095034026226946</v>
       </c>
       <c r="D116" t="n">
-        <v>2.0926139581050953</v>
+        <v>2.128491740222615</v>
       </c>
       <c r="E116" t="n">
-        <v>2.040544795746877</v>
+        <v>2.101622744765363</v>
       </c>
       <c r="F116" t="n">
-        <v>2.2581324224105104</v>
+        <v>2.334851609168415</v>
       </c>
       <c r="G116" t="n">
-        <v>2.1821696256379224</v>
+        <v>2.029229804222464</v>
       </c>
       <c r="H116" t="n">
-        <v>2.2733712196968705</v>
+        <v>2.2984133496167094</v>
       </c>
       <c r="I116" t="n">
-        <v>2.0926139581050953</v>
+        <v>2.1536314066474436</v>
       </c>
       <c r="J116" t="n">
-        <v>2.040544795746877</v>
+        <v>2.236591594970739</v>
       </c>
       <c r="K116" t="n">
-        <v>2.2581324224105104</v>
+        <v>2.142784913452897</v>
       </c>
       <c r="L116" t="n">
-        <v>2.1821696256379224</v>
+        <v>2.141586488071987</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8907873431408851</v>
+        <v>0.8998770099076289</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9280169080232368</v>
+        <v>0.9335274171551577</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8542296648524916</v>
+        <v>0.8603604542992411</v>
       </c>
       <c r="E117" t="n">
-        <v>0.8329744194986436</v>
+        <v>0.8494997021989074</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9217962514858647</v>
+        <v>0.9437734491632809</v>
       </c>
       <c r="G117" t="n">
-        <v>0.8907873431408851</v>
+        <v>0.8202376561986573</v>
       </c>
       <c r="H117" t="n">
-        <v>0.9280169080232368</v>
+        <v>0.9290446921992065</v>
       </c>
       <c r="I117" t="n">
-        <v>0.8542296648524916</v>
+        <v>0.8705221920299849</v>
       </c>
       <c r="J117" t="n">
-        <v>0.8329744194986436</v>
+        <v>0.9040556391962475</v>
       </c>
       <c r="K117" t="n">
-        <v>0.9217962514858647</v>
+        <v>0.8661379167067284</v>
       </c>
       <c r="L117" t="n">
-        <v>0.8907873431408851</v>
+        <v>0.8656534996025042</v>
       </c>
     </row>
     <row r="118">
@@ -4625,37 +4625,37 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="n">
-        <v>1.6327535442974936</v>
+        <v>1.6657384643843118</v>
       </c>
       <c r="C120" t="n">
-        <v>1.7009928434774544</v>
+        <v>1.7280278406849232</v>
       </c>
       <c r="D120" t="n">
-        <v>1.565745768248276</v>
+        <v>1.5925904164487057</v>
       </c>
       <c r="E120" t="n">
-        <v>1.5267863269701354</v>
+        <v>1.5724863663102033</v>
       </c>
       <c r="F120" t="n">
-        <v>1.6895907966393853</v>
+        <v>1.7469939987657876</v>
       </c>
       <c r="G120" t="n">
-        <v>1.6327535442974936</v>
+        <v>1.5183201691159856</v>
       </c>
       <c r="H120" t="n">
-        <v>1.7009928434774544</v>
+        <v>1.7197299874203422</v>
       </c>
       <c r="I120" t="n">
-        <v>1.565745768248276</v>
+        <v>1.6114005396285642</v>
       </c>
       <c r="J120" t="n">
-        <v>1.5267863269701354</v>
+        <v>1.6734734142250345</v>
       </c>
       <c r="K120" t="n">
-        <v>1.6895907966393853</v>
+        <v>1.6032849238677513</v>
       </c>
       <c r="L120" t="n">
-        <v>1.6327535442974936</v>
+        <v>1.6023882322149725</v>
       </c>
     </row>
     <row r="121">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>1.2559979492503064</v>
+        <v>1.2689463817168043</v>
       </c>
       <c r="C126" t="n">
-        <v>1.258649431421117</v>
+        <v>1.2759143595434983</v>
       </c>
       <c r="D126" t="n">
-        <v>1.2442540336787462</v>
+        <v>1.2612929052245259</v>
       </c>
       <c r="E126" t="n">
-        <v>1.1094153451537883</v>
+        <v>1.1219010923631234</v>
       </c>
       <c r="F126" t="n">
-        <v>1.2696084433030645</v>
+        <v>1.2884926903851182</v>
       </c>
       <c r="G126" t="n">
-        <v>1.2559979492503064</v>
+        <v>1.2214734593669998</v>
       </c>
       <c r="H126" t="n">
-        <v>1.258649431421117</v>
+        <v>1.1477626984315397</v>
       </c>
       <c r="I126" t="n">
-        <v>1.2442540336787462</v>
+        <v>1.1624367072692217</v>
       </c>
       <c r="J126" t="n">
-        <v>1.1094153451537883</v>
+        <v>1.2552362762716833</v>
       </c>
       <c r="K126" t="n">
-        <v>1.2696084433030645</v>
+        <v>1.1695881635257317</v>
       </c>
       <c r="L126" t="n">
-        <v>1.2559979492503064</v>
+        <v>1.2759143595434983</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>1.0826508815071607</v>
+        <v>1.093586748997132</v>
       </c>
       <c r="C127" t="n">
-        <v>1.1278991908240468</v>
+        <v>1.134480825697716</v>
       </c>
       <c r="D127" t="n">
-        <v>1.0382191740636875</v>
+        <v>1.0455637624072456</v>
       </c>
       <c r="E127" t="n">
-        <v>1.0123858365155192</v>
+        <v>1.0323650980894552</v>
       </c>
       <c r="F127" t="n">
-        <v>1.1203386890549125</v>
+        <v>1.1469324437638715</v>
       </c>
       <c r="G127" t="n">
-        <v>1.0826508815071607</v>
+        <v>0.9968040320747753</v>
       </c>
       <c r="H127" t="n">
-        <v>1.1278991908240468</v>
+        <v>1.1290331383390508</v>
       </c>
       <c r="I127" t="n">
-        <v>1.0382191740636875</v>
+        <v>1.057912940802487</v>
       </c>
       <c r="J127" t="n">
-        <v>1.0123858365155192</v>
+        <v>1.0986648803069583</v>
       </c>
       <c r="K127" t="n">
-        <v>1.1203386890549125</v>
+        <v>1.0525848955866626</v>
       </c>
       <c r="L127" t="n">
-        <v>1.0826508815071607</v>
+        <v>1.0519962016647884</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>4.32381501759871</v>
+        <v>4.367489916766373</v>
       </c>
       <c r="C128" t="n">
-        <v>3.796108479519981</v>
+        <v>3.818949849618879</v>
       </c>
       <c r="D128" t="n">
-        <v>4.379554809265982</v>
+        <v>4.394120953261233</v>
       </c>
       <c r="E128" t="n">
-        <v>4.257327037868832</v>
+        <v>4.346416386053292</v>
       </c>
       <c r="F128" t="n">
-        <v>3.896117601285316</v>
+        <v>4.030401770933047</v>
       </c>
       <c r="G128" t="n">
-        <v>4.32381501759871</v>
+        <v>4.32554523771349</v>
       </c>
       <c r="H128" t="n">
-        <v>3.796108479519981</v>
+        <v>4.05306994773919</v>
       </c>
       <c r="I128" t="n">
-        <v>4.379554809265982</v>
+        <v>4.0326571716859245</v>
       </c>
       <c r="J128" t="n">
-        <v>4.257327037868832</v>
+        <v>4.396801929630577</v>
       </c>
       <c r="K128" t="n">
-        <v>3.896117601285316</v>
+        <v>3.8660720845885783</v>
       </c>
       <c r="L128" t="n">
-        <v>4.32381501759871</v>
+        <v>3.9551912003148417</v>
       </c>
     </row>
     <row r="129">
@@ -5084,34 +5084,34 @@
         <v>4.970356590161963</v>
       </c>
       <c r="C132" t="n">
-        <v>4.363741908790181</v>
+        <v>4.346098769383055</v>
       </c>
       <c r="D132" t="n">
-        <v>5.034431172381612</v>
+        <v>5.000663643015577</v>
       </c>
       <c r="E132" t="n">
-        <v>4.89392663955772</v>
+        <v>4.946374173658688</v>
       </c>
       <c r="F132" t="n">
-        <v>4.478705429528103</v>
+        <v>4.58673846647122</v>
       </c>
       <c r="G132" t="n">
-        <v>4.970356590161963</v>
+        <v>4.922622075388983</v>
       </c>
       <c r="H132" t="n">
-        <v>4.363741908790181</v>
+        <v>4.6125356461150355</v>
       </c>
       <c r="I132" t="n">
-        <v>5.034431172381612</v>
+        <v>4.589305191571716</v>
       </c>
       <c r="J132" t="n">
-        <v>4.89392663955772</v>
+        <v>5.003714688082513</v>
       </c>
       <c r="K132" t="n">
-        <v>4.478705429528103</v>
+        <v>4.3997255242441655</v>
       </c>
       <c r="L132" t="n">
-        <v>4.970356590161963</v>
+        <v>4.501146201246528</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>4.780607473978152</v>
+        <v>4.685941979443932</v>
       </c>
       <c r="C133" t="n">
-        <v>5.002187209540907</v>
+        <v>4.9125960918948675</v>
       </c>
       <c r="D133" t="n">
-        <v>5.146094809232156</v>
+        <v>5.078253400696746</v>
       </c>
       <c r="E133" t="n">
-        <v>5.005728457324545</v>
+        <v>4.887854420727821</v>
       </c>
       <c r="F133" t="n">
-        <v>5.47354569969783</v>
+        <v>5.293694452143556</v>
       </c>
       <c r="G133" t="n">
-        <v>4.780607473978152</v>
+        <v>5.300118843119603</v>
       </c>
       <c r="H133" t="n">
-        <v>5.002187209540907</v>
+        <v>4.628826629761249</v>
       </c>
       <c r="I133" t="n">
-        <v>5.146094809232156</v>
+        <v>5.329222602829083</v>
       </c>
       <c r="J133" t="n">
-        <v>5.005728457324545</v>
+        <v>5.381759612484657</v>
       </c>
       <c r="K133" t="n">
-        <v>5.47354569969783</v>
+        <v>5.268151901445348</v>
       </c>
       <c r="L133" t="n">
-        <v>4.780607473978152</v>
+        <v>4.799228488885521</v>
       </c>
     </row>
     <row r="134">
@@ -5312,34 +5312,34 @@
         <v>4.970356590161963</v>
       </c>
       <c r="C138" t="n">
-        <v>4.363741908790181</v>
+        <v>4.346098769383055</v>
       </c>
       <c r="D138" t="n">
-        <v>5.034431172381612</v>
+        <v>5.000663643015577</v>
       </c>
       <c r="E138" t="n">
-        <v>4.89392663955772</v>
+        <v>4.946374173658688</v>
       </c>
       <c r="F138" t="n">
-        <v>4.478705429528103</v>
+        <v>4.58673846647122</v>
       </c>
       <c r="G138" t="n">
-        <v>4.970356590161963</v>
+        <v>4.922622075388983</v>
       </c>
       <c r="H138" t="n">
-        <v>4.363741908790181</v>
+        <v>4.6125356461150355</v>
       </c>
       <c r="I138" t="n">
-        <v>5.034431172381612</v>
+        <v>4.589305191571716</v>
       </c>
       <c r="J138" t="n">
-        <v>4.89392663955772</v>
+        <v>5.003714688082513</v>
       </c>
       <c r="K138" t="n">
-        <v>4.478705429528103</v>
+        <v>4.3997255242441655</v>
       </c>
       <c r="L138" t="n">
-        <v>4.970356590161963</v>
+        <v>4.501146201246528</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>3.9640151420002105</v>
+        <v>4.044096255980013</v>
       </c>
       <c r="C153" t="n">
-        <v>3.9199251785135334</v>
+        <v>4.021478267607335</v>
       </c>
       <c r="D153" t="n">
-        <v>4.258726882538364</v>
+        <v>4.357820084076652</v>
       </c>
       <c r="E153" t="n">
-        <v>3.8447545099222795</v>
+        <v>3.950770957033507</v>
       </c>
       <c r="F153" t="n">
-        <v>4.281071985855079</v>
+        <v>4.363108704392098</v>
       </c>
       <c r="G153" t="n">
-        <v>3.9640151420002105</v>
+        <v>4.387067198734885</v>
       </c>
       <c r="H153" t="n">
-        <v>3.9199251785135334</v>
+        <v>4.522266127641241</v>
       </c>
       <c r="I153" t="n">
-        <v>4.258726882538364</v>
+        <v>4.438520457283285</v>
       </c>
       <c r="J153" t="n">
-        <v>3.8447545099222795</v>
+        <v>3.810494511014779</v>
       </c>
       <c r="K153" t="n">
-        <v>4.281071985855079</v>
+        <v>4.430316169355333</v>
       </c>
       <c r="L153" t="n">
-        <v>3.9640151420002105</v>
+        <v>4.387067198734885</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>2.2367330179421887</v>
+        <v>2.281919543557182</v>
       </c>
       <c r="C154" t="n">
-        <v>2.211854839237565</v>
+        <v>2.2691571297973105</v>
       </c>
       <c r="D154" t="n">
-        <v>2.403026903616974</v>
+        <v>2.458941179368818</v>
       </c>
       <c r="E154" t="n">
-        <v>2.1694390788542663</v>
+        <v>2.229259861369983</v>
       </c>
       <c r="F154" t="n">
-        <v>2.4156353394042815</v>
+        <v>2.4619253333781166</v>
       </c>
       <c r="G154" t="n">
-        <v>2.2367330179421887</v>
+        <v>2.4754441403041794</v>
       </c>
       <c r="H154" t="n">
-        <v>2.211854839237565</v>
+        <v>2.5517314140512406</v>
       </c>
       <c r="I154" t="n">
-        <v>2.403026903616974</v>
+        <v>2.5044771278567577</v>
       </c>
       <c r="J154" t="n">
-        <v>2.1694390788542663</v>
+        <v>2.1501075505916365</v>
       </c>
       <c r="K154" t="n">
-        <v>2.4156353394042815</v>
+        <v>2.4998477808336546</v>
       </c>
       <c r="L154" t="n">
-        <v>2.2367330179421887</v>
+        <v>2.4754441403041794</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>4.010203873654048</v>
+        <v>4.091218093323827</v>
       </c>
       <c r="C156" t="n">
-        <v>3.9656001736100768</v>
+        <v>4.068336559995322</v>
       </c>
       <c r="D156" t="n">
-        <v>4.308349597416616</v>
+        <v>4.40859743361966</v>
       </c>
       <c r="E156" t="n">
-        <v>3.8895536158722317</v>
+        <v>3.9968053673531703</v>
       </c>
       <c r="F156" t="n">
-        <v>4.330955066030612</v>
+        <v>4.4139476769753365</v>
       </c>
       <c r="G156" t="n">
-        <v>4.010203873654048</v>
+        <v>4.438185335858718</v>
       </c>
       <c r="H156" t="n">
-        <v>3.9656001736100768</v>
+        <v>4.574959603613046</v>
       </c>
       <c r="I156" t="n">
-        <v>4.308349597416616</v>
+        <v>4.4902381281290324</v>
       </c>
       <c r="J156" t="n">
-        <v>3.8895536158722317</v>
+        <v>3.8548944192222123</v>
       </c>
       <c r="K156" t="n">
-        <v>4.330955066030612</v>
+        <v>4.481938243781809</v>
       </c>
       <c r="L156" t="n">
-        <v>4.010203873654048</v>
+        <v>4.438185335858718</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>1.959038230489338</v>
+        <v>1.9986147603982136</v>
       </c>
       <c r="C157" t="n">
-        <v>1.9372487264240996</v>
+        <v>1.987436825316845</v>
       </c>
       <c r="D157" t="n">
-        <v>2.1046864043752156</v>
+        <v>2.1536588132185215</v>
       </c>
       <c r="E157" t="n">
-        <v>1.9000989658135983</v>
+        <v>1.9524928809505488</v>
       </c>
       <c r="F157" t="n">
-        <v>2.1157294781510614</v>
+        <v>2.156272478659586</v>
       </c>
       <c r="G157" t="n">
-        <v>1.959038230489338</v>
+        <v>2.1681128992132765</v>
       </c>
       <c r="H157" t="n">
-        <v>1.9372487264240996</v>
+        <v>2.2349289584261878</v>
       </c>
       <c r="I157" t="n">
-        <v>2.1046864043752156</v>
+        <v>2.1935413844659104</v>
       </c>
       <c r="J157" t="n">
-        <v>1.9000989658135983</v>
+        <v>1.883167484668335</v>
       </c>
       <c r="K157" t="n">
-        <v>2.1157294781510614</v>
+        <v>2.1894867799477526</v>
       </c>
       <c r="L157" t="n">
-        <v>1.959038230489338</v>
+        <v>2.1681128992132765</v>
       </c>
     </row>
     <row r="158">
@@ -6110,34 +6110,34 @@
         <v>1.6419434868512017</v>
       </c>
       <c r="C159" t="n">
-        <v>1.5384097866129123</v>
+        <v>1.5307654443243328</v>
       </c>
       <c r="D159" t="n">
-        <v>1.6577705680092327</v>
+        <v>1.659877336250872</v>
       </c>
       <c r="E159" t="n">
-        <v>1.6736772215634315</v>
+        <v>1.6578653623129296</v>
       </c>
       <c r="F159" t="n">
-        <v>1.6669645147186292</v>
+        <v>1.6689919754828153</v>
       </c>
       <c r="G159" t="n">
-        <v>1.6419434868512017</v>
+        <v>1.5385139760925333</v>
       </c>
       <c r="H159" t="n">
-        <v>1.5384097866129123</v>
+        <v>1.6885665732128174</v>
       </c>
       <c r="I159" t="n">
-        <v>1.6577705680092327</v>
+        <v>1.685445378552236</v>
       </c>
       <c r="J159" t="n">
-        <v>1.6736772215634315</v>
+        <v>1.6498660131909695</v>
       </c>
       <c r="K159" t="n">
-        <v>1.6669645147186292</v>
+        <v>1.7204263203917902</v>
       </c>
       <c r="L159" t="n">
-        <v>1.6419434868512017</v>
+        <v>1.5903940981432882</v>
       </c>
     </row>
     <row r="160">
@@ -6300,34 +6300,34 @@
         <v>1.4328747280490546</v>
       </c>
       <c r="C164" t="n">
-        <v>1.342523979828513</v>
+        <v>1.335852992084064</v>
       </c>
       <c r="D164" t="n">
-        <v>1.4466865460511555</v>
+        <v>1.4485250593711791</v>
       </c>
       <c r="E164" t="n">
-        <v>1.4605678044916348</v>
+        <v>1.4467692701907002</v>
       </c>
       <c r="F164" t="n">
-        <v>1.4547098269962189</v>
+        <v>1.4564791310644634</v>
       </c>
       <c r="G164" t="n">
-        <v>1.4328747280490546</v>
+        <v>1.3426149028556895</v>
       </c>
       <c r="H164" t="n">
-        <v>1.342523979828513</v>
+        <v>1.4735612941374658</v>
       </c>
       <c r="I164" t="n">
-        <v>1.4466865460511555</v>
+        <v>1.4708375213728835</v>
       </c>
       <c r="J164" t="n">
-        <v>1.4605678044916348</v>
+        <v>1.439788478653423</v>
       </c>
       <c r="K164" t="n">
-        <v>1.4547098269962189</v>
+        <v>1.5013643378721369</v>
       </c>
       <c r="L164" t="n">
-        <v>1.4328747280490546</v>
+        <v>1.3878891259759911</v>
       </c>
     </row>
     <row r="165">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>5.086525197701395</v>
+        <v>5.0361635620805885</v>
       </c>
       <c r="C165" t="n">
-        <v>4.7657913970008305</v>
+        <v>4.695158642507493</v>
       </c>
       <c r="D165" t="n">
-        <v>5.135555415708944</v>
+        <v>5.091170204877818</v>
       </c>
       <c r="E165" t="n">
-        <v>5.184832138545307</v>
+        <v>5.084999085155815</v>
       </c>
       <c r="F165" t="n">
-        <v>5.16403705468018</v>
+        <v>5.119126595794445</v>
       </c>
       <c r="G165" t="n">
-        <v>5.086525197701395</v>
+        <v>4.71892491318802</v>
       </c>
       <c r="H165" t="n">
-        <v>4.7657913970008305</v>
+        <v>5.179165736373682</v>
       </c>
       <c r="I165" t="n">
-        <v>5.135555415708944</v>
+        <v>5.169592418567279</v>
       </c>
       <c r="J165" t="n">
-        <v>5.184832138545307</v>
+        <v>5.060463508328116</v>
       </c>
       <c r="K165" t="n">
-        <v>5.16403705468018</v>
+        <v>5.276885846185466</v>
       </c>
       <c r="L165" t="n">
-        <v>5.086525197701395</v>
+        <v>4.87805144973488</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>1.1703870484057108</v>
+        <v>1.1823297733894427</v>
       </c>
       <c r="C167" t="n">
-        <v>1.2881648843371252</v>
+        <v>1.30252965799912</v>
       </c>
       <c r="D167" t="n">
-        <v>1.2655546913826057</v>
+        <v>1.2898142975693778</v>
       </c>
       <c r="E167" t="n">
-        <v>1.2701678922080064</v>
+        <v>1.2898142975693778</v>
       </c>
       <c r="F167" t="n">
-        <v>1.1832714544086957</v>
+        <v>1.1889795472506115</v>
       </c>
       <c r="G167" t="n">
-        <v>1.1703870484057108</v>
+        <v>1.3049417495836524</v>
       </c>
       <c r="H167" t="n">
-        <v>1.2881648843371252</v>
+        <v>1.28277040989871</v>
       </c>
       <c r="I167" t="n">
-        <v>1.2655546913826057</v>
+        <v>1.3295632924262997</v>
       </c>
       <c r="J167" t="n">
-        <v>1.2701678922080064</v>
+        <v>1.2812155355855819</v>
       </c>
       <c r="K167" t="n">
-        <v>1.1832714544086957</v>
+        <v>1.1615415574835861</v>
       </c>
       <c r="L167" t="n">
-        <v>1.1703870484057108</v>
+        <v>1.275033555671767</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>2.543636877994817</v>
+        <v>2.5186992615438877</v>
       </c>
       <c r="C168" t="n">
-        <v>2.795630205081872</v>
+        <v>2.7628902253630465</v>
       </c>
       <c r="D168" t="n">
-        <v>2.445271986788317</v>
+        <v>2.401240048440787</v>
       </c>
       <c r="E168" t="n">
-        <v>2.512806218431877</v>
+        <v>2.5341946149507404</v>
       </c>
       <c r="F168" t="n">
-        <v>2.6585859764411697</v>
+        <v>2.6466166122114667</v>
       </c>
       <c r="G168" t="n">
-        <v>2.543636877994817</v>
+        <v>2.4869044851124182</v>
       </c>
       <c r="H168" t="n">
-        <v>2.795630205081872</v>
+        <v>2.6343837039566567</v>
       </c>
       <c r="I168" t="n">
-        <v>2.445271986788317</v>
+        <v>2.746145435857805</v>
       </c>
       <c r="J168" t="n">
-        <v>2.512806218431877</v>
+        <v>2.849773567186557</v>
       </c>
       <c r="K168" t="n">
-        <v>2.6585859764411697</v>
+        <v>2.76457594213873</v>
       </c>
       <c r="L168" t="n">
-        <v>2.543636877994817</v>
+        <v>2.7918299271549696</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>1.7325199868688008</v>
+        <v>1.767520390643928</v>
       </c>
       <c r="C171" t="n">
-        <v>1.8258358487072475</v>
+        <v>1.8702832039307133</v>
       </c>
       <c r="D171" t="n">
-        <v>1.7587539600301059</v>
+        <v>1.8092728411516508</v>
       </c>
       <c r="E171" t="n">
-        <v>1.8859643471622154</v>
+        <v>1.9519946069968133</v>
       </c>
       <c r="F171" t="n">
-        <v>1.964291911157454</v>
+        <v>2.0231994411860454</v>
       </c>
       <c r="G171" t="n">
-        <v>1.7325199868688008</v>
+        <v>1.9496285512705798</v>
       </c>
       <c r="H171" t="n">
-        <v>1.8258358487072475</v>
+        <v>1.9615165304278956</v>
       </c>
       <c r="I171" t="n">
-        <v>1.7587539600301059</v>
+        <v>1.7991538653672194</v>
       </c>
       <c r="J171" t="n">
-        <v>1.8859643471622154</v>
+        <v>1.7881529245504808</v>
       </c>
       <c r="K171" t="n">
-        <v>1.964291911157454</v>
+        <v>1.962713306648235</v>
       </c>
       <c r="L171" t="n">
-        <v>1.7325199868688008</v>
+        <v>1.7257978062980046</v>
       </c>
     </row>
     <row r="172">
@@ -6715,37 +6715,37 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="n">
-        <v>1.0899668324247633</v>
+        <v>1.0790671641005156</v>
       </c>
       <c r="C175" t="n">
-        <v>1.1486739152370442</v>
+        <v>1.1418036270546796</v>
       </c>
       <c r="D175" t="n">
-        <v>1.1064712080425145</v>
+        <v>1.104556939834985</v>
       </c>
       <c r="E175" t="n">
-        <v>1.1865020900899452</v>
+        <v>1.1916882521192247</v>
       </c>
       <c r="F175" t="n">
-        <v>1.2357797015844805</v>
+        <v>1.2351586408658182</v>
       </c>
       <c r="G175" t="n">
-        <v>1.0899668324247633</v>
+        <v>1.1902437804989112</v>
       </c>
       <c r="H175" t="n">
-        <v>1.1486739152370442</v>
+        <v>1.19750136463999</v>
       </c>
       <c r="I175" t="n">
-        <v>1.1064712080425145</v>
+        <v>1.0983793282152796</v>
       </c>
       <c r="J175" t="n">
-        <v>1.1865020900899452</v>
+        <v>1.091663278956447</v>
       </c>
       <c r="K175" t="n">
-        <v>1.2357797015844805</v>
+        <v>1.1982319937908503</v>
       </c>
       <c r="L175" t="n">
-        <v>1.0899668324247633</v>
+        <v>1.0535956215896547</v>
       </c>
     </row>
     <row r="176">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1.2590136582833051</v>
+        <v>1.246423521700472</v>
       </c>
       <c r="C176" t="n">
-        <v>1.3268258310025451</v>
+        <v>1.3188900054337092</v>
       </c>
       <c r="D176" t="n">
-        <v>1.2780777561127417</v>
+        <v>1.2758665972524894</v>
       </c>
       <c r="E176" t="n">
-        <v>1.3705209117985184</v>
+        <v>1.3765114141098664</v>
       </c>
       <c r="F176" t="n">
-        <v>1.4274411630149524</v>
+        <v>1.426723779784419</v>
       </c>
       <c r="G176" t="n">
-        <v>1.2590136582833051</v>
+        <v>1.374842914257507</v>
       </c>
       <c r="H176" t="n">
-        <v>1.3268258310025451</v>
+        <v>1.3832261028903494</v>
       </c>
       <c r="I176" t="n">
-        <v>1.2780777561127417</v>
+        <v>1.2687308779136943</v>
       </c>
       <c r="J176" t="n">
-        <v>1.3705209117985184</v>
+        <v>1.2609732127306508</v>
       </c>
       <c r="K176" t="n">
-        <v>1.4274411630149524</v>
+        <v>1.3840700479102421</v>
       </c>
       <c r="L176" t="n">
-        <v>1.2590136582833051</v>
+        <v>1.2170015072274478</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>5.158100627873509</v>
+        <v>5.3144067075060395</v>
       </c>
       <c r="C177" t="n">
-        <v>5.938243629605809</v>
+        <v>6.08512467270929</v>
       </c>
       <c r="D177" t="n">
-        <v>5.971972988877981</v>
+        <v>6.178857336950806</v>
       </c>
       <c r="E177" t="n">
-        <v>5.44951190315683</v>
+        <v>5.57436656881971</v>
       </c>
       <c r="F177" t="n">
-        <v>5.173626946515449</v>
+        <v>5.379981467965551</v>
       </c>
       <c r="G177" t="n">
-        <v>5.158100627873509</v>
+        <v>6.048423075773291</v>
       </c>
       <c r="H177" t="n">
-        <v>5.938243629605809</v>
+        <v>5.608660770323649</v>
       </c>
       <c r="I177" t="n">
-        <v>5.971972988877981</v>
+        <v>6.019379025681494</v>
       </c>
       <c r="J177" t="n">
-        <v>5.44951190315683</v>
+        <v>5.611799360082926</v>
       </c>
       <c r="K177" t="n">
-        <v>5.173626946515449</v>
+        <v>5.857472302807283</v>
       </c>
       <c r="L177" t="n">
-        <v>5.158100627873509</v>
+        <v>6.114808203080961</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>2.917692553819854</v>
+        <v>2.859338702743457</v>
       </c>
       <c r="C178" t="n">
-        <v>2.6116003856590897</v>
+        <v>2.5721493614702786</v>
       </c>
       <c r="D178" t="n">
-        <v>2.6552921265970513</v>
+        <v>2.621060478883776</v>
       </c>
       <c r="E178" t="n">
-        <v>2.904770244956319</v>
+        <v>2.8575952038056616</v>
       </c>
       <c r="F178" t="n">
-        <v>2.8680078687383643</v>
+        <v>2.8129988811438262</v>
       </c>
       <c r="G178" t="n">
-        <v>2.917692553819854</v>
+        <v>2.514193205876117</v>
       </c>
       <c r="H178" t="n">
-        <v>2.6116003856590897</v>
+        <v>2.826571856040994</v>
       </c>
       <c r="I178" t="n">
-        <v>2.6552921265970513</v>
+        <v>2.7246837997051254</v>
       </c>
       <c r="J178" t="n">
-        <v>2.904770244956319</v>
+        <v>2.5749758987914197</v>
       </c>
       <c r="K178" t="n">
-        <v>2.8680078687383643</v>
+        <v>2.840276444725167</v>
       </c>
       <c r="L178" t="n">
-        <v>2.917692553819854</v>
+        <v>2.8437233845751964</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>5.770239886177808</v>
+        <v>5.598846622231932</v>
       </c>
       <c r="C179" t="n">
-        <v>5.164889869002236</v>
+        <v>5.036503632999636</v>
       </c>
       <c r="D179" t="n">
-        <v>5.251297816929</v>
+        <v>5.132276073059781</v>
       </c>
       <c r="E179" t="n">
-        <v>5.7446837932549055</v>
+        <v>5.59543269189574</v>
       </c>
       <c r="F179" t="n">
-        <v>5.671979858330097</v>
+        <v>5.508109014480535</v>
       </c>
       <c r="G179" t="n">
-        <v>5.770239886177808</v>
+        <v>4.923020181153032</v>
       </c>
       <c r="H179" t="n">
-        <v>5.164889869002236</v>
+        <v>5.5346861403676275</v>
       </c>
       <c r="I179" t="n">
-        <v>5.251297816929</v>
+        <v>5.335180009976527</v>
       </c>
       <c r="J179" t="n">
-        <v>5.7446837932549055</v>
+        <v>5.042038251517512</v>
       </c>
       <c r="K179" t="n">
-        <v>5.671979858330097</v>
+        <v>5.561520978083719</v>
       </c>
       <c r="L179" t="n">
-        <v>5.770239886177808</v>
+        <v>5.5682704014793645</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>2.501183466407044</v>
+        <v>2.526968862967941</v>
       </c>
       <c r="C184" t="n">
-        <v>2.2387868443921333</v>
+        <v>2.27316244175688</v>
       </c>
       <c r="D184" t="n">
-        <v>2.276241462394807</v>
+        <v>2.3163881255970944</v>
       </c>
       <c r="E184" t="n">
-        <v>2.490105854670686</v>
+        <v>2.5254280285350705</v>
       </c>
       <c r="F184" t="n">
-        <v>2.45859141444572</v>
+        <v>2.486015587238346</v>
       </c>
       <c r="G184" t="n">
-        <v>2.501183466407044</v>
+        <v>2.2219431159514924</v>
       </c>
       <c r="H184" t="n">
-        <v>2.2387868443921333</v>
+        <v>2.498010838066826</v>
       </c>
       <c r="I184" t="n">
-        <v>2.276241462394807</v>
+        <v>2.4079662604090517</v>
       </c>
       <c r="J184" t="n">
-        <v>2.490105854670686</v>
+        <v>2.2756604220743872</v>
       </c>
       <c r="K184" t="n">
-        <v>2.45859141444572</v>
+        <v>2.510122403881488</v>
       </c>
       <c r="L184" t="n">
-        <v>2.501183466407044</v>
+        <v>2.5131686710708876</v>
       </c>
     </row>
     <row r="185">
@@ -7174,34 +7174,34 @@
         <v>3.573168476371744</v>
       </c>
       <c r="C187" t="n">
-        <v>3.198310993631001</v>
+        <v>3.21428273121581</v>
       </c>
       <c r="D187" t="n">
-        <v>3.2518183281145245</v>
+        <v>3.275404438384793</v>
       </c>
       <c r="E187" t="n">
-        <v>3.557343098672962</v>
+        <v>3.5709897154445613</v>
       </c>
       <c r="F187" t="n">
-        <v>3.5123218493824777</v>
+        <v>3.5152599852994477</v>
       </c>
       <c r="G187" t="n">
-        <v>3.573168476371744</v>
+        <v>3.1418579051600304</v>
       </c>
       <c r="H187" t="n">
-        <v>3.198310993631001</v>
+        <v>3.532221433758356</v>
       </c>
       <c r="I187" t="n">
-        <v>3.2518183281145245</v>
+        <v>3.4048971714494503</v>
       </c>
       <c r="J187" t="n">
-        <v>3.557343098672962</v>
+        <v>3.2178149094930806</v>
       </c>
       <c r="K187" t="n">
-        <v>3.5123218493824777</v>
+        <v>3.549347353195932</v>
       </c>
       <c r="L187" t="n">
-        <v>3.573168476371744</v>
+        <v>3.5536548165965627</v>
       </c>
     </row>
     <row r="188">
@@ -7475,37 +7475,37 @@
         <v>194.0</v>
       </c>
       <c r="B195" t="n">
-        <v>1.5852396521881496</v>
+        <v>1.6015823290148314</v>
       </c>
       <c r="C195" t="n">
-        <v>1.5885861820744025</v>
+        <v>1.6103768614844398</v>
       </c>
       <c r="D195" t="n">
-        <v>1.570417238945278</v>
+        <v>1.5919226043155266</v>
       </c>
       <c r="E195" t="n">
-        <v>1.4002325377470022</v>
+        <v>1.415991243065948</v>
       </c>
       <c r="F195" t="n">
-        <v>1.6024179404737167</v>
+        <v>1.6262524198962816</v>
       </c>
       <c r="G195" t="n">
-        <v>1.5852396521881496</v>
+        <v>1.5416650664435998</v>
       </c>
       <c r="H195" t="n">
-        <v>1.5885861820744025</v>
+        <v>1.4486320952531622</v>
       </c>
       <c r="I195" t="n">
-        <v>1.570417238945278</v>
+        <v>1.4671526833480213</v>
       </c>
       <c r="J195" t="n">
-        <v>1.4002325377470022</v>
+        <v>1.5842783176505937</v>
       </c>
       <c r="K195" t="n">
-        <v>1.6024179404737167</v>
+        <v>1.4761787904650556</v>
       </c>
       <c r="L195" t="n">
-        <v>1.5852396521881496</v>
+        <v>1.6103768614844398</v>
       </c>
     </row>
     <row r="196">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>3.653128734361833</v>
+        <v>3.61731374677005</v>
       </c>
       <c r="C200" t="n">
-        <v>4.015037335394089</v>
+        <v>3.9680167241944475</v>
       </c>
       <c r="D200" t="n">
-        <v>3.511858723053413</v>
+        <v>3.4486207897624737</v>
       </c>
       <c r="E200" t="n">
-        <v>3.6088502568310736</v>
+        <v>3.639567914127574</v>
       </c>
       <c r="F200" t="n">
-        <v>3.818216706688445</v>
+        <v>3.801026506004596</v>
       </c>
       <c r="G200" t="n">
-        <v>3.653128734361833</v>
+        <v>3.571650620720402</v>
       </c>
       <c r="H200" t="n">
-        <v>4.015037335394089</v>
+        <v>3.783457807800437</v>
       </c>
       <c r="I200" t="n">
-        <v>3.511858723053413</v>
+        <v>3.9439681376129143</v>
       </c>
       <c r="J200" t="n">
-        <v>3.6088502568310736</v>
+        <v>4.092797126341729</v>
       </c>
       <c r="K200" t="n">
-        <v>3.818216706688445</v>
+        <v>3.970437722429109</v>
       </c>
       <c r="L200" t="n">
-        <v>3.653128734361833</v>
+        <v>4.009579439806307</v>
       </c>
     </row>
     <row r="201">
@@ -7969,37 +7969,37 @@
         <v>207.0</v>
       </c>
       <c r="B208" t="n">
-        <v>0.8801404308885604</v>
+        <v>0.8625376222707892</v>
       </c>
       <c r="C208" t="n">
-        <v>0.9744342365330463</v>
+        <v>0.9514535375129167</v>
       </c>
       <c r="D208" t="n">
-        <v>0.926823911620859</v>
+        <v>0.9002977313333135</v>
       </c>
       <c r="E208" t="n">
-        <v>0.9642548258874578</v>
+        <v>0.925182911792708</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9665573647005239</v>
+        <v>0.9296470033077193</v>
       </c>
       <c r="G208" t="n">
-        <v>0.8801404308885604</v>
+        <v>0.9496948436312619</v>
       </c>
       <c r="H208" t="n">
-        <v>0.9744342365330463</v>
+        <v>0.9404238745129163</v>
       </c>
       <c r="I208" t="n">
-        <v>0.926823911620859</v>
+        <v>0.9398504454103348</v>
       </c>
       <c r="J208" t="n">
-        <v>0.9642548258874578</v>
+        <v>0.8269070445118951</v>
       </c>
       <c r="K208" t="n">
-        <v>0.9665573647005239</v>
+        <v>0.8669036733808491</v>
       </c>
       <c r="L208" t="n">
-        <v>0.8801404308885604</v>
+        <v>0.8567841751677454</v>
       </c>
     </row>
     <row r="209">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>0.5275216404292399</v>
+        <v>0.5064207748120703</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5840376477505684</v>
+        <v>0.5586258792937691</v>
       </c>
       <c r="D213" t="n">
-        <v>0.5555018870723658</v>
+        <v>0.5285908265230765</v>
       </c>
       <c r="E213" t="n">
-        <v>0.5779365084165391</v>
+        <v>0.5432016354248456</v>
       </c>
       <c r="F213" t="n">
-        <v>0.5793165598369635</v>
+        <v>0.5458226326144086</v>
       </c>
       <c r="G213" t="n">
-        <v>0.5275216404292399</v>
+        <v>0.5575932992703492</v>
       </c>
       <c r="H213" t="n">
-        <v>0.5840376477505684</v>
+        <v>0.5521500452684995</v>
       </c>
       <c r="I213" t="n">
-        <v>0.5555018870723658</v>
+        <v>0.5518133684639972</v>
       </c>
       <c r="J213" t="n">
-        <v>0.5779365084165391</v>
+        <v>0.4855010324961855</v>
       </c>
       <c r="K213" t="n">
-        <v>0.5793165598369635</v>
+        <v>0.5089842096454456</v>
       </c>
       <c r="L213" t="n">
-        <v>0.5275216404292399</v>
+        <v>0.5030427596802862</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.5144246890202596</v>
+        <v>0.5197280363297468</v>
       </c>
       <c r="C214" t="n">
-        <v>0.5695375550389589</v>
+        <v>0.5733049387558594</v>
       </c>
       <c r="D214" t="n">
-        <v>0.5417102609759202</v>
+        <v>0.542480652364044</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5635878906763301</v>
+        <v>0.5574753907266704</v>
       </c>
       <c r="F214" t="n">
-        <v>0.5649336791111061</v>
+        <v>0.5601652600809892</v>
       </c>
       <c r="G214" t="n">
-        <v>0.5144246890202596</v>
+        <v>0.5722452255398593</v>
       </c>
       <c r="H214" t="n">
-        <v>0.5695375550389589</v>
+        <v>0.5666589386923753</v>
       </c>
       <c r="I214" t="n">
-        <v>0.5417102609759202</v>
+        <v>0.566313415003015</v>
       </c>
       <c r="J214" t="n">
-        <v>0.5635878906763301</v>
+        <v>0.4982585841762608</v>
       </c>
       <c r="K214" t="n">
-        <v>0.5649336791111061</v>
+        <v>0.5223588307569774</v>
       </c>
       <c r="L214" t="n">
-        <v>0.5144246890202596</v>
+        <v>0.5162612568087334</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>0.587046900054559</v>
+        <v>0.5929766667217767</v>
       </c>
       <c r="C221" t="n">
-        <v>0.5705285614520298</v>
+        <v>0.5796156043841721</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6470932508888324</v>
+        <v>0.6591845552904437</v>
       </c>
       <c r="E221" t="n">
-        <v>0.6389280044053695</v>
+        <v>0.6591845552904437</v>
       </c>
       <c r="F221" t="n">
-        <v>0.5990454368384233</v>
+        <v>0.604590647225256</v>
       </c>
       <c r="G221" t="n">
-        <v>0.587046900054559</v>
+        <v>0.6281415619256369</v>
       </c>
       <c r="H221" t="n">
-        <v>0.5705285614520298</v>
+        <v>0.6547899915885075</v>
       </c>
       <c r="I221" t="n">
-        <v>0.6470932508888324</v>
+        <v>0.5936282893313195</v>
       </c>
       <c r="J221" t="n">
-        <v>0.6389280044053695</v>
+        <v>0.6669157323657009</v>
       </c>
       <c r="K221" t="n">
-        <v>0.5990454368384233</v>
+        <v>0.6555846401937862</v>
       </c>
       <c r="L221" t="n">
-        <v>0.587046900054559</v>
+        <v>0.6794990482739526</v>
       </c>
     </row>
     <row r="222">
@@ -8501,37 +8501,37 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="n">
-        <v>0.8613303109087376</v>
+        <v>0.8703969457604085</v>
       </c>
       <c r="C222" t="n">
-        <v>0.8370941796509284</v>
+        <v>0.8507849972581887</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9494318612758601</v>
+        <v>0.9675797646291512</v>
       </c>
       <c r="E222" t="n">
-        <v>0.9374516016209774</v>
+        <v>0.9675797646291512</v>
       </c>
       <c r="F222" t="n">
-        <v>0.8789348726865703</v>
+        <v>0.8874444515488484</v>
       </c>
       <c r="G222" t="n">
-        <v>0.8613303109087376</v>
+        <v>0.9220135086053436</v>
       </c>
       <c r="H222" t="n">
-        <v>0.8370941796509284</v>
+        <v>0.9611292328649569</v>
       </c>
       <c r="I222" t="n">
-        <v>0.9494318612758601</v>
+        <v>0.8713534257721264</v>
       </c>
       <c r="J222" t="n">
-        <v>0.9374516016209774</v>
+        <v>0.9789279226446065</v>
       </c>
       <c r="K222" t="n">
-        <v>0.8789348726865703</v>
+        <v>0.9622956526548131</v>
       </c>
       <c r="L222" t="n">
-        <v>0.8613303109087376</v>
+        <v>0.9973982611060345</v>
       </c>
     </row>
     <row r="223">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>1.1654865825575882</v>
+        <v>1.177754862373984</v>
       </c>
       <c r="C224" t="n">
-        <v>1.1326920954295552</v>
+        <v>1.1512174671985698</v>
       </c>
       <c r="D224" t="n">
-        <v>1.2846988911864</v>
+        <v>1.3092552519598848</v>
       </c>
       <c r="E224" t="n">
-        <v>1.2684881161718873</v>
+        <v>1.3092552519598848</v>
       </c>
       <c r="F224" t="n">
-        <v>1.189307734889059</v>
+        <v>1.200822248962919</v>
       </c>
       <c r="G224" t="n">
-        <v>1.1654865825575882</v>
+        <v>1.2475984643831166</v>
       </c>
       <c r="H224" t="n">
-        <v>1.1326920954295552</v>
+        <v>1.3005268836134856</v>
       </c>
       <c r="I224" t="n">
-        <v>1.2846988911864</v>
+        <v>1.1790490982856003</v>
       </c>
       <c r="J224" t="n">
-        <v>1.2684881161718873</v>
+        <v>1.3246107151732975</v>
       </c>
       <c r="K224" t="n">
-        <v>1.189307734889059</v>
+        <v>1.3021051940450235</v>
       </c>
       <c r="L224" t="n">
-        <v>1.1654865825575882</v>
+        <v>1.3496033705802342</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>4.401664710033452</v>
+        <v>4.48969800423412</v>
       </c>
       <c r="C230" t="n">
-        <v>5.067399670873157</v>
+        <v>5.140813189926084</v>
       </c>
       <c r="D230" t="n">
-        <v>5.096182616595092</v>
+        <v>5.220000082977063</v>
       </c>
       <c r="E230" t="n">
-        <v>4.6503404957653105</v>
+        <v>4.709316361420163</v>
       </c>
       <c r="F230" t="n">
-        <v>4.414914092659617</v>
+        <v>4.545096638054782</v>
       </c>
       <c r="G230" t="n">
-        <v>4.401664710033452</v>
+        <v>5.109807078503897</v>
       </c>
       <c r="H230" t="n">
-        <v>5.067399670873157</v>
+        <v>4.73828866567222</v>
       </c>
       <c r="I230" t="n">
-        <v>5.096182616595092</v>
+        <v>5.085270188328019</v>
       </c>
       <c r="J230" t="n">
-        <v>4.6503404957653105</v>
+        <v>4.740940197810028</v>
       </c>
       <c r="K230" t="n">
-        <v>4.414914092659617</v>
+        <v>4.948488731701122</v>
       </c>
       <c r="L230" t="n">
-        <v>4.401664710033452</v>
+        <v>5.165890323537271</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>4.375119069956957</v>
+        <v>4.462621451356097</v>
       </c>
       <c r="C238" t="n">
-        <v>5.036839104212976</v>
+        <v>5.109809879671852</v>
       </c>
       <c r="D238" t="n">
-        <v>5.065448465219171</v>
+        <v>5.188519210959229</v>
       </c>
       <c r="E238" t="n">
-        <v>4.622295137209867</v>
+        <v>4.680915330134968</v>
       </c>
       <c r="F238" t="n">
-        <v>4.388288547963939</v>
+        <v>4.51768598608221</v>
       </c>
       <c r="G238" t="n">
-        <v>4.375119069956957</v>
+        <v>5.078990760473791</v>
       </c>
       <c r="H238" t="n">
-        <v>5.036839104212976</v>
+        <v>4.709712907684396</v>
       </c>
       <c r="I238" t="n">
-        <v>5.065448465219171</v>
+        <v>5.054601847824171</v>
       </c>
       <c r="J238" t="n">
-        <v>4.622295137209867</v>
+        <v>4.712348448913668</v>
       </c>
       <c r="K238" t="n">
-        <v>4.388288547963939</v>
+        <v>4.9186452953087745</v>
       </c>
       <c r="L238" t="n">
-        <v>4.375119069956957</v>
+        <v>5.134735777646787</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>2.5925396683489677</v>
+        <v>2.6189941547606916</v>
       </c>
       <c r="C242" t="n">
-        <v>2.6365286788506697</v>
+        <v>2.673350637249914</v>
       </c>
       <c r="D242" t="n">
-        <v>2.5470899403525626</v>
+        <v>2.551397066456408</v>
       </c>
       <c r="E242" t="n">
-        <v>2.4704975275149654</v>
+        <v>2.482770662301028</v>
       </c>
       <c r="F242" t="n">
-        <v>2.3121896407114133</v>
+        <v>2.3329459458137096</v>
       </c>
       <c r="G242" t="n">
-        <v>2.5925396683489677</v>
+        <v>2.3627723807322574</v>
       </c>
       <c r="H242" t="n">
-        <v>2.6365286788506697</v>
+        <v>2.5934274013001017</v>
       </c>
       <c r="I242" t="n">
-        <v>2.5470899403525626</v>
+        <v>2.5792642684125107</v>
       </c>
       <c r="J242" t="n">
-        <v>2.4704975275149654</v>
+        <v>2.47129506527291</v>
       </c>
       <c r="K242" t="n">
-        <v>2.3121896407114133</v>
+        <v>2.2525847974745274</v>
       </c>
       <c r="L242" t="n">
-        <v>2.5925396683489677</v>
+        <v>2.6238441431827155</v>
       </c>
     </row>
     <row r="243">
@@ -9299,37 +9299,37 @@
         <v>242.0</v>
       </c>
       <c r="B243" t="n">
-        <v>2.0420875942947134</v>
+        <v>2.0627147417118317</v>
       </c>
       <c r="C243" t="n">
-        <v>2.0767367893398303</v>
+        <v>2.1055258024140135</v>
       </c>
       <c r="D243" t="n">
-        <v>2.0062878235762063</v>
+        <v>2.0094754054236668</v>
       </c>
       <c r="E243" t="n">
-        <v>1.9459576315323701</v>
+        <v>1.9554253819577267</v>
       </c>
       <c r="F243" t="n">
-        <v>1.8212619226615305</v>
+        <v>1.837423724409382</v>
       </c>
       <c r="G243" t="n">
-        <v>2.0420875942947134</v>
+        <v>1.8609149669871337</v>
       </c>
       <c r="H243" t="n">
-        <v>2.0767367893398303</v>
+        <v>2.0425784160293143</v>
       </c>
       <c r="I243" t="n">
-        <v>2.0062878235762063</v>
+        <v>2.031423559901456</v>
       </c>
       <c r="J243" t="n">
-        <v>1.9459576315323701</v>
+        <v>1.946387223885928</v>
       </c>
       <c r="K243" t="n">
-        <v>1.8212619226615305</v>
+        <v>1.7741314390719718</v>
       </c>
       <c r="L243" t="n">
-        <v>2.0420875942947134</v>
+        <v>2.06653458323269</v>
       </c>
     </row>
     <row r="244">
@@ -9375,37 +9375,37 @@
         <v>244.0</v>
       </c>
       <c r="B245" t="n">
-        <v>0.644596049996329</v>
+        <v>0.6513105921837908</v>
       </c>
       <c r="C245" t="n">
-        <v>0.6555332567665159</v>
+        <v>0.6648283591993183</v>
       </c>
       <c r="D245" t="n">
-        <v>0.6332956577602682</v>
+        <v>0.6345000546217526</v>
       </c>
       <c r="E245" t="n">
-        <v>0.6142521046846677</v>
+        <v>0.6174335392770598</v>
       </c>
       <c r="F245" t="n">
-        <v>0.5748912263294981</v>
+        <v>0.5801740346532166</v>
       </c>
       <c r="G245" t="n">
-        <v>0.644596049996329</v>
+        <v>0.5875914903028286</v>
       </c>
       <c r="H245" t="n">
-        <v>0.6555332567665159</v>
+        <v>0.6449524652263997</v>
       </c>
       <c r="I245" t="n">
-        <v>0.6332956577602682</v>
+        <v>0.6414302739105365</v>
       </c>
       <c r="J245" t="n">
-        <v>0.6142521046846677</v>
+        <v>0.6145797040050489</v>
       </c>
       <c r="K245" t="n">
-        <v>0.5748912263294981</v>
+        <v>0.5601892374293584</v>
       </c>
       <c r="L245" t="n">
-        <v>0.644596049996329</v>
+        <v>0.6525167227226815</v>
       </c>
     </row>
     <row r="246">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>1.3153505803751255</v>
+        <v>1.3286369498738642</v>
       </c>
       <c r="C250" t="n">
-        <v>1.337668838876601</v>
+        <v>1.3562124337553665</v>
       </c>
       <c r="D250" t="n">
-        <v>1.2922912124403487</v>
+        <v>1.2943443994068455</v>
       </c>
       <c r="E250" t="n">
-        <v>1.2534312960779412</v>
+        <v>1.2595296686705924</v>
       </c>
       <c r="F250" t="n">
-        <v>1.1731122277422883</v>
+        <v>1.1835223763413674</v>
       </c>
       <c r="G250" t="n">
-        <v>1.3153505803751255</v>
+        <v>1.198653568384601</v>
       </c>
       <c r="H250" t="n">
-        <v>1.337668838876601</v>
+        <v>1.3156667287398047</v>
       </c>
       <c r="I250" t="n">
-        <v>1.2922912124403487</v>
+        <v>1.308481656697463</v>
       </c>
       <c r="J250" t="n">
-        <v>1.2534312960779412</v>
+        <v>1.253708005340147</v>
       </c>
       <c r="K250" t="n">
-        <v>1.1731122277422883</v>
+        <v>1.1427545148233684</v>
       </c>
       <c r="L250" t="n">
-        <v>1.3153505803751255</v>
+        <v>1.331097388287691</v>
       </c>
     </row>
     <row r="251">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>1.669182444250712</v>
+        <v>1.6862149181716377</v>
       </c>
       <c r="C253" t="n">
-        <v>1.477726041434426</v>
+        <v>1.5009165757245833</v>
       </c>
       <c r="D253" t="n">
-        <v>1.4860109876392915</v>
+        <v>1.4992690275983285</v>
       </c>
       <c r="E253" t="n">
-        <v>1.453804064242517</v>
+        <v>1.4476248903034337</v>
       </c>
       <c r="F253" t="n">
-        <v>1.50156792676255</v>
+        <v>1.5184370028175136</v>
       </c>
       <c r="G253" t="n">
-        <v>1.669182444250712</v>
+        <v>1.6656513212865638</v>
       </c>
       <c r="H253" t="n">
-        <v>1.477726041434426</v>
+        <v>1.595553966133323</v>
       </c>
       <c r="I253" t="n">
-        <v>1.4860109876392915</v>
+        <v>1.6666675818491283</v>
       </c>
       <c r="J253" t="n">
-        <v>1.453804064242517</v>
+        <v>1.52777861749297</v>
       </c>
       <c r="K253" t="n">
-        <v>1.50156792676255</v>
+        <v>1.6396567634614103</v>
       </c>
       <c r="L253" t="n">
-        <v>1.669182444250712</v>
+        <v>1.5286335578289372</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>1.905160493731152</v>
+        <v>1.867057283856529</v>
       </c>
       <c r="C254" t="n">
-        <v>1.6866372423191693</v>
+        <v>1.661886153994007</v>
       </c>
       <c r="D254" t="n">
-        <v>1.6960934597965125</v>
+        <v>1.6600619104195502</v>
       </c>
       <c r="E254" t="n">
-        <v>1.6593333331300089</v>
+        <v>1.6028790675530722</v>
       </c>
       <c r="F254" t="n">
-        <v>1.7138497367829486</v>
+        <v>1.6812856034162682</v>
       </c>
       <c r="G254" t="n">
-        <v>1.905160493731152</v>
+        <v>1.8442882922334465</v>
       </c>
       <c r="H254" t="n">
-        <v>1.6866372423191693</v>
+        <v>1.7666731696843914</v>
       </c>
       <c r="I254" t="n">
-        <v>1.6960934597965125</v>
+        <v>1.8454135442195276</v>
       </c>
       <c r="J254" t="n">
-        <v>1.6593333331300089</v>
+        <v>1.691629083084746</v>
       </c>
       <c r="K254" t="n">
-        <v>1.7138497367829486</v>
+        <v>1.815505882586219</v>
       </c>
       <c r="L254" t="n">
-        <v>1.905160493731152</v>
+        <v>1.6925757136502382</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>2.0944324452433056</v>
+        <v>2.0734881207908726</v>
       </c>
       <c r="C260" t="n">
-        <v>1.854199567591633</v>
+        <v>1.8456322835985357</v>
       </c>
       <c r="D260" t="n">
-        <v>1.86459523176743</v>
+        <v>1.8436063428768603</v>
       </c>
       <c r="E260" t="n">
-        <v>1.8241830973383795</v>
+        <v>1.7801010897590859</v>
       </c>
       <c r="F260" t="n">
-        <v>1.884115541342129</v>
+        <v>1.8671766294923346</v>
       </c>
       <c r="G260" t="n">
-        <v>2.0944324452433056</v>
+        <v>2.048201679897463</v>
       </c>
       <c r="H260" t="n">
-        <v>1.854199567591633</v>
+        <v>1.9620050559423725</v>
       </c>
       <c r="I260" t="n">
-        <v>1.86459523176743</v>
+        <v>2.049451345157447</v>
       </c>
       <c r="J260" t="n">
-        <v>1.8241830973383795</v>
+        <v>1.8786637340421908</v>
       </c>
       <c r="K260" t="n">
-        <v>1.884115541342129</v>
+        <v>2.0162369485486797</v>
       </c>
       <c r="L260" t="n">
-        <v>2.0944324452433056</v>
+        <v>1.8797150286378612</v>
       </c>
     </row>
     <row r="261">
@@ -10135,37 +10135,37 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="n">
-        <v>0.044314833039542846</v>
+        <v>0.04477644588370475</v>
       </c>
       <c r="C265" t="n">
-        <v>0.04252304606122513</v>
+        <v>0.043148211462591686</v>
       </c>
       <c r="D265" t="n">
-        <v>0.04386992170121938</v>
+        <v>0.04394725242826929</v>
       </c>
       <c r="E265" t="n">
-        <v>0.04140447723494635</v>
+        <v>0.04139217961572415</v>
       </c>
       <c r="F265" t="n">
-        <v>0.042192149530130375</v>
+        <v>0.04343779677442116</v>
       </c>
       <c r="G265" t="n">
-        <v>0.044314833039542846</v>
+        <v>0.03911788403500988</v>
       </c>
       <c r="H265" t="n">
-        <v>0.04252304606122513</v>
+        <v>0.03984026241985459</v>
       </c>
       <c r="I265" t="n">
-        <v>0.04386992170121938</v>
+        <v>0.03819450050590097</v>
       </c>
       <c r="J265" t="n">
-        <v>0.04140447723494635</v>
+        <v>0.03907494454217777</v>
       </c>
       <c r="K265" t="n">
-        <v>0.042192149530130375</v>
+        <v>0.0434113103170932</v>
       </c>
       <c r="L265" t="n">
-        <v>0.044314833039542846</v>
+        <v>0.04158438651973183</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>0.3399696829344626</v>
+        <v>0.3435110337983633</v>
       </c>
       <c r="C266" t="n">
-        <v>0.32622364782334723</v>
+        <v>0.331019723284007</v>
       </c>
       <c r="D266" t="n">
-        <v>0.33655646085397306</v>
+        <v>0.3371497182568113</v>
       </c>
       <c r="E266" t="n">
-        <v>0.31764233400296027</v>
+        <v>0.3175479904745961</v>
       </c>
       <c r="F266" t="n">
-        <v>0.323685112054522</v>
+        <v>0.33324133216510765</v>
       </c>
       <c r="G266" t="n">
-        <v>0.3399696829344626</v>
+        <v>0.30010029870997296</v>
       </c>
       <c r="H266" t="n">
-        <v>0.32622364782334723</v>
+        <v>0.3056421620909141</v>
       </c>
       <c r="I266" t="n">
-        <v>0.33655646085397306</v>
+        <v>0.2930163860765226</v>
       </c>
       <c r="J266" t="n">
-        <v>0.31764233400296027</v>
+        <v>0.29977088021142023</v>
       </c>
       <c r="K266" t="n">
-        <v>0.323685112054522</v>
+        <v>0.3330381362624669</v>
       </c>
       <c r="L266" t="n">
-        <v>0.3399696829344626</v>
+        <v>0.3190225423510523</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>2.9078586696044075</v>
+        <v>2.879350251274952</v>
       </c>
       <c r="C268" t="n">
-        <v>3.1959347653678076</v>
+        <v>3.1585067681990022</v>
       </c>
       <c r="D268" t="n">
-        <v>2.7954089704535603</v>
+        <v>2.7450721260828</v>
       </c>
       <c r="E268" t="n">
-        <v>2.872613386963911</v>
+        <v>2.897064374754016</v>
       </c>
       <c r="F268" t="n">
-        <v>3.0392672583743323</v>
+        <v>3.0255840082822703</v>
       </c>
       <c r="G268" t="n">
-        <v>2.9078586696044075</v>
+        <v>2.8430028004677186</v>
       </c>
       <c r="H268" t="n">
-        <v>3.1959347653678076</v>
+        <v>3.011599477459118</v>
       </c>
       <c r="I268" t="n">
-        <v>2.7954089704535603</v>
+        <v>3.139364302639255</v>
       </c>
       <c r="J268" t="n">
-        <v>2.872613386963911</v>
+        <v>3.257830882010743</v>
       </c>
       <c r="K268" t="n">
-        <v>3.0392672583743323</v>
+        <v>3.160433861717371</v>
       </c>
       <c r="L268" t="n">
-        <v>2.9078586696044075</v>
+        <v>3.191590327994592</v>
       </c>
     </row>
     <row r="269">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>1.0305331013950898</v>
+        <v>1.0411571539867919</v>
       </c>
       <c r="C269" t="n">
-        <v>0.9888654324645213</v>
+        <v>1.0032968932525572</v>
       </c>
       <c r="D269" t="n">
-        <v>1.020186771963606</v>
+        <v>1.021876465644356</v>
       </c>
       <c r="E269" t="n">
-        <v>0.9628533249464734</v>
+        <v>0.9624650432941366</v>
       </c>
       <c r="F269" t="n">
-        <v>0.9811704959152698</v>
+        <v>1.010030429448883</v>
       </c>
       <c r="G269" t="n">
-        <v>1.0305331013950898</v>
+        <v>0.9095823486673408</v>
       </c>
       <c r="H269" t="n">
-        <v>0.9888654324645213</v>
+        <v>0.9263793366466883</v>
       </c>
       <c r="I269" t="n">
-        <v>1.020186771963606</v>
+        <v>0.8881115206855427</v>
       </c>
       <c r="J269" t="n">
-        <v>0.9628533249464734</v>
+        <v>0.9085839049706964</v>
       </c>
       <c r="K269" t="n">
-        <v>0.9811704959152698</v>
+        <v>1.009414557331601</v>
       </c>
       <c r="L269" t="n">
-        <v>1.0305331013950898</v>
+        <v>0.9669343036207154</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>0.3399696829344626</v>
+        <v>0.3435110337983633</v>
       </c>
       <c r="C272" t="n">
-        <v>0.32622364782334723</v>
+        <v>0.331019723284007</v>
       </c>
       <c r="D272" t="n">
-        <v>0.33655646085397306</v>
+        <v>0.3371497182568113</v>
       </c>
       <c r="E272" t="n">
-        <v>0.31764233400296027</v>
+        <v>0.3175479904745961</v>
       </c>
       <c r="F272" t="n">
-        <v>0.323685112054522</v>
+        <v>0.33324133216510765</v>
       </c>
       <c r="G272" t="n">
-        <v>0.3399696829344626</v>
+        <v>0.30010029870997296</v>
       </c>
       <c r="H272" t="n">
-        <v>0.32622364782334723</v>
+        <v>0.3056421620909141</v>
       </c>
       <c r="I272" t="n">
-        <v>0.33655646085397306</v>
+        <v>0.2930163860765226</v>
       </c>
       <c r="J272" t="n">
-        <v>0.31764233400296027</v>
+        <v>0.29977088021142023</v>
       </c>
       <c r="K272" t="n">
-        <v>0.323685112054522</v>
+        <v>0.3330381362624669</v>
       </c>
       <c r="L272" t="n">
-        <v>0.3399696829344626</v>
+        <v>0.3190225423510523</v>
       </c>
     </row>
     <row r="273">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>0.7030578109383225</v>
+        <v>0.7103058296077899</v>
       </c>
       <c r="C274" t="n">
-        <v>0.7409254523203608</v>
+        <v>0.7516026801170551</v>
       </c>
       <c r="D274" t="n">
-        <v>0.7137035754217302</v>
+        <v>0.7270847076071785</v>
       </c>
       <c r="E274" t="n">
-        <v>0.7653256386496162</v>
+        <v>0.7844396907962575</v>
       </c>
       <c r="F274" t="n">
-        <v>0.7971110183831859</v>
+        <v>0.8130544717564036</v>
       </c>
       <c r="G274" t="n">
-        <v>0.7030578109383225</v>
+        <v>0.7834888541414632</v>
       </c>
       <c r="H274" t="n">
-        <v>0.7409254523203608</v>
+        <v>0.7882662252781102</v>
       </c>
       <c r="I274" t="n">
-        <v>0.7137035754217302</v>
+        <v>0.7230182382598443</v>
       </c>
       <c r="J274" t="n">
-        <v>0.7653256386496162</v>
+        <v>0.7185973374121585</v>
       </c>
       <c r="K274" t="n">
-        <v>0.7971110183831859</v>
+        <v>0.7887471685987886</v>
       </c>
       <c r="L274" t="n">
-        <v>0.7030578109383225</v>
+        <v>0.6935389537945974</v>
       </c>
     </row>
     <row r="275">
@@ -10518,34 +10518,34 @@
         <v>3.612308739366968</v>
       </c>
       <c r="C275" t="n">
-        <v>3.5764452899083308</v>
+        <v>3.5559341745299204</v>
       </c>
       <c r="D275" t="n">
-        <v>3.7564332377597034</v>
+        <v>3.7259033556471834</v>
       </c>
       <c r="E275" t="n">
-        <v>3.6933830018966813</v>
+        <v>3.6569051442636398</v>
       </c>
       <c r="F275" t="n">
-        <v>3.2853225498169025</v>
+        <v>3.255047436556427</v>
       </c>
       <c r="G275" t="n">
-        <v>3.612308739366968</v>
+        <v>3.315157434012017</v>
       </c>
       <c r="H275" t="n">
-        <v>3.5764452899083308</v>
+        <v>3.6501456163945014</v>
       </c>
       <c r="I275" t="n">
-        <v>3.7564332377597034</v>
+        <v>3.57309187964328</v>
       </c>
       <c r="J275" t="n">
-        <v>3.6933830018966813</v>
+        <v>3.6145127101888983</v>
       </c>
       <c r="K275" t="n">
-        <v>3.2853225498169025</v>
+        <v>3.4442943803162187</v>
       </c>
       <c r="L275" t="n">
-        <v>3.612308739366968</v>
+        <v>3.139473415437937</v>
       </c>
     </row>
     <row r="276">
@@ -10708,34 +10708,34 @@
         <v>0.6360795156779993</v>
       </c>
       <c r="C280" t="n">
-        <v>0.569349058481052</v>
+        <v>0.5721922759712604</v>
       </c>
       <c r="D280" t="n">
-        <v>0.5788741955207866</v>
+        <v>0.5830728896760294</v>
       </c>
       <c r="E280" t="n">
-        <v>0.63326235252193</v>
+        <v>0.63569166237511</v>
       </c>
       <c r="F280" t="n">
-        <v>0.6252478705199539</v>
+        <v>0.6257709043716798</v>
       </c>
       <c r="G280" t="n">
-        <v>0.6360795156779993</v>
+        <v>0.5592995314546622</v>
       </c>
       <c r="H280" t="n">
-        <v>0.569349058481052</v>
+        <v>0.6287903057775421</v>
       </c>
       <c r="I280" t="n">
-        <v>0.5788741955207866</v>
+        <v>0.6061246084730186</v>
       </c>
       <c r="J280" t="n">
-        <v>0.63326235252193</v>
+        <v>0.5728210585945125</v>
       </c>
       <c r="K280" t="n">
-        <v>0.6252478705199539</v>
+        <v>0.6318389855734792</v>
       </c>
       <c r="L280" t="n">
-        <v>0.6360795156779993</v>
+        <v>0.6326057809965867</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>4.295642231688345</v>
+        <v>4.25311112048351</v>
       </c>
       <c r="C282" t="n">
-        <v>4.252994562514989</v>
+        <v>4.186736038528892</v>
       </c>
       <c r="D282" t="n">
-        <v>4.467030484073778</v>
+        <v>4.386856755363298</v>
       </c>
       <c r="E282" t="n">
-        <v>4.392053156433016</v>
+        <v>4.305618666013203</v>
       </c>
       <c r="F282" t="n">
-        <v>3.906800693947509</v>
+        <v>3.832473758194201</v>
       </c>
       <c r="G282" t="n">
-        <v>4.295642231688345</v>
+        <v>3.903246916602418</v>
       </c>
       <c r="H282" t="n">
-        <v>4.252994562514989</v>
+        <v>4.29766003755043</v>
       </c>
       <c r="I282" t="n">
-        <v>4.467030484073778</v>
+        <v>4.206937419884904</v>
       </c>
       <c r="J282" t="n">
-        <v>4.392053156433016</v>
+        <v>4.255706062801097</v>
       </c>
       <c r="K282" t="n">
-        <v>3.906800693947509</v>
+        <v>4.055291999683532</v>
       </c>
       <c r="L282" t="n">
-        <v>4.295642231688345</v>
+        <v>3.696397583668713</v>
       </c>
     </row>
     <row r="283">
@@ -10860,34 +10860,34 @@
         <v>1.425526458725149</v>
       </c>
       <c r="C284" t="n">
-        <v>1.365981564610364</v>
+        <v>1.3647018876574013</v>
       </c>
       <c r="D284" t="n">
-        <v>1.2891641039356616</v>
+        <v>1.283757069697552</v>
       </c>
       <c r="E284" t="n">
-        <v>1.4839162302343547</v>
+        <v>1.4694577781275255</v>
       </c>
       <c r="F284" t="n">
-        <v>1.466605611476716</v>
+        <v>1.4422455966197139</v>
       </c>
       <c r="G284" t="n">
         <v>1.425526458725149</v>
       </c>
       <c r="H284" t="n">
-        <v>1.365981564610364</v>
+        <v>1.2534537912156452</v>
       </c>
       <c r="I284" t="n">
-        <v>1.2891641039356616</v>
+        <v>1.282347896403743</v>
       </c>
       <c r="J284" t="n">
-        <v>1.4839162302343547</v>
+        <v>1.4246572354099112</v>
       </c>
       <c r="K284" t="n">
-        <v>1.466605611476716</v>
+        <v>1.298742560902359</v>
       </c>
       <c r="L284" t="n">
-        <v>1.425526458725149</v>
+        <v>1.3140820400912225</v>
       </c>
     </row>
     <row r="285">
@@ -11427,37 +11427,37 @@
         <v>298.0</v>
       </c>
       <c r="B299" t="n">
-        <v>3.6132304447554953</v>
+        <v>3.57745588589653</v>
       </c>
       <c r="C299" t="n">
-        <v>3.462304151575576</v>
+        <v>3.424812475848537</v>
       </c>
       <c r="D299" t="n">
-        <v>3.267597707580938</v>
+        <v>3.2216759337865577</v>
       </c>
       <c r="E299" t="n">
-        <v>3.761228890374004</v>
+        <v>3.6877045285711687</v>
       </c>
       <c r="F299" t="n">
-        <v>3.7173522900276366</v>
+        <v>3.6194137028854314</v>
       </c>
       <c r="G299" t="n">
-        <v>3.6132304447554953</v>
+        <v>3.57745588589653</v>
       </c>
       <c r="H299" t="n">
-        <v>3.462304151575576</v>
+        <v>3.1456277893950397</v>
       </c>
       <c r="I299" t="n">
-        <v>3.267597707580938</v>
+        <v>3.218139517283497</v>
       </c>
       <c r="J299" t="n">
-        <v>3.761228890374004</v>
+        <v>3.575274510695653</v>
       </c>
       <c r="K299" t="n">
-        <v>3.7173522900276366</v>
+        <v>3.2592830461523508</v>
       </c>
       <c r="L299" t="n">
-        <v>3.6132304447554953</v>
+        <v>3.297778515510291</v>
       </c>
     </row>
     <row r="300">
@@ -11544,34 +11544,34 @@
         <v>0.7627303931299643</v>
       </c>
       <c r="C302" t="n">
-        <v>0.7308707947204978</v>
+        <v>0.7301861013572575</v>
       </c>
       <c r="D302" t="n">
-        <v>0.6897694797494243</v>
+        <v>0.6868764367442537</v>
       </c>
       <c r="E302" t="n">
-        <v>0.79397194119482</v>
+        <v>0.7862359214303359</v>
       </c>
       <c r="F302" t="n">
-        <v>0.7847098647391191</v>
+        <v>0.7716759967285953</v>
       </c>
       <c r="G302" t="n">
         <v>0.7627303931299643</v>
       </c>
       <c r="H302" t="n">
-        <v>0.7308707947204978</v>
+        <v>0.6706626152692726</v>
       </c>
       <c r="I302" t="n">
-        <v>0.6897694797494243</v>
+        <v>0.6861224561402482</v>
       </c>
       <c r="J302" t="n">
-        <v>0.79397194119482</v>
+        <v>0.7622653136942994</v>
       </c>
       <c r="K302" t="n">
-        <v>0.7847098647391191</v>
+        <v>0.6948944496881242</v>
       </c>
       <c r="L302" t="n">
-        <v>0.7627303931299643</v>
+        <v>0.7031018645140784</v>
       </c>
     </row>
     <row r="303">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>1.590542778494798</v>
+        <v>1.5746373507098501</v>
       </c>
       <c r="C305" t="n">
-        <v>1.5241050770050573</v>
+        <v>1.507450494332709</v>
       </c>
       <c r="D305" t="n">
-        <v>1.438395368433444</v>
+        <v>1.4180388016027299</v>
       </c>
       <c r="E305" t="n">
-        <v>1.6556916425116635</v>
+        <v>1.6231639115278165</v>
       </c>
       <c r="F305" t="n">
-        <v>1.636377178379681</v>
+        <v>1.5931053200970995</v>
       </c>
       <c r="G305" t="n">
-        <v>1.590542778494798</v>
+        <v>1.5746373507098501</v>
       </c>
       <c r="H305" t="n">
-        <v>1.5241050770050573</v>
+        <v>1.3845657826668023</v>
       </c>
       <c r="I305" t="n">
-        <v>1.438395368433444</v>
+        <v>1.4164822279674434</v>
       </c>
       <c r="J305" t="n">
-        <v>1.6556916425116635</v>
+        <v>1.573677206133154</v>
       </c>
       <c r="K305" t="n">
-        <v>1.636377178379681</v>
+        <v>1.4345917838538804</v>
       </c>
       <c r="L305" t="n">
-        <v>1.590542778494798</v>
+        <v>1.4515357814369363</v>
       </c>
     </row>
     <row r="306">
@@ -11848,34 +11848,34 @@
         <v>1.7978815219053568</v>
       </c>
       <c r="C310" t="n">
-        <v>1.722783185990552</v>
+        <v>1.7211692506379965</v>
       </c>
       <c r="D310" t="n">
-        <v>1.6259005976236902</v>
+        <v>1.6190812173971734</v>
       </c>
       <c r="E310" t="n">
-        <v>1.8715230110703902</v>
+        <v>1.8532879346751974</v>
       </c>
       <c r="F310" t="n">
-        <v>1.8496907669849736</v>
+        <v>1.818967787192714</v>
       </c>
       <c r="G310" t="n">
         <v>1.7978815219053568</v>
       </c>
       <c r="H310" t="n">
-        <v>1.722783185990552</v>
+        <v>1.5808625620349324</v>
       </c>
       <c r="I310" t="n">
-        <v>1.6259005976236902</v>
+        <v>1.617303960573496</v>
       </c>
       <c r="J310" t="n">
-        <v>1.8715230110703902</v>
+        <v>1.7967852528552029</v>
       </c>
       <c r="K310" t="n">
-        <v>1.8496907669849736</v>
+        <v>1.6379809982948863</v>
       </c>
       <c r="L310" t="n">
-        <v>1.7978815219053568</v>
+        <v>1.6573272307134506</v>
       </c>
     </row>
     <row r="311">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>0.8404113003680106</v>
+        <v>0.849165584746844</v>
       </c>
       <c r="C312" t="n">
-        <v>0.8793641143593535</v>
+        <v>0.890238835926432</v>
       </c>
       <c r="D312" t="n">
-        <v>0.9046624835828616</v>
+        <v>0.9202585173722164</v>
       </c>
       <c r="E312" t="n">
-        <v>0.8799866512798121</v>
+        <v>0.8857552602107396</v>
       </c>
       <c r="F312" t="n">
-        <v>0.9622270149025434</v>
+        <v>0.9592997874589653</v>
       </c>
       <c r="G312" t="n">
-        <v>0.8404113003680106</v>
+        <v>0.9604639870465292</v>
       </c>
       <c r="H312" t="n">
-        <v>0.8793641143593535</v>
+        <v>0.8388153948545929</v>
       </c>
       <c r="I312" t="n">
-        <v>0.9046624835828616</v>
+        <v>0.9657380410660724</v>
       </c>
       <c r="J312" t="n">
-        <v>0.8799866512798121</v>
+        <v>0.9752585645212777</v>
       </c>
       <c r="K312" t="n">
-        <v>0.9622270149025434</v>
+        <v>0.9546710799131363</v>
       </c>
       <c r="L312" t="n">
-        <v>0.8404113003680106</v>
+        <v>0.8696948626286226</v>
       </c>
     </row>
     <row r="313">
@@ -12000,34 +12000,34 @@
         <v>2.4536559632791333</v>
       </c>
       <c r="C314" t="n">
-        <v>2.3846149377464325</v>
+        <v>2.3983697233303536</v>
       </c>
       <c r="D314" t="n">
-        <v>2.7046292446029474</v>
+        <v>2.72761510824976</v>
       </c>
       <c r="E314" t="n">
-        <v>2.6705012972039737</v>
+        <v>2.72761510824976</v>
       </c>
       <c r="F314" t="n">
-        <v>2.503805757661177</v>
+        <v>2.5017130186727483</v>
       </c>
       <c r="G314" t="n">
-        <v>2.4536559632791333</v>
+        <v>2.5991634674648263</v>
       </c>
       <c r="H314" t="n">
-        <v>2.3846149377464325</v>
+        <v>2.709431007528095</v>
       </c>
       <c r="I314" t="n">
-        <v>2.7046292446029474</v>
+        <v>2.4563522880950006</v>
       </c>
       <c r="J314" t="n">
-        <v>2.6705012972039737</v>
+        <v>2.7596056566110367</v>
       </c>
       <c r="K314" t="n">
-        <v>2.503805757661177</v>
+        <v>2.7127191542604656</v>
       </c>
       <c r="L314" t="n">
-        <v>2.4536559632791333</v>
+        <v>2.811673688708821</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>5.692127534317934</v>
+        <v>5.63576983595835</v>
       </c>
       <c r="C315" t="n">
-        <v>5.955955953762313</v>
+        <v>5.90836612839014</v>
       </c>
       <c r="D315" t="n">
-        <v>6.1273024646521765</v>
+        <v>6.107601728862183</v>
       </c>
       <c r="E315" t="n">
-        <v>5.960172412470711</v>
+        <v>5.878609386914015</v>
       </c>
       <c r="F315" t="n">
-        <v>6.517188528275293</v>
+        <v>6.366712102933687</v>
       </c>
       <c r="G315" t="n">
-        <v>5.692127534317934</v>
+        <v>6.374438700709766</v>
       </c>
       <c r="H315" t="n">
-        <v>5.955955953762313</v>
+        <v>5.56707735826146</v>
       </c>
       <c r="I315" t="n">
-        <v>6.1273024646521765</v>
+        <v>6.409441714362773</v>
       </c>
       <c r="J315" t="n">
-        <v>5.960172412470711</v>
+        <v>6.472627834802846</v>
       </c>
       <c r="K315" t="n">
-        <v>6.517188528275293</v>
+        <v>6.33599214579596</v>
       </c>
       <c r="L315" t="n">
-        <v>5.692127534317934</v>
+        <v>5.772019216666151</v>
       </c>
     </row>
     <row r="316">
@@ -12073,37 +12073,37 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="n">
-        <v>1.997208322536181</v>
+        <v>1.977236239310819</v>
       </c>
       <c r="C316" t="n">
-        <v>2.0897783346905237</v>
+        <v>2.0728730881861868</v>
       </c>
       <c r="D316" t="n">
-        <v>2.1498990321843086</v>
+        <v>2.1427722964364446</v>
       </c>
       <c r="E316" t="n">
-        <v>2.0912577721018026</v>
+        <v>2.062433324085992</v>
       </c>
       <c r="F316" t="n">
-        <v>2.286699145395803</v>
+        <v>2.2336777869919224</v>
       </c>
       <c r="G316" t="n">
-        <v>1.997208322536181</v>
+        <v>2.2363885629061495</v>
       </c>
       <c r="H316" t="n">
-        <v>2.0897783346905237</v>
+        <v>1.9531363806892423</v>
       </c>
       <c r="I316" t="n">
-        <v>2.1498990321843086</v>
+        <v>2.2486689130791166</v>
       </c>
       <c r="J316" t="n">
-        <v>2.0912577721018026</v>
+        <v>2.270836938174543</v>
       </c>
       <c r="K316" t="n">
-        <v>2.286699145395803</v>
+        <v>2.222900091257217</v>
       </c>
       <c r="L316" t="n">
-        <v>1.997208322536181</v>
+        <v>2.025037555006904</v>
       </c>
     </row>
     <row r="317">
@@ -12190,34 +12190,34 @@
         <v>3.4515711503219197</v>
       </c>
       <c r="C319" t="n">
-        <v>3.6115504472893702</v>
+        <v>3.6185200368146004</v>
       </c>
       <c r="D319" t="n">
-        <v>3.7154509080801947</v>
+        <v>3.740539897582997</v>
       </c>
       <c r="E319" t="n">
-        <v>3.61410720785854</v>
+        <v>3.6002958166288734</v>
       </c>
       <c r="F319" t="n">
-        <v>3.9518685710718895</v>
+        <v>3.8992294675842603</v>
       </c>
       <c r="G319" t="n">
-        <v>3.4515711503219197</v>
+        <v>3.9039615454991354</v>
       </c>
       <c r="H319" t="n">
-        <v>3.6115504472893702</v>
+        <v>3.409501125966072</v>
       </c>
       <c r="I319" t="n">
-        <v>3.7154509080801947</v>
+        <v>3.925398792870061</v>
       </c>
       <c r="J319" t="n">
-        <v>3.61410720785854</v>
+        <v>3.9640965035218017</v>
       </c>
       <c r="K319" t="n">
-        <v>3.9518685710718895</v>
+        <v>3.880415335552257</v>
       </c>
       <c r="L319" t="n">
-        <v>3.4515711503219197</v>
+        <v>3.5350157276181293</v>
       </c>
     </row>
     <row r="320">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>0.8894842734484221</v>
+        <v>0.8984689630792142</v>
       </c>
       <c r="C323" t="n">
-        <v>0.984779131247077</v>
+        <v>0.9910889115963737</v>
       </c>
       <c r="D323" t="n">
-        <v>0.9366633604258157</v>
+        <v>0.9378020717566619</v>
       </c>
       <c r="E323" t="n">
-        <v>0.9744916528351566</v>
+        <v>0.9637239118087261</v>
       </c>
       <c r="F323" t="n">
-        <v>0.9768186361111768</v>
+        <v>0.9683739671466298</v>
       </c>
       <c r="G323" t="n">
-        <v>0.8894842734484221</v>
+        <v>0.9892569545577181</v>
       </c>
       <c r="H323" t="n">
-        <v>0.984779131247077</v>
+        <v>0.9795997781106549</v>
       </c>
       <c r="I323" t="n">
-        <v>0.9366633604258157</v>
+        <v>0.9790024612656928</v>
       </c>
       <c r="J323" t="n">
-        <v>0.9744916528351566</v>
+        <v>0.86135409709961</v>
       </c>
       <c r="K323" t="n">
-        <v>0.9768186361111768</v>
+        <v>0.9030168938735591</v>
       </c>
       <c r="L323" t="n">
-        <v>0.8894842734484221</v>
+        <v>0.8924758405540845</v>
       </c>
     </row>
     <row r="324">
@@ -12494,34 +12494,34 @@
         <v>2.1477496275629173</v>
       </c>
       <c r="C327" t="n">
-        <v>1.8856242785347932</v>
+        <v>1.8780004701815454</v>
       </c>
       <c r="D327" t="n">
-        <v>2.1754370092632342</v>
+        <v>2.160845662082396</v>
       </c>
       <c r="E327" t="n">
-        <v>2.1147233456519117</v>
+        <v>2.1373865429071968</v>
       </c>
       <c r="F327" t="n">
-        <v>1.93530136998069</v>
+        <v>1.9819837177459059</v>
       </c>
       <c r="G327" t="n">
-        <v>2.1477496275629173</v>
+        <v>2.127122981473079</v>
       </c>
       <c r="H327" t="n">
-        <v>1.8856242785347932</v>
+        <v>1.993130982930429</v>
       </c>
       <c r="I327" t="n">
-        <v>2.1754370092632342</v>
+        <v>1.983092829894832</v>
       </c>
       <c r="J327" t="n">
-        <v>2.1147233456519117</v>
+        <v>2.162164054593541</v>
       </c>
       <c r="K327" t="n">
-        <v>1.93530136998069</v>
+        <v>1.9011732226171218</v>
       </c>
       <c r="L327" t="n">
-        <v>2.1477496275629173</v>
+        <v>1.9449982917661153</v>
       </c>
     </row>
     <row r="328">
@@ -12570,34 +12570,34 @@
         <v>3.5594417632290924</v>
       </c>
       <c r="C329" t="n">
-        <v>3.519851688077529</v>
+        <v>3.5395343704970585</v>
       </c>
       <c r="D329" t="n">
-        <v>3.824074777939556</v>
+        <v>3.8355681522080984</v>
       </c>
       <c r="E329" t="n">
-        <v>3.452353051576723</v>
+        <v>3.477300798818359</v>
       </c>
       <c r="F329" t="n">
-        <v>3.8441393062271674</v>
+        <v>3.840222971190913</v>
       </c>
       <c r="G329" t="n">
-        <v>3.5594417632290924</v>
+        <v>3.8613102203437237</v>
       </c>
       <c r="H329" t="n">
-        <v>3.519851688077529</v>
+        <v>3.9803065753838704</v>
       </c>
       <c r="I329" t="n">
-        <v>3.824074777939556</v>
+        <v>3.906597193189779</v>
       </c>
       <c r="J329" t="n">
-        <v>3.452353051576723</v>
+        <v>3.353835428868748</v>
       </c>
       <c r="K329" t="n">
-        <v>3.8441393062271674</v>
+        <v>3.8993761274089818</v>
       </c>
       <c r="L329" t="n">
-        <v>3.5594417632290924</v>
+        <v>3.8613102203437237</v>
       </c>
     </row>
     <row r="330">
@@ -12646,34 +12646,34 @@
         <v>2.4362902477841097</v>
       </c>
       <c r="C331" t="n">
-        <v>2.331503527477543</v>
+        <v>2.318538476516643</v>
       </c>
       <c r="D331" t="n">
-        <v>2.351037611443814</v>
+        <v>2.3341078449382744</v>
       </c>
       <c r="E331" t="n">
-        <v>2.389315375277318</v>
+        <v>2.3459227894511443</v>
       </c>
       <c r="F331" t="n">
-        <v>2.483524805978721</v>
+        <v>2.4250294875569876</v>
       </c>
       <c r="G331" t="n">
-        <v>2.4362902477841097</v>
+        <v>2.623302339332102</v>
       </c>
       <c r="H331" t="n">
-        <v>2.331503527477543</v>
+        <v>2.2917861092701988</v>
       </c>
       <c r="I331" t="n">
-        <v>2.351037611443814</v>
+        <v>2.210413735639888</v>
       </c>
       <c r="J331" t="n">
-        <v>2.389315375277318</v>
+        <v>2.5309773790252397</v>
       </c>
       <c r="K331" t="n">
-        <v>2.483524805978721</v>
+        <v>2.574722665611407</v>
       </c>
       <c r="L331" t="n">
-        <v>2.4362902477841097</v>
+        <v>2.52790952550805</v>
       </c>
     </row>
     <row r="332">
@@ -12722,34 +12722,34 @@
         <v>1.7154628150276834</v>
       </c>
       <c r="C333" t="n">
-        <v>1.6416794378795307</v>
+        <v>1.6325503684517018</v>
       </c>
       <c r="D333" t="n">
-        <v>1.65543395448536</v>
+        <v>1.6435132135417183</v>
       </c>
       <c r="E333" t="n">
-        <v>1.6823864411845582</v>
+        <v>1.6518324595723908</v>
       </c>
       <c r="F333" t="n">
-        <v>1.7487220411157145</v>
+        <v>1.7075337862692501</v>
       </c>
       <c r="G333" t="n">
-        <v>1.7154628150276834</v>
+        <v>1.8471434673239044</v>
       </c>
       <c r="H333" t="n">
-        <v>1.6416794378795307</v>
+        <v>1.6137132486680552</v>
       </c>
       <c r="I333" t="n">
-        <v>1.65543395448536</v>
+        <v>1.5564165939446286</v>
       </c>
       <c r="J333" t="n">
-        <v>1.6823864411845582</v>
+        <v>1.782134777801225</v>
       </c>
       <c r="K333" t="n">
-        <v>1.7487220411157145</v>
+        <v>1.812937106275656</v>
       </c>
       <c r="L333" t="n">
-        <v>1.7154628150276834</v>
+        <v>1.7799746129212493</v>
       </c>
     </row>
     <row r="334">
@@ -12909,37 +12909,37 @@
         <v>337.0</v>
       </c>
       <c r="B338" t="n">
-        <v>2.237751530727824</v>
+        <v>2.192996500113267</v>
       </c>
       <c r="C338" t="n">
-        <v>2.1415041135823336</v>
+        <v>2.087003701223003</v>
       </c>
       <c r="D338" t="n">
-        <v>2.159446321550636</v>
+        <v>2.101018275426002</v>
       </c>
       <c r="E338" t="n">
-        <v>2.1946047451781854</v>
+        <v>2.1116533514352427</v>
       </c>
       <c r="F338" t="n">
-        <v>2.2811368396003533</v>
+        <v>2.182860266226868</v>
       </c>
       <c r="G338" t="n">
-        <v>2.237751530727824</v>
+        <v>2.361333118714694</v>
       </c>
       <c r="H338" t="n">
-        <v>2.1415041135823336</v>
+        <v>2.0629228890970435</v>
       </c>
       <c r="I338" t="n">
-        <v>2.159446321550636</v>
+        <v>1.989676554535927</v>
       </c>
       <c r="J338" t="n">
-        <v>2.1946047451781854</v>
+        <v>2.2782279488728836</v>
       </c>
       <c r="K338" t="n">
-        <v>2.2811368396003533</v>
+        <v>2.3176047269341886</v>
       </c>
       <c r="L338" t="n">
-        <v>2.237751530727824</v>
+        <v>2.275466458515905</v>
       </c>
     </row>
     <row r="339">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1.2706249724209766</v>
+        <v>1.2325062232483475</v>
       </c>
       <c r="C341" t="n">
-        <v>1.3237294706114067</v>
+        <v>1.2785951174981047</v>
       </c>
       <c r="D341" t="n">
-        <v>1.2184788577229613</v>
+        <v>1.17838282619248</v>
       </c>
       <c r="E341" t="n">
-        <v>1.188160234822116</v>
+        <v>1.1635075216725959</v>
       </c>
       <c r="F341" t="n">
-        <v>1.3148562848818373</v>
+        <v>1.29262847769575</v>
       </c>
       <c r="G341" t="n">
-        <v>1.2706249724209766</v>
+        <v>1.1234290960619786</v>
       </c>
       <c r="H341" t="n">
-        <v>1.3237294706114067</v>
+        <v>1.27245540468792</v>
       </c>
       <c r="I341" t="n">
-        <v>1.2184788577229613</v>
+        <v>1.1923007337001348</v>
       </c>
       <c r="J341" t="n">
-        <v>1.188160234822116</v>
+        <v>1.2382294349163496</v>
       </c>
       <c r="K341" t="n">
-        <v>1.3148562848818373</v>
+        <v>1.186295861299958</v>
       </c>
       <c r="L341" t="n">
-        <v>1.2706249724209766</v>
+        <v>1.1856323849703811</v>
       </c>
     </row>
     <row r="342">
@@ -13175,37 +13175,37 @@
         <v>344.0</v>
       </c>
       <c r="B345" t="n">
-        <v>4.4629054836378845</v>
+        <v>4.419151508308101</v>
       </c>
       <c r="C345" t="n">
-        <v>4.649428148723194</v>
+        <v>4.584403255275571</v>
       </c>
       <c r="D345" t="n">
-        <v>4.279749016318684</v>
+        <v>4.2250920486294135</v>
       </c>
       <c r="E345" t="n">
-        <v>4.173258784080669</v>
+        <v>4.171756638904392</v>
       </c>
       <c r="F345" t="n">
-        <v>4.618262234224929</v>
+        <v>4.634719873329319</v>
       </c>
       <c r="G345" t="n">
-        <v>4.4629054836378845</v>
+        <v>4.02805542941193</v>
       </c>
       <c r="H345" t="n">
-        <v>4.649428148723194</v>
+        <v>4.562389312778634</v>
       </c>
       <c r="I345" t="n">
-        <v>4.279749016318684</v>
+        <v>4.27499471102153</v>
       </c>
       <c r="J345" t="n">
-        <v>4.173258784080669</v>
+        <v>4.4396720858094145</v>
       </c>
       <c r="K345" t="n">
-        <v>4.618262234224929</v>
+        <v>4.253464238863344</v>
       </c>
       <c r="L345" t="n">
-        <v>4.4629054836378845</v>
+        <v>4.251085344244176</v>
       </c>
     </row>
     <row r="346">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>2.3612924533054733</v>
+        <v>2.4089953311500283</v>
       </c>
       <c r="C348" t="n">
-        <v>2.459980306555135</v>
+        <v>2.499078390343768</v>
       </c>
       <c r="D348" t="n">
-        <v>2.264385632033878</v>
+        <v>2.303208432589848</v>
       </c>
       <c r="E348" t="n">
-        <v>2.208042385990182</v>
+        <v>2.274133902610282</v>
       </c>
       <c r="F348" t="n">
-        <v>2.443490636546455</v>
+        <v>2.52650729784849</v>
       </c>
       <c r="G348" t="n">
-        <v>2.3612924533054733</v>
+        <v>2.195798606321586</v>
       </c>
       <c r="H348" t="n">
-        <v>2.459980306555135</v>
+        <v>2.4870780132135364</v>
       </c>
       <c r="I348" t="n">
-        <v>2.264385632033878</v>
+        <v>2.3304116820119507</v>
       </c>
       <c r="J348" t="n">
-        <v>2.208042385990182</v>
+        <v>2.4201816358739623</v>
       </c>
       <c r="K348" t="n">
-        <v>2.443490636546455</v>
+        <v>2.318674857237101</v>
       </c>
       <c r="L348" t="n">
-        <v>2.3612924533054733</v>
+        <v>2.3173780594196693</v>
       </c>
     </row>
     <row r="349">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>3.676495032886688</v>
+        <v>3.713259983215555</v>
       </c>
       <c r="C351" t="n">
-        <v>3.8301504607735333</v>
+        <v>3.852115303748726</v>
       </c>
       <c r="D351" t="n">
-        <v>3.5256126436429835</v>
+        <v>3.550198539263119</v>
       </c>
       <c r="E351" t="n">
-        <v>3.4378870999787976</v>
+        <v>3.5053826414039957</v>
       </c>
       <c r="F351" t="n">
-        <v>3.8044763051660873</v>
+        <v>3.894394615503135</v>
       </c>
       <c r="G351" t="n">
-        <v>3.676495032886688</v>
+        <v>3.3846354912452257</v>
       </c>
       <c r="H351" t="n">
-        <v>3.8301504607735333</v>
+        <v>3.8336177501814848</v>
       </c>
       <c r="I351" t="n">
-        <v>3.5256126436429835</v>
+        <v>3.5921300184097813</v>
       </c>
       <c r="J351" t="n">
-        <v>3.4378870999787976</v>
+        <v>3.730502713890176</v>
       </c>
       <c r="K351" t="n">
-        <v>3.8044763051660873</v>
+        <v>3.5740387082262717</v>
       </c>
       <c r="L351" t="n">
-        <v>3.676495032886688</v>
+        <v>3.572039805455675</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>2.1592607073321517</v>
+        <v>2.181071421547628</v>
       </c>
       <c r="C353" t="n">
-        <v>2.2495048460938096</v>
+        <v>2.26263139114676</v>
       </c>
       <c r="D353" t="n">
-        <v>2.070645215781624</v>
+        <v>2.085293410589998</v>
       </c>
       <c r="E353" t="n">
-        <v>2.019122687458038</v>
+        <v>2.058969728840441</v>
       </c>
       <c r="F353" t="n">
-        <v>2.234426029204028</v>
+        <v>2.2874651488171263</v>
       </c>
       <c r="G353" t="n">
-        <v>2.1592607073321517</v>
+        <v>1.9880460230845747</v>
       </c>
       <c r="H353" t="n">
-        <v>2.2495048460938096</v>
+        <v>2.2517664138393756</v>
       </c>
       <c r="I353" t="n">
-        <v>2.070645215781624</v>
+        <v>2.1099228605190086</v>
       </c>
       <c r="J353" t="n">
-        <v>2.019122687458038</v>
+        <v>2.191199348833584</v>
       </c>
       <c r="K353" t="n">
-        <v>2.234426029204028</v>
+        <v>2.099296499909203</v>
       </c>
       <c r="L353" t="n">
-        <v>2.1592607073321517</v>
+        <v>2.09812239690346</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>4.841304874441407</v>
+        <v>4.938130971930236</v>
       </c>
       <c r="C356" t="n">
-        <v>4.250440504740877</v>
+        <v>4.317920565827854</v>
       </c>
       <c r="D356" t="n">
-        <v>4.90371580645417</v>
+        <v>4.968241527108629</v>
       </c>
       <c r="E356" t="n">
-        <v>4.7668593722522825</v>
+        <v>4.91430404692631</v>
       </c>
       <c r="F356" t="n">
-        <v>4.362419080771637</v>
+        <v>4.557000060369363</v>
       </c>
       <c r="G356" t="n">
-        <v>4.841304874441407</v>
+        <v>4.890705946873264</v>
       </c>
       <c r="H356" t="n">
-        <v>4.250440504740877</v>
+        <v>4.582629982383353</v>
       </c>
       <c r="I356" t="n">
-        <v>4.90371580645417</v>
+        <v>4.559550143946923</v>
       </c>
       <c r="J356" t="n">
-        <v>4.7668593722522825</v>
+        <v>4.971272790533795</v>
       </c>
       <c r="K356" t="n">
-        <v>4.362419080771637</v>
+        <v>4.37119962826533</v>
       </c>
       <c r="L356" t="n">
-        <v>4.841304874441407</v>
+        <v>4.471962737956657</v>
       </c>
     </row>
     <row r="357">
@@ -13631,37 +13631,37 @@
         <v>356.0</v>
       </c>
       <c r="B357" t="n">
-        <v>0.6027805140787954</v>
+        <v>0.6090594777671162</v>
       </c>
       <c r="C357" t="n">
-        <v>0.5292132553012694</v>
+        <v>0.53256393153846</v>
       </c>
       <c r="D357" t="n">
-        <v>0.6105511657230239</v>
+        <v>0.6127732551287283</v>
       </c>
       <c r="E357" t="n">
-        <v>0.5935114638445664</v>
+        <v>0.6061207111401925</v>
       </c>
       <c r="F357" t="n">
-        <v>0.5431554682740521</v>
+        <v>0.5620515317900509</v>
       </c>
       <c r="G357" t="n">
-        <v>0.6027805140787954</v>
+        <v>0.6032101673380328</v>
       </c>
       <c r="H357" t="n">
-        <v>0.5292132553012694</v>
+        <v>0.5652126765644169</v>
       </c>
       <c r="I357" t="n">
-        <v>0.6105511657230239</v>
+        <v>0.5623660541429084</v>
       </c>
       <c r="J357" t="n">
-        <v>0.5935114638445664</v>
+        <v>0.6131471252689089</v>
       </c>
       <c r="K357" t="n">
-        <v>0.5431554682740521</v>
+        <v>0.5391352675618558</v>
       </c>
       <c r="L357" t="n">
-        <v>0.6027805140787954</v>
+        <v>0.5515631936973996</v>
       </c>
     </row>
     <row r="358">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>3.6811156226923245</v>
+        <v>3.718298608780126</v>
       </c>
       <c r="C362" t="n">
-        <v>3.231848303528122</v>
+        <v>3.2512944925932246</v>
       </c>
       <c r="D362" t="n">
-        <v>3.728570154645443</v>
+        <v>3.7409711616277175</v>
       </c>
       <c r="E362" t="n">
-        <v>3.6245105320701017</v>
+        <v>3.700357484375527</v>
       </c>
       <c r="F362" t="n">
-        <v>3.3169918952506396</v>
+        <v>3.4313158320422406</v>
       </c>
       <c r="G362" t="n">
-        <v>3.6811156226923245</v>
+        <v>3.6825886598757593</v>
       </c>
       <c r="H362" t="n">
-        <v>3.231848303528122</v>
+        <v>3.45061457156727</v>
       </c>
       <c r="I362" t="n">
-        <v>3.728570154645443</v>
+        <v>3.4332359860990302</v>
       </c>
       <c r="J362" t="n">
-        <v>3.6245105320701017</v>
+        <v>3.743253633000127</v>
       </c>
       <c r="K362" t="n">
-        <v>3.3169918952506396</v>
+        <v>3.2914123964853004</v>
       </c>
       <c r="L362" t="n">
-        <v>3.6811156226923245</v>
+        <v>3.36728469163327</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>5.012077626286627</v>
+        <v>4.962453095333294</v>
       </c>
       <c r="C364" t="n">
-        <v>4.8710476756549665</v>
+        <v>4.8506381641982435</v>
       </c>
       <c r="D364" t="n">
-        <v>5.524740194692402</v>
+        <v>5.5165280868155815</v>
       </c>
       <c r="E364" t="n">
-        <v>5.455027111786971</v>
+        <v>5.5165280868155815</v>
       </c>
       <c r="F364" t="n">
-        <v>5.114518500698865</v>
+        <v>5.059647195427072</v>
       </c>
       <c r="G364" t="n">
-        <v>5.012077626286627</v>
+        <v>5.25673810323453</v>
       </c>
       <c r="H364" t="n">
-        <v>4.8710476756549665</v>
+        <v>5.479751232903477</v>
       </c>
       <c r="I364" t="n">
-        <v>5.524740194692402</v>
+        <v>4.967906339646585</v>
       </c>
       <c r="J364" t="n">
-        <v>5.455027111786971</v>
+        <v>5.581228109195519</v>
       </c>
       <c r="K364" t="n">
-        <v>5.114518500698865</v>
+        <v>5.48640142110189</v>
       </c>
       <c r="L364" t="n">
-        <v>5.012077626286627</v>
+        <v>5.686534301635901</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>5.768498390413066</v>
+        <v>5.711944484624702</v>
       </c>
       <c r="C366" t="n">
-        <v>5.711228022511715</v>
+        <v>5.622802495961097</v>
       </c>
       <c r="D366" t="n">
-        <v>5.9986509042159915</v>
+        <v>5.891565383268748</v>
       </c>
       <c r="E366" t="n">
-        <v>5.897965937804526</v>
+        <v>5.782462318886088</v>
       </c>
       <c r="F366" t="n">
-        <v>5.2463339121804</v>
+        <v>5.14702689994557</v>
       </c>
       <c r="G366" t="n">
-        <v>5.768498390413066</v>
+        <v>5.242075522090042</v>
       </c>
       <c r="H366" t="n">
-        <v>5.711228022511715</v>
+        <v>5.771773850453139</v>
       </c>
       <c r="I366" t="n">
-        <v>5.9986509042159915</v>
+        <v>5.649933028305419</v>
       </c>
       <c r="J366" t="n">
-        <v>5.897965937804526</v>
+        <v>5.715429502071689</v>
       </c>
       <c r="K366" t="n">
-        <v>5.2463339121804</v>
+        <v>5.446272649584971</v>
       </c>
       <c r="L366" t="n">
-        <v>5.768498390413066</v>
+        <v>4.964276077653082</v>
       </c>
     </row>
     <row r="367">
@@ -14546,34 +14546,34 @@
         <v>2.974103724945126</v>
       </c>
       <c r="C381" t="n">
-        <v>2.9410241024055774</v>
+        <v>2.9574700349407204</v>
       </c>
       <c r="D381" t="n">
-        <v>3.1952187444193725</v>
+        <v>3.204822072552841</v>
       </c>
       <c r="E381" t="n">
-        <v>2.884625386090116</v>
+        <v>2.9054705615237575</v>
       </c>
       <c r="F381" t="n">
-        <v>3.211983729574044</v>
+        <v>3.208711422455612</v>
       </c>
       <c r="G381" t="n">
-        <v>2.974103724945126</v>
+        <v>3.226330945522995</v>
       </c>
       <c r="H381" t="n">
-        <v>2.9410241024055774</v>
+        <v>3.325758756489266</v>
       </c>
       <c r="I381" t="n">
-        <v>3.1952187444193725</v>
+        <v>3.26417063039278</v>
       </c>
       <c r="J381" t="n">
-        <v>2.884625386090116</v>
+        <v>2.802308649882942</v>
       </c>
       <c r="K381" t="n">
-        <v>3.211983729574044</v>
+        <v>3.2581370442112045</v>
       </c>
       <c r="L381" t="n">
-        <v>2.974103724945126</v>
+        <v>3.226330945522995</v>
       </c>
     </row>
     <row r="382">
@@ -14581,37 +14581,37 @@
         <v>381.0</v>
       </c>
       <c r="B382" t="n">
-        <v>3.326035089899714</v>
+        <v>3.2931040494056574</v>
       </c>
       <c r="C382" t="n">
-        <v>3.2890410925470475</v>
+        <v>3.2746862412267994</v>
       </c>
       <c r="D382" t="n">
-        <v>3.573315071262426</v>
+        <v>3.5485690886396766</v>
       </c>
       <c r="E382" t="n">
-        <v>3.225968608585855</v>
+        <v>3.217109339977492</v>
       </c>
       <c r="F382" t="n">
-        <v>3.5920638890788297</v>
+        <v>3.5528756075438235</v>
       </c>
       <c r="G382" t="n">
-        <v>3.326035089899714</v>
+        <v>3.5723849885634333</v>
       </c>
       <c r="H382" t="n">
-        <v>3.2890410925470475</v>
+        <v>3.6824773582983212</v>
       </c>
       <c r="I382" t="n">
-        <v>3.573315071262426</v>
+        <v>3.614283332063616</v>
       </c>
       <c r="J382" t="n">
-        <v>3.225968608585855</v>
+        <v>3.102882352492358</v>
       </c>
       <c r="K382" t="n">
-        <v>3.5920638890788297</v>
+        <v>3.6076025875689526</v>
       </c>
       <c r="L382" t="n">
-        <v>3.326035089899714</v>
+        <v>3.5723849885634333</v>
       </c>
     </row>
     <row r="383">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>3.195739432250858</v>
+        <v>3.2602998248215824</v>
       </c>
       <c r="C387" t="n">
-        <v>3.160194655090956</v>
+        <v>3.24206548546326</v>
       </c>
       <c r="D387" t="n">
-        <v>3.433332351714285</v>
+        <v>3.5132200515034673</v>
       </c>
       <c r="E387" t="n">
-        <v>3.099593002180893</v>
+        <v>3.1850621359666764</v>
       </c>
       <c r="F387" t="n">
-        <v>3.4513466945532767</v>
+        <v>3.517483671060619</v>
       </c>
       <c r="G387" t="n">
-        <v>3.195739432250858</v>
+        <v>3.5367987095672495</v>
       </c>
       <c r="H387" t="n">
-        <v>3.160194655090956</v>
+        <v>3.645794395210899</v>
       </c>
       <c r="I387" t="n">
-        <v>3.433332351714285</v>
+        <v>3.578279683118211</v>
       </c>
       <c r="J387" t="n">
-        <v>3.099593002180893</v>
+        <v>3.071973019528071</v>
       </c>
       <c r="K387" t="n">
-        <v>3.4513466945532767</v>
+        <v>3.5716654887961212</v>
       </c>
       <c r="L387" t="n">
-        <v>3.195739432250858</v>
+        <v>3.5367987095672495</v>
       </c>
     </row>
     <row r="388">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>0.5750189952263522</v>
+        <v>0.5810718267550506</v>
       </c>
       <c r="C389" t="n">
-        <v>0.5686233167045787</v>
+        <v>0.5778219842712564</v>
       </c>
       <c r="D389" t="n">
-        <v>0.6177698028935873</v>
+        <v>0.6261489135378243</v>
       </c>
       <c r="E389" t="n">
-        <v>0.5577190792646518</v>
+        <v>0.5676624768017405</v>
       </c>
       <c r="F389" t="n">
-        <v>0.6210111777110717</v>
+        <v>0.6269088035288617</v>
       </c>
       <c r="G389" t="n">
-        <v>0.5750189952263522</v>
+        <v>0.6303512552394206</v>
       </c>
       <c r="H389" t="n">
-        <v>0.5686233167045787</v>
+        <v>0.6497771748076739</v>
       </c>
       <c r="I389" t="n">
-        <v>0.6177698028935873</v>
+        <v>0.637744263972338</v>
       </c>
       <c r="J389" t="n">
-        <v>0.5577190792646518</v>
+        <v>0.5475069993898767</v>
       </c>
       <c r="K389" t="n">
-        <v>0.6210111777110717</v>
+        <v>0.6365654392679383</v>
       </c>
       <c r="L389" t="n">
-        <v>0.5750189952263522</v>
+        <v>0.6303512552394206</v>
       </c>
     </row>
     <row r="390">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>0.7809261354130984</v>
+        <v>0.7888947694479259</v>
       </c>
       <c r="C394" t="n">
-        <v>0.7731730038263379</v>
+        <v>0.7765830866603568</v>
       </c>
       <c r="D394" t="n">
-        <v>0.8120836570063146</v>
+        <v>0.8137027814664696</v>
       </c>
       <c r="E394" t="n">
-        <v>0.7984531562429655</v>
+        <v>0.7986342112004411</v>
       </c>
       <c r="F394" t="n">
-        <v>0.7102367011031351</v>
+        <v>0.7108722100686913</v>
       </c>
       <c r="G394" t="n">
-        <v>0.7809261354130984</v>
+        <v>0.7239996767404778</v>
       </c>
       <c r="H394" t="n">
-        <v>0.7731730038263379</v>
+        <v>0.7971579929243601</v>
       </c>
       <c r="I394" t="n">
-        <v>0.8120836570063146</v>
+        <v>0.7803301705328254</v>
       </c>
       <c r="J394" t="n">
-        <v>0.7984531562429655</v>
+        <v>0.7893760962610215</v>
       </c>
       <c r="K394" t="n">
-        <v>0.7102367011031351</v>
+        <v>0.7522019896744812</v>
       </c>
       <c r="L394" t="n">
-        <v>0.7809261354130984</v>
+        <v>0.6856319143678264</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>4.91712709264794</v>
+        <v>4.868919964288646</v>
       </c>
       <c r="C395" t="n">
-        <v>4.60707478785146</v>
+        <v>4.539239317430512</v>
       </c>
       <c r="D395" t="n">
-        <v>4.96452444230273</v>
+        <v>4.922099917239436</v>
       </c>
       <c r="E395" t="n">
-        <v>5.012160087360594</v>
+        <v>4.916133731342951</v>
       </c>
       <c r="F395" t="n">
-        <v>4.992057548536387</v>
+        <v>4.9491279174593465</v>
       </c>
       <c r="G395" t="n">
-        <v>4.91712709264794</v>
+        <v>4.562216345155423</v>
       </c>
       <c r="H395" t="n">
-        <v>4.60707478785146</v>
+        <v>5.007173246329526</v>
       </c>
       <c r="I395" t="n">
-        <v>4.96452444230273</v>
+        <v>4.99791784435191</v>
       </c>
       <c r="J395" t="n">
-        <v>5.012160087360594</v>
+        <v>4.89241294499852</v>
       </c>
       <c r="K395" t="n">
-        <v>4.992057548536387</v>
+        <v>5.101648214767308</v>
       </c>
       <c r="L395" t="n">
-        <v>4.91712709264794</v>
+        <v>4.716058523053439</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>2.8857959770992543</v>
+        <v>2.914653936870247</v>
       </c>
       <c r="C397" t="n">
-        <v>2.7038304356330074</v>
+        <v>2.7172990815177664</v>
       </c>
       <c r="D397" t="n">
-        <v>2.913612846255122</v>
+        <v>2.9464887504156443</v>
       </c>
       <c r="E397" t="n">
-        <v>2.941569567788729</v>
+        <v>2.942917246398566</v>
       </c>
       <c r="F397" t="n">
-        <v>2.929771657225238</v>
+        <v>2.962668368857617</v>
       </c>
       <c r="G397" t="n">
-        <v>2.8857959770992543</v>
+        <v>2.731053689276198</v>
       </c>
       <c r="H397" t="n">
-        <v>2.7038304356330074</v>
+        <v>2.9974157147883926</v>
       </c>
       <c r="I397" t="n">
-        <v>2.913612846255122</v>
+        <v>2.991875206008369</v>
       </c>
       <c r="J397" t="n">
-        <v>2.941569567788729</v>
+        <v>2.928717406637069</v>
       </c>
       <c r="K397" t="n">
-        <v>2.929771657225238</v>
+        <v>3.0539707291884093</v>
       </c>
       <c r="L397" t="n">
-        <v>2.8857959770992543</v>
+        <v>2.8231473594855947</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>5.281285585084369</v>
+        <v>5.228995628796405</v>
       </c>
       <c r="C398" t="n">
-        <v>4.948271055036493</v>
+        <v>4.874933809344867</v>
       </c>
       <c r="D398" t="n">
-        <v>5.332193144475568</v>
+        <v>5.286108447154244</v>
       </c>
       <c r="E398" t="n">
-        <v>5.383356647236448</v>
+        <v>5.279701038488231</v>
       </c>
       <c r="F398" t="n">
-        <v>5.361765330494885</v>
+        <v>5.315135273645871</v>
       </c>
       <c r="G398" t="n">
-        <v>5.281285585084369</v>
+        <v>4.899610078089786</v>
       </c>
       <c r="H398" t="n">
-        <v>4.948271055036493</v>
+        <v>5.377473281491634</v>
       </c>
       <c r="I398" t="n">
-        <v>5.332193144475568</v>
+        <v>5.36753340635738</v>
       </c>
       <c r="J398" t="n">
-        <v>5.383356647236448</v>
+        <v>5.254226007266443</v>
       </c>
       <c r="K398" t="n">
-        <v>5.361765330494885</v>
+        <v>5.478935043158528</v>
       </c>
       <c r="L398" t="n">
-        <v>5.281285585084369</v>
+        <v>5.064829486429511</v>
       </c>
     </row>
     <row r="399">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>4.12026576207239</v>
+        <v>4.079471051556822</v>
       </c>
       <c r="C400" t="n">
-        <v>3.8604600113089664</v>
+        <v>3.8032449757575293</v>
       </c>
       <c r="D400" t="n">
-        <v>4.159981977113405</v>
+        <v>4.1240283825824084</v>
       </c>
       <c r="E400" t="n">
-        <v>4.199897869806033</v>
+        <v>4.119029556799395</v>
       </c>
       <c r="F400" t="n">
-        <v>4.183053114548038</v>
+        <v>4.146674050469191</v>
       </c>
       <c r="G400" t="n">
-        <v>4.12026576207239</v>
+        <v>3.8224964976847917</v>
       </c>
       <c r="H400" t="n">
-        <v>3.8604600113089664</v>
+        <v>4.1953078831344985</v>
       </c>
       <c r="I400" t="n">
-        <v>4.159981977113405</v>
+        <v>4.1875531562720445</v>
       </c>
       <c r="J400" t="n">
-        <v>4.199897869806033</v>
+        <v>4.099154869615785</v>
       </c>
       <c r="K400" t="n">
-        <v>4.183053114548038</v>
+        <v>4.2744646369249635</v>
       </c>
       <c r="L400" t="n">
-        <v>4.12026576207239</v>
+        <v>3.9513946344063933</v>
       </c>
     </row>
     <row r="401">
@@ -15382,34 +15382,34 @@
         <v>2.2674051892262006</v>
       </c>
       <c r="C403" t="n">
-        <v>2.1244326380635052</v>
+        <v>2.113876354298474</v>
       </c>
       <c r="D403" t="n">
-        <v>2.289261243490799</v>
+        <v>2.2921705380443838</v>
       </c>
       <c r="E403" t="n">
-        <v>2.311227181478823</v>
+        <v>2.2893921475674817</v>
       </c>
       <c r="F403" t="n">
-        <v>2.301957418873992</v>
+        <v>2.3047571955377335</v>
       </c>
       <c r="G403" t="n">
-        <v>2.2674051892262006</v>
+        <v>2.1245765161985615</v>
       </c>
       <c r="H403" t="n">
-        <v>2.1244326380635052</v>
+        <v>2.331788299120438</v>
       </c>
       <c r="I403" t="n">
-        <v>2.289261243490799</v>
+        <v>2.327478155058441</v>
       </c>
       <c r="J403" t="n">
-        <v>2.311227181478823</v>
+        <v>2.2783456250441345</v>
       </c>
       <c r="K403" t="n">
-        <v>2.301957418873992</v>
+        <v>2.375784305474818</v>
       </c>
       <c r="L403" t="n">
-        <v>2.2674051892262006</v>
+        <v>2.196219212124204</v>
       </c>
     </row>
     <row r="404">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>1.4386663672350597</v>
+        <v>1.4098930398903584</v>
       </c>
       <c r="C406" t="n">
-        <v>1.5161548770208306</v>
+        <v>1.4918635653674692</v>
       </c>
       <c r="D406" t="n">
-        <v>1.4604507825100188</v>
+        <v>1.443197600155012</v>
       </c>
       <c r="E406" t="n">
-        <v>1.5660849494558668</v>
+        <v>1.5570420714103894</v>
       </c>
       <c r="F406" t="n">
-        <v>1.6311273344219777</v>
+        <v>1.6138398320819773</v>
       </c>
       <c r="G406" t="n">
-        <v>1.4386663672350597</v>
+        <v>1.5551547463656163</v>
       </c>
       <c r="H406" t="n">
-        <v>1.5161548770208306</v>
+        <v>1.5646373974065784</v>
       </c>
       <c r="I406" t="n">
-        <v>1.4604507825100188</v>
+        <v>1.435126025080231</v>
       </c>
       <c r="J406" t="n">
-        <v>1.5660849494558668</v>
+        <v>1.4263509354281592</v>
       </c>
       <c r="K406" t="n">
-        <v>1.6311273344219777</v>
+        <v>1.565592026542567</v>
       </c>
       <c r="L406" t="n">
-        <v>1.4386663672350597</v>
+        <v>1.376612302883344</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>6.598935219025232</v>
+        <v>6.535483918842297</v>
       </c>
       <c r="C407" t="n">
-        <v>6.9543627649390505</v>
+        <v>6.915453913669968</v>
       </c>
       <c r="D407" t="n">
-        <v>6.698856888466964</v>
+        <v>6.689865429975003</v>
       </c>
       <c r="E407" t="n">
-        <v>7.183384114839147</v>
+        <v>7.217585398857524</v>
       </c>
       <c r="F407" t="n">
-        <v>7.481723253542414</v>
+        <v>7.4808683862849135</v>
       </c>
       <c r="G407" t="n">
-        <v>6.598935219025232</v>
+        <v>7.208836804367901</v>
       </c>
       <c r="H407" t="n">
-        <v>6.9543627649390505</v>
+        <v>7.2527931270340655</v>
       </c>
       <c r="I407" t="n">
-        <v>6.698856888466964</v>
+        <v>6.65245007461935</v>
       </c>
       <c r="J407" t="n">
-        <v>7.183384114839147</v>
+        <v>6.611773614998005</v>
       </c>
       <c r="K407" t="n">
-        <v>7.481723253542414</v>
+        <v>7.257218259430774</v>
       </c>
       <c r="L407" t="n">
-        <v>6.598935219025232</v>
+        <v>6.381212839148565</v>
       </c>
     </row>
     <row r="408">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>1.9317039859851235</v>
+        <v>1.9512161474597207</v>
       </c>
       <c r="C410" t="n">
-        <v>2.0357481665055155</v>
+        <v>2.0646589465951326</v>
       </c>
       <c r="D410" t="n">
-        <v>1.960954021140855</v>
+        <v>1.9973078678483052</v>
       </c>
       <c r="E410" t="n">
-        <v>2.102789505720702</v>
+        <v>2.1548624938572263</v>
       </c>
       <c r="F410" t="n">
-        <v>2.190122216874911</v>
+        <v>2.233467540216327</v>
       </c>
       <c r="G410" t="n">
-        <v>1.9317039859851235</v>
+        <v>2.1522505374898464</v>
       </c>
       <c r="H410" t="n">
-        <v>2.0357481665055155</v>
+        <v>2.1653740165824797</v>
       </c>
       <c r="I410" t="n">
-        <v>1.960954021140855</v>
+        <v>1.9861372420095031</v>
       </c>
       <c r="J410" t="n">
-        <v>2.102789505720702</v>
+        <v>1.9739929898285995</v>
       </c>
       <c r="K410" t="n">
-        <v>2.190122216874911</v>
+        <v>2.166695171969644</v>
       </c>
       <c r="L410" t="n">
-        <v>1.9317039859851235</v>
+        <v>1.905157397178567</v>
       </c>
     </row>
     <row r="411">
@@ -15683,37 +15683,37 @@
         <v>410.0</v>
       </c>
       <c r="B411" t="n">
-        <v>0.5231840795638864</v>
+        <v>0.5286339137260102</v>
       </c>
       <c r="C411" t="n">
-        <v>0.5513634793137812</v>
+        <v>0.5593684435570905</v>
       </c>
       <c r="D411" t="n">
-        <v>0.5311061798604069</v>
+        <v>0.5411213291110786</v>
       </c>
       <c r="E411" t="n">
-        <v>0.5695210032431737</v>
+        <v>0.583806870987701</v>
       </c>
       <c r="F411" t="n">
-        <v>0.5931742567605506</v>
+        <v>0.6051029705251736</v>
       </c>
       <c r="G411" t="n">
-        <v>0.5231840795638864</v>
+        <v>0.5830992257999716</v>
       </c>
       <c r="H411" t="n">
-        <v>0.5513634793137812</v>
+        <v>0.5866547089397931</v>
       </c>
       <c r="I411" t="n">
-        <v>0.5311061798604069</v>
+        <v>0.5380949234185967</v>
       </c>
       <c r="J411" t="n">
-        <v>0.5695210032431737</v>
+        <v>0.5348047376705827</v>
       </c>
       <c r="K411" t="n">
-        <v>0.5931742567605506</v>
+        <v>0.5870126434227904</v>
       </c>
       <c r="L411" t="n">
-        <v>0.5231840795638864</v>
+        <v>0.5161554307787702</v>
       </c>
     </row>
     <row r="412">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>1.7698669223724754</v>
+        <v>1.7877443660328034</v>
       </c>
       <c r="C414" t="n">
-        <v>1.865194340498852</v>
+        <v>1.8916829918407931</v>
       </c>
       <c r="D414" t="n">
-        <v>1.796666406183635</v>
+        <v>1.829974548246459</v>
       </c>
       <c r="E414" t="n">
-        <v>1.9266189943637144</v>
+        <v>1.9743293371080393</v>
       </c>
       <c r="F414" t="n">
-        <v>2.0066350205428596</v>
+        <v>2.0463488972952484</v>
       </c>
       <c r="G414" t="n">
-        <v>1.7698669223724754</v>
+        <v>1.97193620896271</v>
       </c>
       <c r="H414" t="n">
-        <v>1.865194340498852</v>
+        <v>1.9839602104251566</v>
       </c>
       <c r="I414" t="n">
-        <v>1.796666406183635</v>
+        <v>1.8197397911005746</v>
       </c>
       <c r="J414" t="n">
-        <v>1.9266189943637144</v>
+        <v>1.8086129774749506</v>
       </c>
       <c r="K414" t="n">
-        <v>2.0066350205428596</v>
+        <v>1.985170680163802</v>
       </c>
       <c r="L414" t="n">
-        <v>1.7698669223724754</v>
+        <v>1.74554439170969</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>5.89906460163587</v>
+        <v>5.841230634953166</v>
       </c>
       <c r="C416" t="n">
-        <v>6.216796172708366</v>
+        <v>6.1808370668122405</v>
       </c>
       <c r="D416" t="n">
-        <v>5.988388767365012</v>
+        <v>5.97921246208288</v>
       </c>
       <c r="E416" t="n">
-        <v>6.42152795039266</v>
+        <v>6.450873640840574</v>
       </c>
       <c r="F416" t="n">
-        <v>6.688225802999696</v>
+        <v>6.6861885266119225</v>
       </c>
       <c r="G416" t="n">
-        <v>5.89906460163587</v>
+        <v>6.443054394587326</v>
       </c>
       <c r="H416" t="n">
-        <v>6.216796172708366</v>
+        <v>6.482341312242687</v>
       </c>
       <c r="I416" t="n">
-        <v>5.988388767365012</v>
+        <v>5.94577167596282</v>
       </c>
       <c r="J416" t="n">
-        <v>6.42152795039266</v>
+        <v>5.909416207108155</v>
       </c>
       <c r="K416" t="n">
-        <v>6.688225802999696</v>
+        <v>6.486296370389927</v>
       </c>
       <c r="L416" t="n">
-        <v>5.89906460163587</v>
+        <v>5.703347508319453</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>1.2576022520525703</v>
+        <v>1.2705672237232153</v>
       </c>
       <c r="C420" t="n">
-        <v>1.1256684746192134</v>
+        <v>1.14295262399977</v>
       </c>
       <c r="D420" t="n">
-        <v>1.1445007644462348</v>
+        <v>1.1646866223545789</v>
       </c>
       <c r="E420" t="n">
-        <v>1.2520323969603246</v>
+        <v>1.2697924877316962</v>
       </c>
       <c r="F420" t="n">
-        <v>1.2361868456317668</v>
+        <v>1.249975798712537</v>
       </c>
       <c r="G420" t="n">
-        <v>1.2576022520525703</v>
+        <v>1.1171993994376392</v>
       </c>
       <c r="H420" t="n">
-        <v>1.1256684746192134</v>
+        <v>1.2560070453837386</v>
       </c>
       <c r="I420" t="n">
-        <v>1.1445007644462348</v>
+        <v>1.2107323723465744</v>
       </c>
       <c r="J420" t="n">
-        <v>1.2520323969603246</v>
+        <v>1.1442086156993287</v>
       </c>
       <c r="K420" t="n">
-        <v>1.2361868456317668</v>
+        <v>1.2620967755650605</v>
       </c>
       <c r="L420" t="n">
-        <v>1.2576022520525703</v>
+        <v>1.2636284474832526</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>1.5684975556411889</v>
+        <v>1.5846676335343968</v>
       </c>
       <c r="C423" t="n">
-        <v>1.4039480670624434</v>
+        <v>1.4255050784390475</v>
       </c>
       <c r="D423" t="n">
-        <v>1.4274359389333782</v>
+        <v>1.4526119981652077</v>
       </c>
       <c r="E423" t="n">
-        <v>1.5615507613879152</v>
+        <v>1.5837013729325398</v>
       </c>
       <c r="F423" t="n">
-        <v>1.5417879878352552</v>
+        <v>1.5589857458439893</v>
       </c>
       <c r="G423" t="n">
-        <v>1.5684975556411889</v>
+        <v>1.3933853285661026</v>
       </c>
       <c r="H423" t="n">
-        <v>1.4039480670624434</v>
+        <v>1.5665079935545105</v>
       </c>
       <c r="I423" t="n">
-        <v>1.4274359389333782</v>
+        <v>1.5100408443621938</v>
       </c>
       <c r="J423" t="n">
-        <v>1.5615507613879152</v>
+        <v>1.4270715672930934</v>
       </c>
       <c r="K423" t="n">
-        <v>1.5417879878352552</v>
+        <v>1.5741031826441674</v>
       </c>
       <c r="L423" t="n">
-        <v>1.5684975556411889</v>
+        <v>1.5760135033801614</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>2.853723199998011</v>
+        <v>2.8822604319979916</v>
       </c>
       <c r="C425" t="n">
-        <v>2.7309823668552724</v>
+        <v>2.7429538483794813</v>
       </c>
       <c r="D425" t="n">
-        <v>2.7538634125992916</v>
+        <v>2.761373236050422</v>
       </c>
       <c r="E425" t="n">
-        <v>2.7986996724805056</v>
+        <v>2.7753509413368382</v>
       </c>
       <c r="F425" t="n">
-        <v>2.909050907640489</v>
+        <v>2.8689383560809816</v>
       </c>
       <c r="G425" t="n">
-        <v>2.853723199998011</v>
+        <v>3.103505643755589</v>
       </c>
       <c r="H425" t="n">
-        <v>2.7309823668552724</v>
+        <v>2.7113043806500774</v>
       </c>
       <c r="I425" t="n">
-        <v>2.7538634125992916</v>
+        <v>2.6150365517303826</v>
       </c>
       <c r="J425" t="n">
-        <v>2.7986996724805056</v>
+        <v>2.9942803245555116</v>
       </c>
       <c r="K425" t="n">
-        <v>2.909050907640489</v>
+        <v>3.0460333161083044</v>
       </c>
       <c r="L425" t="n">
-        <v>2.853723199998011</v>
+        <v>2.9906508913170855</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>4.766041725516604</v>
+        <v>4.671664661644987</v>
       </c>
       <c r="C428" t="n">
-        <v>4.26604111942186</v>
+        <v>4.202446973114513</v>
       </c>
       <c r="D428" t="n">
-        <v>4.337411442555517</v>
+        <v>4.282359275411183</v>
       </c>
       <c r="E428" t="n">
-        <v>4.744933174119374</v>
+        <v>4.668816086074874</v>
       </c>
       <c r="F428" t="n">
-        <v>4.684881946736104</v>
+        <v>4.595953411772344</v>
       </c>
       <c r="G428" t="n">
-        <v>4.766041725516604</v>
+        <v>4.107756643579833</v>
       </c>
       <c r="H428" t="n">
-        <v>4.26604111942186</v>
+        <v>4.61812930409306</v>
       </c>
       <c r="I428" t="n">
-        <v>4.337411442555517</v>
+        <v>4.45166185070208</v>
       </c>
       <c r="J428" t="n">
-        <v>4.744933174119374</v>
+        <v>4.207065045994555</v>
       </c>
       <c r="K428" t="n">
-        <v>4.684881946736104</v>
+        <v>4.640520230567353</v>
       </c>
       <c r="L428" t="n">
-        <v>4.766041725516604</v>
+        <v>4.6461519338254345</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>7.2047882106760595</v>
+        <v>7.134153032140019</v>
       </c>
       <c r="C429" t="n">
-        <v>7.133258179192913</v>
+        <v>7.02281571252368</v>
       </c>
       <c r="D429" t="n">
-        <v>7.492246056007284</v>
+        <v>7.358497470736455</v>
       </c>
       <c r="E429" t="n">
-        <v>7.366491689810487</v>
+        <v>7.22222899689598</v>
       </c>
       <c r="F429" t="n">
-        <v>6.552610776934046</v>
+        <v>6.428577459671436</v>
       </c>
       <c r="G429" t="n">
-        <v>7.2047882106760595</v>
+        <v>6.547292096639282</v>
       </c>
       <c r="H429" t="n">
-        <v>7.133258179192913</v>
+        <v>7.208879222631697</v>
       </c>
       <c r="I429" t="n">
-        <v>7.492246056007284</v>
+        <v>7.056701435697079</v>
       </c>
       <c r="J429" t="n">
-        <v>7.366491689810487</v>
+        <v>7.138505778889118</v>
       </c>
       <c r="K429" t="n">
-        <v>6.552610776934046</v>
+        <v>6.802331962694272</v>
       </c>
       <c r="L429" t="n">
-        <v>7.2047882106760595</v>
+        <v>6.200323782400323</v>
       </c>
     </row>
     <row r="430">
@@ -17016,34 +17016,34 @@
         <v>1.6379431381952243</v>
       </c>
       <c r="C446" t="n">
-        <v>1.8002110878951059</v>
+        <v>1.7967437221727254</v>
       </c>
       <c r="D446" t="n">
-        <v>1.5746022973759888</v>
+        <v>1.5615578725712118</v>
       </c>
       <c r="E446" t="n">
-        <v>1.6180901207641516</v>
+        <v>1.6480199695875946</v>
       </c>
       <c r="F446" t="n">
-        <v>1.7119631717427621</v>
+        <v>1.7211294677348787</v>
       </c>
       <c r="G446" t="n">
-        <v>1.6379431381952243</v>
+        <v>1.6172665784004459</v>
       </c>
       <c r="H446" t="n">
-        <v>1.8002110878951059</v>
+        <v>1.7131742471803388</v>
       </c>
       <c r="I446" t="n">
-        <v>1.5746022973759888</v>
+        <v>1.7858543661112867</v>
       </c>
       <c r="J446" t="n">
-        <v>1.6180901207641516</v>
+        <v>1.8532450979963948</v>
       </c>
       <c r="K446" t="n">
-        <v>1.7119631717427621</v>
+        <v>1.797839965883846</v>
       </c>
       <c r="L446" t="n">
-        <v>1.6379431381952243</v>
+        <v>1.8155635895126796</v>
       </c>
     </row>
     <row r="447">
@@ -17051,37 +17051,37 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="n">
-        <v>1.0614847867195032</v>
+        <v>1.0402550909851132</v>
       </c>
       <c r="C447" t="n">
-        <v>1.1666440904596678</v>
+        <v>1.141109090175844</v>
       </c>
       <c r="D447" t="n">
-        <v>1.020436146299834</v>
+        <v>0.9917429298552813</v>
       </c>
       <c r="E447" t="n">
-        <v>1.0486188480418144</v>
+        <v>1.0466548706309815</v>
       </c>
       <c r="F447" t="n">
-        <v>1.1094541805836595</v>
+        <v>1.0930865970283203</v>
       </c>
       <c r="G447" t="n">
-        <v>1.0614847867195032</v>
+        <v>1.0271234406310745</v>
       </c>
       <c r="H447" t="n">
-        <v>1.1666440904596678</v>
+        <v>1.088034249062879</v>
       </c>
       <c r="I447" t="n">
-        <v>1.020436146299834</v>
+        <v>1.1341932774004735</v>
       </c>
       <c r="J447" t="n">
-        <v>1.0486188480418144</v>
+        <v>1.176993024408749</v>
       </c>
       <c r="K447" t="n">
-        <v>1.1094541805836595</v>
+        <v>1.1418053128192687</v>
       </c>
       <c r="L447" t="n">
-        <v>1.0614847867195032</v>
+        <v>1.1530615580946164</v>
       </c>
     </row>
     <row r="448">
@@ -17130,34 +17130,34 @@
         <v>1.6350433032578153</v>
       </c>
       <c r="C449" t="n">
-        <v>1.7970239717580088</v>
+        <v>1.7935627447030997</v>
       </c>
       <c r="D449" t="n">
-        <v>1.5718146018522683</v>
+        <v>1.5587932710596737</v>
       </c>
       <c r="E449" t="n">
-        <v>1.615225433856132</v>
+        <v>1.6451022945023508</v>
       </c>
       <c r="F449" t="n">
-        <v>1.7089322908158167</v>
+        <v>1.7180823586833147</v>
       </c>
       <c r="G449" t="n">
-        <v>1.6350433032578153</v>
+        <v>1.6144033495020869</v>
       </c>
       <c r="H449" t="n">
-        <v>1.7970239717580088</v>
+        <v>1.710141222150351</v>
       </c>
       <c r="I449" t="n">
-        <v>1.5718146018522683</v>
+        <v>1.7826926672932921</v>
       </c>
       <c r="J449" t="n">
-        <v>1.615225433856132</v>
+        <v>1.8499640897871148</v>
       </c>
       <c r="K449" t="n">
-        <v>1.7089322908158167</v>
+        <v>1.794657047610697</v>
       </c>
       <c r="L449" t="n">
-        <v>1.6350433032578153</v>
+        <v>1.8123492931154568</v>
       </c>
     </row>
     <row r="450">
@@ -17168,34 +17168,34 @@
         <v>1.4419174670004395</v>
       </c>
       <c r="C450" t="n">
-        <v>1.584765521704229</v>
+        <v>1.5817131231911232</v>
       </c>
       <c r="D450" t="n">
-        <v>1.3861571279373968</v>
+        <v>1.3746738331059862</v>
       </c>
       <c r="E450" t="n">
-        <v>1.4244404179265198</v>
+        <v>1.4507883239049635</v>
       </c>
       <c r="F450" t="n">
-        <v>1.5070789349362284</v>
+        <v>1.5151482274473786</v>
       </c>
       <c r="G450" t="n">
-        <v>1.4419174670004395</v>
+        <v>1.423715435421724</v>
       </c>
       <c r="H450" t="n">
-        <v>1.584765521704229</v>
+        <v>1.5081450713524296</v>
       </c>
       <c r="I450" t="n">
-        <v>1.3861571279373968</v>
+        <v>1.5721269829013713</v>
       </c>
       <c r="J450" t="n">
-        <v>1.4244404179265198</v>
+        <v>1.631452530384143</v>
       </c>
       <c r="K450" t="n">
-        <v>1.5070789349362284</v>
+        <v>1.5826781707060789</v>
       </c>
       <c r="L450" t="n">
-        <v>1.4419174670004395</v>
+        <v>1.5982806674552126</v>
       </c>
     </row>
     <row r="451">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>3.4818600666322035</v>
+        <v>3.4477241836260055</v>
       </c>
       <c r="C452" t="n">
-        <v>3.826801402493741</v>
+        <v>3.7819852461659598</v>
       </c>
       <c r="D452" t="n">
-        <v>3.3472131798798275</v>
+        <v>3.2869400138807827</v>
       </c>
       <c r="E452" t="n">
-        <v>3.4396574852461534</v>
+        <v>3.4689350147444022</v>
       </c>
       <c r="F452" t="n">
-        <v>3.639208263239276</v>
+        <v>3.622823986185064</v>
       </c>
       <c r="G452" t="n">
-        <v>3.4818600666322035</v>
+        <v>3.40420186983116</v>
       </c>
       <c r="H452" t="n">
-        <v>3.826801402493741</v>
+        <v>3.6060789566096254</v>
       </c>
       <c r="I452" t="n">
-        <v>3.3472131798798275</v>
+        <v>3.759064123105177</v>
       </c>
       <c r="J452" t="n">
-        <v>3.4396574852461534</v>
+        <v>3.900915601739871</v>
       </c>
       <c r="K452" t="n">
-        <v>3.639208263239276</v>
+        <v>3.7842927413810514</v>
       </c>
       <c r="L452" t="n">
-        <v>3.4818600666322035</v>
+        <v>3.821599387980484</v>
       </c>
     </row>
     <row r="453">
@@ -17279,37 +17279,37 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="n">
-        <v>1.9795363733325997</v>
+        <v>1.9207382632336119</v>
       </c>
       <c r="C453" t="n">
-        <v>2.1756453231285935</v>
+        <v>2.1069561793240994</v>
       </c>
       <c r="D453" t="n">
-        <v>1.902985792671232</v>
+        <v>1.8311648836638157</v>
       </c>
       <c r="E453" t="n">
-        <v>1.9555430067689</v>
+        <v>1.9325548856645987</v>
       </c>
       <c r="F453" t="n">
-        <v>2.068993293628441</v>
+        <v>2.018286928018659</v>
       </c>
       <c r="G453" t="n">
-        <v>1.9795363733325997</v>
+        <v>1.8964918418385273</v>
       </c>
       <c r="H453" t="n">
-        <v>2.1756453231285935</v>
+        <v>2.0089582180315695</v>
       </c>
       <c r="I453" t="n">
-        <v>1.902985792671232</v>
+        <v>2.0941867477355123</v>
       </c>
       <c r="J453" t="n">
-        <v>1.9555430067689</v>
+        <v>2.1732126640207796</v>
       </c>
       <c r="K453" t="n">
-        <v>2.068993293628441</v>
+        <v>2.108241692351187</v>
       </c>
       <c r="L453" t="n">
-        <v>1.9795363733325997</v>
+        <v>2.129025345503251</v>
       </c>
     </row>
     <row r="454">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>3.0301174157701074</v>
+        <v>3.00011625323773</v>
       </c>
       <c r="C456" t="n">
-        <v>3.354748909399077</v>
+        <v>3.3093874961397214</v>
       </c>
       <c r="D456" t="n">
-        <v>3.190837708840722</v>
+        <v>3.131455123563485</v>
       </c>
       <c r="E456" t="n">
-        <v>3.3197035820888283</v>
+        <v>3.2180118515638605</v>
       </c>
       <c r="F456" t="n">
-        <v>3.327630684075172</v>
+        <v>3.2335390508005357</v>
       </c>
       <c r="G456" t="n">
-        <v>3.0301174157701074</v>
+        <v>3.303270329812609</v>
       </c>
       <c r="H456" t="n">
-        <v>3.354748909399077</v>
+        <v>3.2710236377066018</v>
       </c>
       <c r="I456" t="n">
-        <v>3.190837708840722</v>
+        <v>3.269029111408485</v>
       </c>
       <c r="J456" t="n">
-        <v>3.3197035820888283</v>
+        <v>2.876184412252886</v>
       </c>
       <c r="K456" t="n">
-        <v>3.327630684075172</v>
+        <v>3.0153024440305125</v>
       </c>
       <c r="L456" t="n">
-        <v>3.0301174157701074</v>
+        <v>2.980104360747125</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>0.7026206371382765</v>
+        <v>0.7097178152911884</v>
       </c>
       <c r="C458" t="n">
-        <v>0.7778958676298866</v>
+        <v>0.7828800837892548</v>
       </c>
       <c r="D458" t="n">
-        <v>0.7398883001438783</v>
+        <v>0.7407877899996056</v>
       </c>
       <c r="E458" t="n">
-        <v>0.7697695917056289</v>
+        <v>0.7612639471581436</v>
       </c>
       <c r="F458" t="n">
-        <v>0.7716077202940848</v>
+        <v>0.7649371147922148</v>
       </c>
       <c r="G458" t="n">
-        <v>0.7026206371382765</v>
+        <v>0.781432985892043</v>
       </c>
       <c r="H458" t="n">
-        <v>0.7778958676298866</v>
+        <v>0.7738045975430434</v>
       </c>
       <c r="I458" t="n">
-        <v>0.7398883001438783</v>
+        <v>0.7733327655447625</v>
       </c>
       <c r="J458" t="n">
-        <v>0.7697695917056289</v>
+        <v>0.6804000729090872</v>
       </c>
       <c r="K458" t="n">
-        <v>0.7716077202940848</v>
+        <v>0.7133103127953825</v>
       </c>
       <c r="L458" t="n">
-        <v>0.7026206371382765</v>
+        <v>0.7049837332025537</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>1.9162486527200047</v>
       </c>
       <c r="C460" t="n">
-        <v>1.696453581656927</v>
+        <v>1.7056718779335327</v>
       </c>
       <c r="D460" t="n">
-        <v>1.7059648349400025</v>
+        <v>1.703799571003257</v>
       </c>
       <c r="E460" t="n">
-        <v>1.6689907619260547</v>
+        <v>1.6451101314509522</v>
       </c>
       <c r="F460" t="n">
-        <v>1.7238244546227226</v>
+        <v>1.7255824447599195</v>
       </c>
       <c r="G460" t="n">
-        <v>1.9162486527200047</v>
+        <v>1.892879766345291</v>
       </c>
       <c r="H460" t="n">
-        <v>1.696453581656927</v>
+        <v>1.8132197177215477</v>
       </c>
       <c r="I460" t="n">
-        <v>1.7059648349400025</v>
+        <v>1.8940346653518414</v>
       </c>
       <c r="J460" t="n">
-        <v>1.6689907619260547</v>
+        <v>1.7361984441459781</v>
       </c>
       <c r="K460" t="n">
-        <v>1.7238244546227226</v>
+        <v>1.863339026387591</v>
       </c>
       <c r="L460" t="n">
-        <v>1.9162486527200047</v>
+        <v>1.7371700155923566</v>
       </c>
     </row>
     <row r="461">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>0.7182754930237564</v>
+        <v>0.7256048347893049</v>
       </c>
       <c r="C461" t="n">
-        <v>0.795227905799525</v>
+        <v>0.800404839245399</v>
       </c>
       <c r="D461" t="n">
-        <v>0.7563735043890614</v>
+        <v>0.7573703102775582</v>
       </c>
       <c r="E461" t="n">
-        <v>0.7869205710339016</v>
+        <v>0.778304825816026</v>
       </c>
       <c r="F461" t="n">
-        <v>0.7887996543518804</v>
+        <v>0.7820602172361782</v>
       </c>
       <c r="G461" t="n">
-        <v>0.7182754930237564</v>
+        <v>0.7989253480898902</v>
       </c>
       <c r="H461" t="n">
-        <v>0.795227905799525</v>
+        <v>0.791126198415997</v>
       </c>
       <c r="I461" t="n">
-        <v>0.7563735043890614</v>
+        <v>0.7906438044676071</v>
       </c>
       <c r="J461" t="n">
-        <v>0.7869205710339016</v>
+        <v>0.6956308153139281</v>
       </c>
       <c r="K461" t="n">
-        <v>0.7887996543518804</v>
+        <v>0.729277750280291</v>
       </c>
       <c r="L461" t="n">
-        <v>0.7182754930237564</v>
+        <v>0.7207647803651485</v>
       </c>
     </row>
     <row r="462">
@@ -17773,37 +17773,37 @@
         <v>465.0</v>
       </c>
       <c r="B466" t="n">
-        <v>1.0517132396930036</v>
+        <v>1.0623366057505088</v>
       </c>
       <c r="C466" t="n">
-        <v>1.1643884905245396</v>
+        <v>1.1718490828374117</v>
       </c>
       <c r="D466" t="n">
-        <v>1.1074971044468864</v>
+        <v>1.1088435001264825</v>
       </c>
       <c r="E466" t="n">
-        <v>1.1522247260018383</v>
+        <v>1.1394931059641074</v>
       </c>
       <c r="F466" t="n">
-        <v>1.1549761171090096</v>
+        <v>1.144991263615865</v>
       </c>
       <c r="G466" t="n">
-        <v>1.0517132396930036</v>
+        <v>1.1696830035377372</v>
       </c>
       <c r="H466" t="n">
-        <v>1.1643884905245396</v>
+        <v>1.1582644988709239</v>
       </c>
       <c r="I466" t="n">
-        <v>1.1074971044468864</v>
+        <v>1.1575582401400046</v>
       </c>
       <c r="J466" t="n">
-        <v>1.1522247260018383</v>
+        <v>1.018452529207086</v>
       </c>
       <c r="K466" t="n">
-        <v>1.1549761171090096</v>
+        <v>1.0677140128305422</v>
       </c>
       <c r="L466" t="n">
-        <v>1.0517132396930036</v>
+        <v>1.055250425033288</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>2.7110893163425107</v>
+        <v>2.738474056911627</v>
       </c>
       <c r="C468" t="n">
-        <v>2.6348046254517437</v>
+        <v>2.676770241841486</v>
       </c>
       <c r="D468" t="n">
-        <v>2.9883942816136386</v>
+        <v>3.04423412367874</v>
       </c>
       <c r="E468" t="n">
-        <v>2.950685688817114</v>
+        <v>3.04423412367874</v>
       </c>
       <c r="F468" t="n">
-        <v>2.7665007406826336</v>
+        <v>2.7921095304321693</v>
       </c>
       <c r="G468" t="n">
-        <v>2.7110893163425107</v>
+        <v>2.9008719363461815</v>
       </c>
       <c r="H468" t="n">
-        <v>2.6348046254517437</v>
+        <v>3.023939229520882</v>
       </c>
       <c r="I468" t="n">
-        <v>2.9883942816136386</v>
+        <v>2.741483368594994</v>
       </c>
       <c r="J468" t="n">
-        <v>2.950685688817114</v>
+        <v>3.0799381050293504</v>
       </c>
       <c r="K468" t="n">
-        <v>2.7665007406826336</v>
+        <v>3.0276090612563307</v>
       </c>
       <c r="L468" t="n">
-        <v>2.7110893163425107</v>
+        <v>3.1380501456854772</v>
       </c>
     </row>
     <row r="469">
@@ -17966,34 +17966,34 @@
         <v>2.4640715068055203</v>
       </c>
       <c r="C471" t="n">
-        <v>2.712034785318503</v>
+        <v>2.714577852373509</v>
       </c>
       <c r="D471" t="n">
-        <v>2.6644324709401115</v>
+        <v>2.6880780060202616</v>
       </c>
       <c r="E471" t="n">
-        <v>2.674144862002988</v>
+        <v>2.6880780060202616</v>
       </c>
       <c r="F471" t="n">
-        <v>2.491197659437947</v>
+        <v>2.4779301769217548</v>
       </c>
       <c r="G471" t="n">
-        <v>2.4640715068055203</v>
+        <v>2.719604847615465</v>
       </c>
       <c r="H471" t="n">
-        <v>2.712034785318503</v>
+        <v>2.6733979706383613</v>
       </c>
       <c r="I471" t="n">
-        <v>2.6644324709401115</v>
+        <v>2.77091814745586</v>
       </c>
       <c r="J471" t="n">
-        <v>2.674144862002988</v>
+        <v>2.670157485980126</v>
       </c>
       <c r="K471" t="n">
-        <v>2.491197659437947</v>
+        <v>2.4207471723906835</v>
       </c>
       <c r="L471" t="n">
-        <v>2.4640715068055203</v>
+        <v>2.657273736535496</v>
       </c>
     </row>
     <row r="472">
@@ -18042,34 +18042,34 @@
         <v>5.198146005981742</v>
       </c>
       <c r="C473" t="n">
-        <v>5.051880459184354</v>
+        <v>5.081020397633852</v>
       </c>
       <c r="D473" t="n">
-        <v>5.729840660589318</v>
+        <v>5.778536923267496</v>
       </c>
       <c r="E473" t="n">
-        <v>5.65753954905645</v>
+        <v>5.778536923267496</v>
       </c>
       <c r="F473" t="n">
-        <v>5.30438989561794</v>
+        <v>5.299956363379897</v>
       </c>
       <c r="G473" t="n">
-        <v>5.198146005981742</v>
+        <v>5.5064081515485555</v>
       </c>
       <c r="H473" t="n">
-        <v>5.051880459184354</v>
+        <v>5.7400133437790455</v>
       </c>
       <c r="I473" t="n">
-        <v>5.729840660589318</v>
+        <v>5.203858253453347</v>
       </c>
       <c r="J473" t="n">
-        <v>5.65753954905645</v>
+        <v>5.846309888867408</v>
       </c>
       <c r="K473" t="n">
-        <v>5.30438989561794</v>
+        <v>5.7469793842752495</v>
       </c>
       <c r="L473" t="n">
-        <v>5.198146005981742</v>
+        <v>5.956617624401249</v>
       </c>
     </row>
     <row r="474">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>1.8114050110155773</v>
+        <v>1.8297020313288659</v>
       </c>
       <c r="C475" t="n">
-        <v>1.7604356569222455</v>
+        <v>1.7884748393130676</v>
       </c>
       <c r="D475" t="n">
-        <v>1.996685370701138</v>
+        <v>2.0339945693030863</v>
       </c>
       <c r="E475" t="n">
-        <v>1.97149050399637</v>
+        <v>2.0339945693030863</v>
       </c>
       <c r="F475" t="n">
-        <v>1.848427963786687</v>
+        <v>1.8655383886622994</v>
       </c>
       <c r="G475" t="n">
-        <v>1.8114050110155773</v>
+        <v>1.938207616450242</v>
       </c>
       <c r="H475" t="n">
-        <v>1.7604356569222455</v>
+        <v>2.0204346055077327</v>
       </c>
       <c r="I475" t="n">
-        <v>1.996685370701138</v>
+        <v>1.8317126925896734</v>
       </c>
       <c r="J475" t="n">
-        <v>1.97149050399637</v>
+        <v>2.057850061758405</v>
       </c>
       <c r="K475" t="n">
-        <v>1.848427963786687</v>
+        <v>2.0228865909716953</v>
       </c>
       <c r="L475" t="n">
-        <v>1.8114050110155773</v>
+        <v>2.0966774220413407</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>5.484722817890131</v>
+        <v>5.594417274247934</v>
       </c>
       <c r="C482" t="n">
-        <v>6.314266177260858</v>
+        <v>6.4057435681155885</v>
       </c>
       <c r="D482" t="n">
-        <v>6.350131353181082</v>
+        <v>6.504414909029974</v>
       </c>
       <c r="E482" t="n">
-        <v>5.794586891169334</v>
+        <v>5.868074150506617</v>
       </c>
       <c r="F482" t="n">
-        <v>5.5012322969167915</v>
+        <v>5.663447100691442</v>
       </c>
       <c r="G482" t="n">
-        <v>5.484722817890131</v>
+        <v>6.367108202176953</v>
       </c>
       <c r="H482" t="n">
-        <v>6.314266177260858</v>
+        <v>5.9041752778496175</v>
       </c>
       <c r="I482" t="n">
-        <v>6.350131353181082</v>
+        <v>6.336533851268096</v>
       </c>
       <c r="J482" t="n">
-        <v>5.794586891169334</v>
+        <v>5.907479236641721</v>
       </c>
       <c r="K482" t="n">
-        <v>5.5012322969167915</v>
+        <v>6.166096431417439</v>
       </c>
       <c r="L482" t="n">
-        <v>5.484722817890131</v>
+        <v>6.436991092855725</v>
       </c>
     </row>
     <row r="483">
@@ -18457,37 +18457,37 @@
         <v>483.0</v>
       </c>
       <c r="B484" t="n">
-        <v>2.211983884854265</v>
+        <v>2.2343271564184497</v>
       </c>
       <c r="C484" t="n">
-        <v>2.5465379915323094</v>
+        <v>2.5583588262492505</v>
       </c>
       <c r="D484" t="n">
-        <v>2.5610023854127495</v>
+        <v>2.5977666940856503</v>
       </c>
       <c r="E484" t="n">
-        <v>2.3369517928683594</v>
+        <v>2.3436216477285594</v>
       </c>
       <c r="F484" t="n">
-        <v>2.218642143214231</v>
+        <v>2.261896643688474</v>
       </c>
       <c r="G484" t="n">
-        <v>2.211983884854265</v>
+        <v>2.542928435006856</v>
       </c>
       <c r="H484" t="n">
-        <v>2.5465379915323094</v>
+        <v>2.358039901720997</v>
       </c>
       <c r="I484" t="n">
-        <v>2.5610023854127495</v>
+        <v>2.530717493424078</v>
       </c>
       <c r="J484" t="n">
-        <v>2.3369517928683594</v>
+        <v>2.3593594537835267</v>
       </c>
       <c r="K484" t="n">
-        <v>2.218642143214231</v>
+        <v>2.462647319718022</v>
       </c>
       <c r="L484" t="n">
-        <v>2.211983884854265</v>
+        <v>2.5708386234605034</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>3.6060773894129996</v>
+        <v>3.5700166155188695</v>
       </c>
       <c r="C485" t="n">
-        <v>4.151482809356393</v>
+        <v>4.087755677109381</v>
       </c>
       <c r="D485" t="n">
-        <v>4.175063326412129</v>
+        <v>4.150721721519652</v>
       </c>
       <c r="E485" t="n">
-        <v>3.809805793845548</v>
+        <v>3.744647778569864</v>
       </c>
       <c r="F485" t="n">
-        <v>3.6169319869935443</v>
+        <v>3.6140672494435333</v>
       </c>
       <c r="G485" t="n">
-        <v>3.6060773894129996</v>
+        <v>4.063100938003221</v>
       </c>
       <c r="H485" t="n">
-        <v>4.151482809356393</v>
+        <v>3.7676853208437913</v>
       </c>
       <c r="I485" t="n">
-        <v>4.175063326412129</v>
+        <v>4.043590248077432</v>
       </c>
       <c r="J485" t="n">
-        <v>3.809805793845548</v>
+        <v>3.769793706258496</v>
       </c>
       <c r="K485" t="n">
-        <v>3.6169319869935443</v>
+        <v>3.9348274599361406</v>
       </c>
       <c r="L485" t="n">
-        <v>3.6060773894129996</v>
+        <v>4.107695945603408</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>2.2272809047164914</v>
+        <v>2.2502425635280017</v>
       </c>
       <c r="C486" t="n">
-        <v>2.5641486271717056</v>
+        <v>2.576582353692448</v>
       </c>
       <c r="D486" t="n">
-        <v>2.578713049864289</v>
+        <v>2.6162709289705193</v>
       </c>
       <c r="E486" t="n">
-        <v>2.353113030858087</v>
+        <v>2.3603155739189163</v>
       </c>
       <c r="F486" t="n">
-        <v>2.2339852083985225</v>
+        <v>2.278008431893088</v>
       </c>
       <c r="G486" t="n">
-        <v>2.2272809047164914</v>
+        <v>2.561042049737505</v>
       </c>
       <c r="H486" t="n">
-        <v>2.5641486271717056</v>
+        <v>2.3748365310367396</v>
       </c>
       <c r="I486" t="n">
-        <v>2.578713049864289</v>
+        <v>2.5487441280068452</v>
       </c>
       <c r="J486" t="n">
-        <v>2.353113030858087</v>
+        <v>2.3761654824426985</v>
       </c>
       <c r="K486" t="n">
-        <v>2.2339852083985225</v>
+        <v>2.480189081472995</v>
       </c>
       <c r="L486" t="n">
-        <v>2.2272809047164914</v>
+        <v>2.589151046145694</v>
       </c>
     </row>
     <row r="487">
@@ -18726,34 +18726,34 @@
         <v>2.485624607308142</v>
       </c>
       <c r="C491" t="n">
-        <v>2.8615658271917255</v>
+        <v>2.846100507072816</v>
       </c>
       <c r="D491" t="n">
-        <v>2.8778195863647436</v>
+        <v>2.889940624995707</v>
       </c>
       <c r="E491" t="n">
-        <v>2.6260520803157577</v>
+        <v>2.6072115809360796</v>
       </c>
       <c r="F491" t="n">
-        <v>2.4931065473596346</v>
+        <v>2.516294867825894</v>
       </c>
       <c r="G491" t="n">
-        <v>2.485624607308142</v>
+        <v>2.8289346412494925</v>
       </c>
       <c r="H491" t="n">
-        <v>2.8615658271917255</v>
+        <v>2.6232514732209093</v>
       </c>
       <c r="I491" t="n">
-        <v>2.8778195863647436</v>
+        <v>2.8153503204442933</v>
       </c>
       <c r="J491" t="n">
-        <v>2.6260520803157577</v>
+        <v>2.6247194368840754</v>
       </c>
       <c r="K491" t="n">
-        <v>2.4931065473596346</v>
+        <v>2.7396242127874677</v>
       </c>
       <c r="L491" t="n">
-        <v>2.485624607308142</v>
+        <v>2.859983922020979</v>
       </c>
     </row>
     <row r="492">
@@ -18840,34 +18840,34 @@
         <v>2.319583164672895</v>
       </c>
       <c r="C494" t="n">
-        <v>2.358940775835446</v>
+        <v>2.367725456798155</v>
       </c>
       <c r="D494" t="n">
-        <v>2.2789186282006093</v>
+        <v>2.2597139711023386</v>
       </c>
       <c r="E494" t="n">
-        <v>2.2103902760489493</v>
+        <v>2.1989331360472097</v>
       </c>
       <c r="F494" t="n">
-        <v>2.068749894014481</v>
+        <v>2.0662368146811816</v>
       </c>
       <c r="G494" t="n">
-        <v>2.319583164672895</v>
+        <v>2.092653405254137</v>
       </c>
       <c r="H494" t="n">
-        <v>2.358940775835446</v>
+        <v>2.29693927644782</v>
       </c>
       <c r="I494" t="n">
-        <v>2.2789186282006093</v>
+        <v>2.2843953138943474</v>
       </c>
       <c r="J494" t="n">
-        <v>2.2103902760489493</v>
+        <v>2.1887694624771075</v>
       </c>
       <c r="K494" t="n">
-        <v>2.068749894014481</v>
+        <v>1.9950627853529714</v>
       </c>
       <c r="L494" t="n">
-        <v>2.319583164672895</v>
+        <v>2.323878688384598</v>
       </c>
     </row>
     <row r="495">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>8.063653110703552</v>
+        <v>8.224926172917623</v>
       </c>
       <c r="C496" t="n">
-        <v>8.200473436231961</v>
+        <v>8.395632187927493</v>
       </c>
       <c r="D496" t="n">
-        <v>7.922289472178306</v>
+        <v>8.012638161584611</v>
       </c>
       <c r="E496" t="n">
-        <v>7.684061816272273</v>
+        <v>7.797117593634975</v>
       </c>
       <c r="F496" t="n">
-        <v>7.191672095313703</v>
+        <v>7.326594499970755</v>
       </c>
       <c r="G496" t="n">
-        <v>8.063653110703552</v>
+        <v>7.420264134460185</v>
       </c>
       <c r="H496" t="n">
-        <v>8.200473436231961</v>
+        <v>8.144634027434101</v>
       </c>
       <c r="I496" t="n">
-        <v>7.922289472178306</v>
+        <v>8.100154843635273</v>
       </c>
       <c r="J496" t="n">
-        <v>7.684061816272273</v>
+        <v>7.76107859057922</v>
       </c>
       <c r="K496" t="n">
-        <v>7.191672095313703</v>
+        <v>7.074221079793705</v>
       </c>
       <c r="L496" t="n">
-        <v>8.063653110703552</v>
+        <v>8.240157515316055</v>
       </c>
     </row>
     <row r="497">
@@ -19255,37 +19255,37 @@
         <v>504.0</v>
       </c>
       <c r="B505" t="n">
-        <v>5.738430809560981</v>
+        <v>5.970286599846273</v>
       </c>
       <c r="C505" t="n">
-        <v>5.835797841675025</v>
+        <v>6.094198208595103</v>
       </c>
       <c r="D505" t="n">
-        <v>5.6378305670247375</v>
+        <v>5.816191566927588</v>
       </c>
       <c r="E505" t="n">
-        <v>5.468297862483408</v>
+        <v>5.65975009477702</v>
       </c>
       <c r="F505" t="n">
-        <v>5.117892865360056</v>
+        <v>5.318208096470522</v>
       </c>
       <c r="G505" t="n">
-        <v>5.738430809560981</v>
+        <v>5.386200750975572</v>
       </c>
       <c r="H505" t="n">
-        <v>5.835797841675025</v>
+        <v>5.912004359960449</v>
       </c>
       <c r="I505" t="n">
-        <v>5.6378305670247375</v>
+        <v>5.879717933380641</v>
       </c>
       <c r="J505" t="n">
-        <v>5.468297862483408</v>
+        <v>5.633590203187468</v>
       </c>
       <c r="K505" t="n">
-        <v>5.117892865360056</v>
+        <v>5.135015978150761</v>
       </c>
       <c r="L505" t="n">
-        <v>5.738430809560981</v>
+        <v>5.981342684424692</v>
       </c>
     </row>
     <row r="506">
@@ -19372,34 +19372,34 @@
         <v>0.9754677696371529</v>
       </c>
       <c r="C508" t="n">
-        <v>0.9920190542660847</v>
+        <v>0.9957133271320787</v>
       </c>
       <c r="D508" t="n">
-        <v>0.9583668761231482</v>
+        <v>0.9502906302218987</v>
       </c>
       <c r="E508" t="n">
-        <v>0.9295482504974892</v>
+        <v>0.9247301129225455</v>
       </c>
       <c r="F508" t="n">
-        <v>0.8699833986491179</v>
+        <v>0.8689265588127587</v>
       </c>
       <c r="G508" t="n">
-        <v>0.9754677696371529</v>
+        <v>0.8800356809516289</v>
       </c>
       <c r="H508" t="n">
-        <v>0.9920190542660847</v>
+        <v>0.9659452039110207</v>
       </c>
       <c r="I508" t="n">
-        <v>0.9583668761231482</v>
+        <v>0.9606700185411643</v>
       </c>
       <c r="J508" t="n">
-        <v>0.9295482504974892</v>
+        <v>0.9204559242925613</v>
       </c>
       <c r="K508" t="n">
-        <v>0.8699833986491179</v>
+        <v>0.838995331210204</v>
       </c>
       <c r="L508" t="n">
-        <v>0.9754677696371529</v>
+        <v>0.9772741911521446</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>3.631896846224845</v>
+        <v>3.7052684996839327</v>
       </c>
       <c r="C510" t="n">
-        <v>3.188636507015245</v>
+        <v>3.2399009154764475</v>
       </c>
       <c r="D510" t="n">
-        <v>3.6787168819436777</v>
+        <v>3.727861600645547</v>
       </c>
       <c r="E510" t="n">
-        <v>3.576048600425719</v>
+        <v>3.6873902467248247</v>
       </c>
       <c r="F510" t="n">
-        <v>3.272641676629314</v>
+        <v>3.4192914025008827</v>
       </c>
       <c r="G510" t="n">
-        <v>3.631896846224845</v>
+        <v>3.6696836898765026</v>
       </c>
       <c r="H510" t="n">
-        <v>3.188636507015245</v>
+        <v>3.438522513062268</v>
       </c>
       <c r="I510" t="n">
-        <v>3.6787168819436777</v>
+        <v>3.4212048277229354</v>
       </c>
       <c r="J510" t="n">
-        <v>3.576048600425719</v>
+        <v>3.7301360735073152</v>
       </c>
       <c r="K510" t="n">
-        <v>3.272641676629314</v>
+        <v>3.279878233385679</v>
       </c>
       <c r="L510" t="n">
-        <v>3.631896846224845</v>
+        <v>3.355484647713635</v>
       </c>
     </row>
     <row r="511">
@@ -19597,37 +19597,37 @@
         <v>513.0</v>
       </c>
       <c r="B514" t="n">
-        <v>0.732674604092387</v>
+        <v>0.7402279505263292</v>
       </c>
       <c r="C514" t="n">
-        <v>0.6486363106047367</v>
+        <v>0.6588842197910829</v>
       </c>
       <c r="D514" t="n">
-        <v>0.6522729230682123</v>
+        <v>0.6581609660944465</v>
       </c>
       <c r="E514" t="n">
-        <v>0.6381359454537859</v>
+        <v>0.6354898145736478</v>
       </c>
       <c r="F514" t="n">
-        <v>0.6591015200572844</v>
+        <v>0.6665754753360215</v>
       </c>
       <c r="G514" t="n">
-        <v>0.732674604092387</v>
+        <v>0.731200780256603</v>
       </c>
       <c r="H514" t="n">
-        <v>0.6486363106047367</v>
+        <v>0.7004288893290443</v>
       </c>
       <c r="I514" t="n">
-        <v>0.6522729230682123</v>
+        <v>0.7316469063496182</v>
       </c>
       <c r="J514" t="n">
-        <v>0.6381359454537859</v>
+        <v>0.6706763311707674</v>
       </c>
       <c r="K514" t="n">
-        <v>0.6591015200572844</v>
+        <v>0.7197894838338341</v>
       </c>
       <c r="L514" t="n">
-        <v>0.732674604092387</v>
+        <v>0.6710516396358364</v>
       </c>
     </row>
     <row r="515">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>1.148271936689385</v>
+        <v>1.0908583398549159</v>
       </c>
       <c r="C517" t="n">
-        <v>1.0165643362346446</v>
+        <v>0.9709837971490336</v>
       </c>
       <c r="D517" t="n">
-        <v>1.0222637558857415</v>
+        <v>0.969917953409621</v>
       </c>
       <c r="E517" t="n">
-        <v>1.0001078157540908</v>
+        <v>0.9365079549179496</v>
       </c>
       <c r="F517" t="n">
-        <v>1.0329657595388182</v>
+        <v>0.9823182384507785</v>
       </c>
       <c r="G517" t="n">
-        <v>1.148271936689385</v>
+        <v>1.0775551891605664</v>
       </c>
       <c r="H517" t="n">
-        <v>1.0165643362346446</v>
+        <v>1.0322073016246185</v>
       </c>
       <c r="I517" t="n">
-        <v>1.0222637558857415</v>
+        <v>1.0782126357874418</v>
       </c>
       <c r="J517" t="n">
-        <v>1.0001078157540908</v>
+        <v>0.9883615833213614</v>
       </c>
       <c r="K517" t="n">
-        <v>1.0329657595388182</v>
+        <v>1.0607386019694411</v>
       </c>
       <c r="L517" t="n">
-        <v>1.148271936689385</v>
+        <v>0.988914667501508</v>
       </c>
     </row>
     <row r="518">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>1.1849033836276364</v>
+        <v>1.17305434979136</v>
       </c>
       <c r="C518" t="n">
-        <v>1.3041420205397367</v>
+        <v>1.2923112615762904</v>
       </c>
       <c r="D518" t="n">
-        <v>1.281251392885596</v>
+        <v>1.2796956536494817</v>
       </c>
       <c r="E518" t="n">
-        <v>1.2859218113380364</v>
+        <v>1.2796956536494817</v>
       </c>
       <c r="F518" t="n">
-        <v>1.197947595189756</v>
+        <v>1.179651955914913</v>
       </c>
       <c r="G518" t="n">
-        <v>1.1849033836276364</v>
+        <v>1.294704430207424</v>
       </c>
       <c r="H518" t="n">
-        <v>1.3041420205397367</v>
+        <v>1.272707025554774</v>
       </c>
       <c r="I518" t="n">
-        <v>1.281251392885596</v>
+        <v>1.3191328160775888</v>
       </c>
       <c r="J518" t="n">
-        <v>1.2859218113380364</v>
+        <v>1.2711643492918183</v>
       </c>
       <c r="K518" t="n">
-        <v>1.197947595189756</v>
+        <v>1.152429218257322</v>
       </c>
       <c r="L518" t="n">
-        <v>1.1849033836276364</v>
+        <v>1.265030867253694</v>
       </c>
     </row>
     <row r="519">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>2.322797544747669</v>
+        <v>2.3460255201951457</v>
       </c>
       <c r="C521" t="n">
-        <v>2.0563710292282584</v>
+        <v>2.0882205182669153</v>
       </c>
       <c r="D521" t="n">
-        <v>2.0679001779856714</v>
+        <v>2.0859282897328835</v>
       </c>
       <c r="E521" t="n">
-        <v>2.0230817323762182</v>
+        <v>2.0140759636998196</v>
       </c>
       <c r="F521" t="n">
-        <v>2.089548872005764</v>
+        <v>2.1125966334594564</v>
       </c>
       <c r="G521" t="n">
-        <v>2.322797544747669</v>
+        <v>2.3174154524276878</v>
       </c>
       <c r="H521" t="n">
-        <v>2.0563710292282584</v>
+        <v>2.2198892223395332</v>
       </c>
       <c r="I521" t="n">
-        <v>2.0679001779856714</v>
+        <v>2.3188293725568783</v>
       </c>
       <c r="J521" t="n">
-        <v>2.0230817323762182</v>
+        <v>2.1255935926206373</v>
       </c>
       <c r="K521" t="n">
-        <v>2.089548872005764</v>
+        <v>2.2812493057599053</v>
       </c>
       <c r="L521" t="n">
-        <v>2.322797544747669</v>
+        <v>2.1267830684251794</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>1.1448746896265662</v>
+        <v>1.1564390804308748</v>
       </c>
       <c r="C522" t="n">
-        <v>1.0135567558043534</v>
+        <v>1.0293578629445608</v>
       </c>
       <c r="D522" t="n">
-        <v>1.0192393133028097</v>
+        <v>1.0282279423042207</v>
       </c>
       <c r="E522" t="n">
-        <v>0.997148923151204</v>
+        <v>0.9928093856307263</v>
       </c>
       <c r="F522" t="n">
-        <v>1.0299096542901753</v>
+        <v>1.0413737135800623</v>
       </c>
       <c r="G522" t="n">
-        <v>1.1448746896265662</v>
+        <v>1.1423361645950267</v>
       </c>
       <c r="H522" t="n">
-        <v>1.0135567558043534</v>
+        <v>1.0942620311850653</v>
       </c>
       <c r="I522" t="n">
-        <v>1.0192393133028097</v>
+        <v>1.1430331359109518</v>
       </c>
       <c r="J522" t="n">
-        <v>0.997148923151204</v>
+        <v>1.047780375132279</v>
       </c>
       <c r="K522" t="n">
-        <v>1.0299096542901753</v>
+        <v>1.124508589815815</v>
       </c>
       <c r="L522" t="n">
-        <v>1.1448746896265662</v>
+        <v>1.0483667098902594</v>
       </c>
     </row>
     <row r="523">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>9.0605592427017</v>
+        <v>9.422981612409767</v>
       </c>
       <c r="C523" t="n">
-        <v>8.694212560251994</v>
+        <v>9.080327730261773</v>
       </c>
       <c r="D523" t="n">
-        <v>8.969593187723396</v>
+        <v>9.248481950154474</v>
       </c>
       <c r="E523" t="n">
-        <v>8.465511278482644</v>
+        <v>8.710779511834266</v>
       </c>
       <c r="F523" t="n">
-        <v>8.6265578402057</v>
+        <v>9.141269527109166</v>
       </c>
       <c r="G523" t="n">
-        <v>9.0605592427017</v>
+        <v>8.232165253482545</v>
       </c>
       <c r="H523" t="n">
-        <v>8.694212560251994</v>
+        <v>8.384186212342774</v>
       </c>
       <c r="I523" t="n">
-        <v>8.969593187723396</v>
+        <v>8.037843756001614</v>
       </c>
       <c r="J523" t="n">
-        <v>8.465511278482644</v>
+        <v>8.223128849555932</v>
       </c>
       <c r="K523" t="n">
-        <v>8.6265578402057</v>
+        <v>9.135695583142567</v>
       </c>
       <c r="L523" t="n">
-        <v>9.0605592427017</v>
+        <v>8.751228504301121</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>1.9237409097479519</v>
+        <v>1.9429783188454313</v>
       </c>
       <c r="C524" t="n">
-        <v>2.12984080595541</v>
+        <v>2.1432729970774655</v>
       </c>
       <c r="D524" t="n">
-        <v>2.0257779467279335</v>
+        <v>2.0280378818504294</v>
       </c>
       <c r="E524" t="n">
-        <v>2.1075914602728436</v>
+        <v>2.084094991528574</v>
       </c>
       <c r="F524" t="n">
-        <v>2.1126241663678313</v>
+        <v>2.0941509390061737</v>
       </c>
       <c r="G524" t="n">
-        <v>1.9237409097479519</v>
+        <v>2.1393113100816623</v>
       </c>
       <c r="H524" t="n">
-        <v>2.12984080595541</v>
+        <v>2.1184272448229113</v>
       </c>
       <c r="I524" t="n">
-        <v>2.0257779467279335</v>
+        <v>2.1171355210940637</v>
       </c>
       <c r="J524" t="n">
-        <v>2.1075914602728436</v>
+        <v>1.8627158024218484</v>
       </c>
       <c r="K524" t="n">
-        <v>2.1126241663678313</v>
+        <v>1.9528134175434846</v>
       </c>
       <c r="L524" t="n">
-        <v>1.9237409097479519</v>
+        <v>1.9300179299983826</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>2.6371757313779733</v>
       </c>
       <c r="C531" t="n">
-        <v>2.530546487603048</v>
+        <v>2.5412784305625844</v>
       </c>
       <c r="D531" t="n">
-        <v>2.6106990574617126</v>
+        <v>2.58833914298569</v>
       </c>
       <c r="E531" t="n">
-        <v>2.463980456317177</v>
+        <v>2.4378543092709206</v>
       </c>
       <c r="F531" t="n">
-        <v>2.5108548349092064</v>
+        <v>2.558333990499246</v>
       </c>
       <c r="G531" t="n">
-        <v>2.6371757313779733</v>
+        <v>2.3039062704511943</v>
       </c>
       <c r="H531" t="n">
-        <v>2.530546487603048</v>
+        <v>2.3464518255480042</v>
       </c>
       <c r="I531" t="n">
-        <v>2.6106990574617126</v>
+        <v>2.249522216834148</v>
       </c>
       <c r="J531" t="n">
-        <v>2.463980456317177</v>
+        <v>2.3013772848164558</v>
       </c>
       <c r="K531" t="n">
-        <v>2.5108548349092064</v>
+        <v>2.556774030991587</v>
       </c>
       <c r="L531" t="n">
-        <v>2.6371757313779733</v>
+        <v>2.4491746222758612</v>
       </c>
     </row>
     <row r="532">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>3.4789844818322004</v>
+        <v>3.5492669966166894</v>
       </c>
       <c r="C532" t="n">
-        <v>3.338318283524424</v>
+        <v>3.420202740185497</v>
       </c>
       <c r="D532" t="n">
-        <v>3.4440562301464195</v>
+        <v>3.483539828970749</v>
       </c>
       <c r="E532" t="n">
-        <v>3.250503813254104</v>
+        <v>3.281008443807387</v>
       </c>
       <c r="F532" t="n">
-        <v>3.3123408890988704</v>
+        <v>3.4431571209921112</v>
       </c>
       <c r="G532" t="n">
-        <v>3.4789844818322004</v>
+        <v>3.1007332547907</v>
       </c>
       <c r="H532" t="n">
-        <v>3.338318283524424</v>
+        <v>3.1579935779315247</v>
       </c>
       <c r="I532" t="n">
-        <v>3.4440562301464195</v>
+        <v>3.0275399805054266</v>
       </c>
       <c r="J532" t="n">
-        <v>3.250503813254104</v>
+        <v>3.0973295964218264</v>
       </c>
       <c r="K532" t="n">
-        <v>3.3123408890988704</v>
+        <v>3.441057635269292</v>
       </c>
       <c r="L532" t="n">
-        <v>3.4789844818322004</v>
+        <v>3.29624399025268</v>
       </c>
     </row>
     <row r="533">
@@ -20357,37 +20357,37 @@
         <v>533.0</v>
       </c>
       <c r="B534" t="n">
-        <v>1.5940304343096043</v>
+        <v>1.610296050986233</v>
       </c>
       <c r="C534" t="n">
-        <v>1.529578809890993</v>
+        <v>1.5517398300389957</v>
       </c>
       <c r="D534" t="n">
-        <v>1.578026713541342</v>
+        <v>1.5804757532730265</v>
       </c>
       <c r="E534" t="n">
-        <v>1.4893432357127645</v>
+        <v>1.4885876281924904</v>
       </c>
       <c r="F534" t="n">
-        <v>1.517676268349161</v>
+        <v>1.5621541913144252</v>
       </c>
       <c r="G534" t="n">
-        <v>1.5940304343096043</v>
+        <v>1.406797099263252</v>
       </c>
       <c r="H534" t="n">
-        <v>1.529578809890993</v>
+        <v>1.4327760048569311</v>
       </c>
       <c r="I534" t="n">
-        <v>1.578026713541342</v>
+        <v>1.3735894423998263</v>
       </c>
       <c r="J534" t="n">
-        <v>1.4893432357127645</v>
+        <v>1.4052528655847127</v>
       </c>
       <c r="K534" t="n">
-        <v>1.517676268349161</v>
+        <v>1.5612016584191035</v>
       </c>
       <c r="L534" t="n">
-        <v>1.5940304343096043</v>
+        <v>1.4954999682049095</v>
       </c>
     </row>
     <row r="535">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>5.490370227298441</v>
+        <v>5.60017763184441</v>
       </c>
       <c r="C537" t="n">
-        <v>6.042874567392028</v>
+        <v>6.169511772193146</v>
       </c>
       <c r="D537" t="n">
-        <v>5.936808518216187</v>
+        <v>6.109284686094024</v>
       </c>
       <c r="E537" t="n">
-        <v>5.958449376681624</v>
+        <v>6.109284686094024</v>
       </c>
       <c r="F537" t="n">
-        <v>5.550811907007367</v>
+        <v>5.631674694400303</v>
       </c>
       <c r="G537" t="n">
-        <v>5.490370227298441</v>
+        <v>6.180936792218595</v>
       </c>
       <c r="H537" t="n">
-        <v>6.042874567392028</v>
+        <v>6.07592087925914</v>
       </c>
       <c r="I537" t="n">
-        <v>5.936808518216187</v>
+        <v>6.297558243011982</v>
       </c>
       <c r="J537" t="n">
-        <v>5.958449376681624</v>
+        <v>6.068556121520063</v>
       </c>
       <c r="K537" t="n">
-        <v>5.550811907007367</v>
+        <v>5.501712969664594</v>
       </c>
       <c r="L537" t="n">
-        <v>5.490370227298441</v>
+        <v>6.0392747937441325</v>
       </c>
     </row>
     <row r="538">
@@ -20854,34 +20854,34 @@
         <v>0.5750189952263522</v>
       </c>
       <c r="C547" t="n">
-        <v>0.5686233167045787</v>
+        <v>0.5718030052684309</v>
       </c>
       <c r="D547" t="n">
-        <v>0.6177698028935873</v>
+        <v>0.6196265290218054</v>
       </c>
       <c r="E547" t="n">
-        <v>0.5577190792646518</v>
+        <v>0.5617493260017223</v>
       </c>
       <c r="F547" t="n">
-        <v>0.6210111777110717</v>
+        <v>0.6203785034921027</v>
       </c>
       <c r="G547" t="n">
-        <v>0.5750189952263522</v>
+        <v>0.6237850963306766</v>
       </c>
       <c r="H547" t="n">
-        <v>0.5686233167045787</v>
+        <v>0.643008662570094</v>
       </c>
       <c r="I547" t="n">
-        <v>0.6177698028935873</v>
+        <v>0.6311010945559594</v>
       </c>
       <c r="J547" t="n">
-        <v>0.5577190792646518</v>
+        <v>0.5418038014795654</v>
       </c>
       <c r="K547" t="n">
-        <v>0.6210111777110717</v>
+        <v>0.629934549275564</v>
       </c>
       <c r="L547" t="n">
-        <v>0.5750189952263522</v>
+        <v>0.6237850963306766</v>
       </c>
     </row>
     <row r="548">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>7.403607741114071</v>
+        <v>7.330304694172347</v>
       </c>
       <c r="C549" t="n">
-        <v>7.419237172624652</v>
+        <v>7.370556513561911</v>
       </c>
       <c r="D549" t="n">
-        <v>7.3343820355398766</v>
+        <v>7.286092964294381</v>
       </c>
       <c r="E549" t="n">
-        <v>6.53956166281481</v>
+        <v>6.480870241830157</v>
       </c>
       <c r="F549" t="n">
-        <v>7.48383618351681</v>
+        <v>7.44321758020874</v>
       </c>
       <c r="G549" t="n">
-        <v>7.403607741114071</v>
+        <v>7.056068532139999</v>
       </c>
       <c r="H549" t="n">
-        <v>7.419237172624652</v>
+        <v>6.630264617426758</v>
       </c>
       <c r="I549" t="n">
-        <v>7.3343820355398766</v>
+        <v>6.7150317576424525</v>
       </c>
       <c r="J549" t="n">
-        <v>6.53956166281481</v>
+        <v>7.251105721110933</v>
       </c>
       <c r="K549" t="n">
-        <v>7.48383618351681</v>
+        <v>6.75634347429382</v>
       </c>
       <c r="L549" t="n">
-        <v>7.403607741114071</v>
+        <v>7.370556513561911</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>2.319992356326204</v>
+        <v>2.3434266225517217</v>
       </c>
       <c r="C550" t="n">
-        <v>2.2230852113489745</v>
+        <v>2.2434369532803977</v>
       </c>
       <c r="D550" t="n">
-        <v>2.0980675938176403</v>
+        <v>2.1103715582442706</v>
       </c>
       <c r="E550" t="n">
-        <v>2.4150195813628663</v>
+        <v>2.41564543183529</v>
       </c>
       <c r="F550" t="n">
-        <v>2.3868471802438336</v>
+        <v>2.370911256462533</v>
       </c>
       <c r="G550" t="n">
-        <v>2.319992356326204</v>
+        <v>2.3434266225517217</v>
       </c>
       <c r="H550" t="n">
-        <v>2.2230852113489745</v>
+        <v>2.0605559205825137</v>
       </c>
       <c r="I550" t="n">
-        <v>2.0980675938176403</v>
+        <v>2.108055014631706</v>
       </c>
       <c r="J550" t="n">
-        <v>2.4150195813628663</v>
+        <v>2.3419977041016966</v>
       </c>
       <c r="K550" t="n">
-        <v>2.3868471802438336</v>
+        <v>2.1350062458899597</v>
       </c>
       <c r="L550" t="n">
-        <v>2.319992356326204</v>
+        <v>2.1602228552957286</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>2.1550311675172793</v>
+        <v>2.1334808558421066</v>
       </c>
       <c r="C552" t="n">
-        <v>2.065014527069486</v>
+        <v>2.0424491831968306</v>
       </c>
       <c r="D552" t="n">
-        <v>1.94888618658848</v>
+        <v>1.9213050133079015</v>
       </c>
       <c r="E552" t="n">
-        <v>2.243301558218468</v>
+        <v>2.1992296382257566</v>
       </c>
       <c r="F552" t="n">
-        <v>2.217132333001082</v>
+        <v>2.158503162798189</v>
       </c>
       <c r="G552" t="n">
-        <v>2.1550311675172793</v>
+        <v>2.1334808558421066</v>
       </c>
       <c r="H552" t="n">
-        <v>2.065014527069486</v>
+        <v>1.875952319841785</v>
       </c>
       <c r="I552" t="n">
-        <v>1.94888618658848</v>
+        <v>1.9191960070341108</v>
       </c>
       <c r="J552" t="n">
-        <v>2.243301558218468</v>
+        <v>2.132179953083577</v>
       </c>
       <c r="K552" t="n">
-        <v>2.217132333001082</v>
+        <v>1.9437326984660135</v>
       </c>
       <c r="L552" t="n">
-        <v>2.1550311675172793</v>
+        <v>1.9666901714667575</v>
       </c>
     </row>
     <row r="553">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>2.02048051105347</v>
+        <v>2.0002757059429355</v>
       </c>
       <c r="C554" t="n">
-        <v>2.1141291822288046</v>
+        <v>2.0970269497219856</v>
       </c>
       <c r="D554" t="n">
-        <v>2.1749504276774916</v>
+        <v>2.167740648645677</v>
       </c>
       <c r="E554" t="n">
-        <v>2.115625858576026</v>
+        <v>2.0864655377418604</v>
       </c>
       <c r="F554" t="n">
-        <v>2.3133445849293204</v>
+        <v>2.2597054026187924</v>
       </c>
       <c r="G554" t="n">
-        <v>2.02048051105347</v>
+        <v>2.262447765467338</v>
       </c>
       <c r="H554" t="n">
-        <v>2.1141291822288046</v>
+        <v>1.9758950271150975</v>
       </c>
       <c r="I554" t="n">
-        <v>2.1749504276774916</v>
+        <v>2.2748712106900597</v>
       </c>
       <c r="J554" t="n">
-        <v>2.115625858576026</v>
+        <v>2.297297545573832</v>
       </c>
       <c r="K554" t="n">
-        <v>2.3133445849293204</v>
+        <v>2.2488021213034095</v>
       </c>
       <c r="L554" t="n">
-        <v>2.02048051105347</v>
+        <v>2.0486340197336617</v>
       </c>
     </row>
     <row r="555">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>0.5460019054310185</v>
+        <v>0.5516894252792582</v>
       </c>
       <c r="C557" t="n">
-        <v>0.5225179428763556</v>
+        <v>0.5250249475655502</v>
       </c>
       <c r="D557" t="n">
-        <v>0.526895765706018</v>
+        <v>0.5285505767159782</v>
       </c>
       <c r="E557" t="n">
-        <v>0.5354742723136526</v>
+        <v>0.53122602967317</v>
       </c>
       <c r="F557" t="n">
-        <v>0.5565877372299625</v>
+        <v>0.5491394654197714</v>
       </c>
       <c r="G557" t="n">
-        <v>0.5460019054310185</v>
+        <v>0.5940376608395421</v>
       </c>
       <c r="H557" t="n">
-        <v>0.5225179428763556</v>
+        <v>0.5189669673538434</v>
       </c>
       <c r="I557" t="n">
-        <v>0.526895765706018</v>
+        <v>0.5005404772907049</v>
       </c>
       <c r="J557" t="n">
-        <v>0.5354742723136526</v>
+        <v>0.573130995742085</v>
       </c>
       <c r="K557" t="n">
-        <v>0.5565877372299625</v>
+        <v>0.5830369632422011</v>
       </c>
       <c r="L557" t="n">
-        <v>0.5460019054310185</v>
+        <v>0.5724362910182622</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>3.912625451656546</v>
+        <v>4.149754266908458</v>
       </c>
       <c r="C558" t="n">
-        <v>3.7443404169649743</v>
+        <v>3.949186655681661</v>
       </c>
       <c r="D558" t="n">
-        <v>3.7757117013062973</v>
+        <v>3.975706095678394</v>
       </c>
       <c r="E558" t="n">
-        <v>3.8371848993965836</v>
+        <v>3.9958305929340727</v>
       </c>
       <c r="F558" t="n">
-        <v>3.9884830530889217</v>
+        <v>4.13057371654356</v>
       </c>
       <c r="G558" t="n">
-        <v>3.912625451656546</v>
+        <v>4.468293581167342</v>
       </c>
       <c r="H558" t="n">
-        <v>3.7443404169649743</v>
+        <v>3.903619116989666</v>
       </c>
       <c r="I558" t="n">
-        <v>3.7757117013062973</v>
+        <v>3.7650168486482896</v>
       </c>
       <c r="J558" t="n">
-        <v>3.8371848993965836</v>
+        <v>4.3110356771372205</v>
       </c>
       <c r="K558" t="n">
-        <v>3.9884830530889217</v>
+        <v>4.385547402426598</v>
       </c>
       <c r="L558" t="n">
-        <v>3.912625451656546</v>
+        <v>4.305810175686895</v>
       </c>
     </row>
     <row r="559">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>3.1157191066321666</v>
+        <v>3.0848704026061053</v>
       </c>
       <c r="C562" t="n">
-        <v>3.2459374662987326</v>
+        <v>3.200227439412946</v>
       </c>
       <c r="D562" t="n">
-        <v>2.987850813919744</v>
+        <v>2.949403609403147</v>
       </c>
       <c r="E562" t="n">
-        <v>2.9135060507446964</v>
+        <v>2.9121718406886634</v>
       </c>
       <c r="F562" t="n">
-        <v>3.224179390615993</v>
+        <v>3.2353518847960525</v>
       </c>
       <c r="G562" t="n">
-        <v>3.1157191066321666</v>
+        <v>2.811858554948498</v>
       </c>
       <c r="H562" t="n">
-        <v>3.2459374662987326</v>
+        <v>3.1848601999042296</v>
       </c>
       <c r="I562" t="n">
-        <v>2.987850813919744</v>
+        <v>2.984239085384287</v>
       </c>
       <c r="J562" t="n">
-        <v>2.9135060507446964</v>
+        <v>3.0991951710733496</v>
       </c>
       <c r="K562" t="n">
-        <v>3.224179390615993</v>
+        <v>2.9692093412829466</v>
       </c>
       <c r="L562" t="n">
-        <v>3.1157191066321666</v>
+        <v>2.9675487099179</v>
       </c>
     </row>
     <row r="563">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>2.213169694522847</v>
+        <v>2.2359858769406085</v>
       </c>
       <c r="C568" t="n">
-        <v>1.9809883053571873</v>
+        <v>2.0114055183847728</v>
       </c>
       <c r="D568" t="n">
-        <v>2.0141299867239386</v>
+        <v>2.049653721599394</v>
       </c>
       <c r="E568" t="n">
-        <v>2.2033676808313776</v>
+        <v>2.234622471130156</v>
       </c>
       <c r="F568" t="n">
-        <v>2.175482159844012</v>
+        <v>2.199748411775217</v>
       </c>
       <c r="G568" t="n">
-        <v>2.213169694522847</v>
+        <v>1.9660841490534726</v>
       </c>
       <c r="H568" t="n">
-        <v>1.9809883053571873</v>
+        <v>2.2103623975017133</v>
       </c>
       <c r="I568" t="n">
-        <v>2.0141299867239386</v>
+        <v>2.130686542809387</v>
       </c>
       <c r="J568" t="n">
-        <v>2.2033676808313776</v>
+        <v>2.013615853776188</v>
       </c>
       <c r="K568" t="n">
-        <v>2.175482159844012</v>
+        <v>2.221079304427671</v>
       </c>
       <c r="L568" t="n">
-        <v>2.213169694522847</v>
+        <v>2.2237747909105887</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>0.8710136068514728</v>
+        <v>0.8799931285715911</v>
       </c>
       <c r="C576" t="n">
-        <v>0.8613257129492555</v>
+        <v>0.8750714666995133</v>
       </c>
       <c r="D576" t="n">
-        <v>0.9357706592117938</v>
+        <v>0.9482592616009383</v>
       </c>
       <c r="E576" t="n">
-        <v>0.8448084513259646</v>
+        <v>0.8596855946761316</v>
       </c>
       <c r="F576" t="n">
-        <v>0.940680551918596</v>
+        <v>0.9494100624826769</v>
       </c>
       <c r="G576" t="n">
-        <v>0.8710136068514728</v>
+        <v>0.9546234177190656</v>
       </c>
       <c r="H576" t="n">
-        <v>0.8613257129492555</v>
+        <v>0.9840426305411899</v>
       </c>
       <c r="I576" t="n">
-        <v>0.9357706592117938</v>
+        <v>0.9658196185756244</v>
       </c>
       <c r="J576" t="n">
-        <v>0.8448084513259646</v>
+        <v>0.8291615169135438</v>
       </c>
       <c r="K576" t="n">
-        <v>0.940680551918596</v>
+        <v>0.9640343700195979</v>
       </c>
       <c r="L576" t="n">
-        <v>0.8710136068514728</v>
+        <v>0.9546234177190656</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>5.592660717615443</v>
+        <v>5.8186268072160665</v>
       </c>
       <c r="C577" t="n">
-        <v>5.5304560594595165</v>
+        <v>5.78608415117123</v>
       </c>
       <c r="D577" t="n">
-        <v>6.008457003775976</v>
+        <v>6.270011185994455</v>
       </c>
       <c r="E577" t="n">
-        <v>5.424400953641968</v>
+        <v>5.6843508029200205</v>
       </c>
       <c r="F577" t="n">
-        <v>6.03998276164364</v>
+        <v>6.277620428206517</v>
       </c>
       <c r="G577" t="n">
-        <v>5.592660717615443</v>
+        <v>6.312091797980996</v>
       </c>
       <c r="H577" t="n">
-        <v>5.5304560594595165</v>
+        <v>6.506615385513851</v>
       </c>
       <c r="I577" t="n">
-        <v>6.008457003775976</v>
+        <v>6.386122506094245</v>
       </c>
       <c r="J577" t="n">
-        <v>5.424400953641968</v>
+        <v>5.482521707477837</v>
       </c>
       <c r="K577" t="n">
-        <v>6.03998276164364</v>
+        <v>6.374318214937448</v>
       </c>
       <c r="L577" t="n">
-        <v>5.592660717615443</v>
+        <v>6.312091797980996</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>3.3114637073073974</v>
+        <v>3.2783490702343236</v>
       </c>
       <c r="C578" t="n">
-        <v>3.1026574398762157</v>
+        <v>3.056367963535331</v>
       </c>
       <c r="D578" t="n">
-        <v>3.3433836882733305</v>
+        <v>3.3141562822217967</v>
       </c>
       <c r="E578" t="n">
-        <v>3.37546415046418</v>
+        <v>3.3101391202782766</v>
       </c>
       <c r="F578" t="n">
-        <v>3.3619259956663035</v>
+        <v>3.332354819072091</v>
       </c>
       <c r="G578" t="n">
-        <v>3.3114637073073974</v>
+        <v>3.071838893029181</v>
       </c>
       <c r="H578" t="n">
-        <v>3.1026574398762157</v>
+        <v>3.371437993847752</v>
       </c>
       <c r="I578" t="n">
-        <v>3.3433836882733305</v>
+        <v>3.365206131609204</v>
       </c>
       <c r="J578" t="n">
-        <v>3.37546415046418</v>
+        <v>3.2941674020270293</v>
       </c>
       <c r="K578" t="n">
-        <v>3.3619259956663035</v>
+        <v>3.435050032494945</v>
       </c>
       <c r="L578" t="n">
-        <v>3.3114637073073974</v>
+        <v>3.1754241572302675</v>
       </c>
     </row>
     <row r="579">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>4.606600517670086</v>
+        <v>4.698732528023488</v>
       </c>
       <c r="C584" t="n">
-        <v>4.123326727065212</v>
+        <v>4.226796167966813</v>
       </c>
       <c r="D584" t="n">
-        <v>4.192309456640067</v>
+        <v>4.307171486271101</v>
       </c>
       <c r="E584" t="n">
-        <v>4.58619812310582</v>
+        <v>4.69586744765937</v>
       </c>
       <c r="F584" t="n">
-        <v>4.528155824888107</v>
+        <v>4.62258260325799</v>
       </c>
       <c r="G584" t="n">
-        <v>4.606600517670086</v>
+        <v>4.131557197771294</v>
       </c>
       <c r="H584" t="n">
-        <v>4.123326727065212</v>
+        <v>4.6448869838443745</v>
       </c>
       <c r="I584" t="n">
-        <v>4.192309456640067</v>
+        <v>4.477455009429069</v>
       </c>
       <c r="J584" t="n">
-        <v>4.58619812310582</v>
+        <v>4.231440998199683</v>
       </c>
       <c r="K584" t="n">
-        <v>4.528155824888107</v>
+        <v>4.667407644503331</v>
       </c>
       <c r="L584" t="n">
-        <v>4.606600517670086</v>
+        <v>4.673071978141012</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>9.191587480951933</v>
+        <v>9.375419230570971</v>
       </c>
       <c r="C585" t="n">
-        <v>8.069786296285457</v>
+        <v>8.197902351933058</v>
       </c>
       <c r="D585" t="n">
-        <v>9.31007940745537</v>
+        <v>9.432586421896463</v>
       </c>
       <c r="E585" t="n">
-        <v>9.05024700277895</v>
+        <v>9.3301819915919</v>
       </c>
       <c r="F585" t="n">
-        <v>8.28238618500821</v>
+        <v>8.651813052864407</v>
       </c>
       <c r="G585" t="n">
-        <v>9.191587480951933</v>
+        <v>9.285379194278528</v>
       </c>
       <c r="H585" t="n">
-        <v>8.069786296285457</v>
+        <v>8.700473419528207</v>
       </c>
       <c r="I585" t="n">
-        <v>9.31007940745537</v>
+        <v>8.656654581521405</v>
       </c>
       <c r="J585" t="n">
-        <v>9.05024700277895</v>
+        <v>9.438341507286214</v>
       </c>
       <c r="K585" t="n">
-        <v>8.28238618500821</v>
+        <v>8.299056725804972</v>
       </c>
       <c r="L585" t="n">
-        <v>9.191587480951933</v>
+        <v>8.490363194123072</v>
       </c>
     </row>
     <row r="586">
@@ -22333,37 +22333,37 @@
         <v>585.0</v>
       </c>
       <c r="B586" t="n">
-        <v>5.6449484560349426</v>
+        <v>5.589605824113031</v>
       </c>
       <c r="C586" t="n">
-        <v>5.052742635787928</v>
+        <v>5.028190972118224</v>
       </c>
       <c r="D586" t="n">
-        <v>5.1372743748247665</v>
+        <v>5.1238053414463645</v>
       </c>
       <c r="E586" t="n">
-        <v>5.619947272352269</v>
+        <v>5.586197528408962</v>
       </c>
       <c r="F586" t="n">
-        <v>5.5488219858308945</v>
+        <v>5.499017977191247</v>
       </c>
       <c r="G586" t="n">
-        <v>5.6449484560349426</v>
+        <v>4.914894822717838</v>
       </c>
       <c r="H586" t="n">
-        <v>5.052742635787928</v>
+        <v>5.525551237998355</v>
       </c>
       <c r="I586" t="n">
-        <v>5.1372743748247665</v>
+        <v>5.326374388975155</v>
       </c>
       <c r="J586" t="n">
-        <v>5.619947272352269</v>
+        <v>5.033716455845339</v>
       </c>
       <c r="K586" t="n">
-        <v>5.5488219858308945</v>
+        <v>5.55234178528561</v>
       </c>
       <c r="L586" t="n">
-        <v>5.6449484560349426</v>
+        <v>5.5590800688763595</v>
       </c>
     </row>
     <row r="587">
@@ -22713,37 +22713,37 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>0.5262988518031362</v>
+        <v>0.5317811315094189</v>
       </c>
       <c r="C596" t="n">
-        <v>0.5784382903587362</v>
+        <v>0.5833379604753869</v>
       </c>
       <c r="D596" t="n">
-        <v>0.5059463676307365</v>
+        <v>0.5069815874733894</v>
       </c>
       <c r="E596" t="n">
-        <v>0.5199197412985346</v>
+        <v>0.5350527156535233</v>
       </c>
       <c r="F596" t="n">
-        <v>0.5500827413399997</v>
+        <v>0.5587887359965047</v>
       </c>
       <c r="G596" t="n">
-        <v>0.5262988518031362</v>
+        <v>0.5250681973989559</v>
       </c>
       <c r="H596" t="n">
-        <v>0.5784382903587362</v>
+        <v>0.5562059624622773</v>
       </c>
       <c r="I596" t="n">
-        <v>0.5059463676307365</v>
+        <v>0.5798025788417231</v>
       </c>
       <c r="J596" t="n">
-        <v>0.5199197412985346</v>
+        <v>0.6016819217929064</v>
       </c>
       <c r="K596" t="n">
-        <v>0.5500827413399997</v>
+        <v>0.5836938713171711</v>
       </c>
       <c r="L596" t="n">
-        <v>0.5262988518031362</v>
+        <v>0.5894480934314829</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>0.5558868376452938</v>
+        <v>0.5615591523151436</v>
       </c>
       <c r="C598" t="n">
-        <v>0.4921262255713609</v>
+        <v>0.4998493554270951</v>
       </c>
       <c r="D598" t="n">
-        <v>0.4948853562833733</v>
+        <v>0.4993006734535177</v>
       </c>
       <c r="E598" t="n">
-        <v>0.4841595037206512</v>
+        <v>0.4821016570951439</v>
       </c>
       <c r="F598" t="n">
-        <v>0.5000662744762616</v>
+        <v>0.5056841728518948</v>
       </c>
       <c r="G598" t="n">
-        <v>0.5558868376452938</v>
+        <v>0.5547108698625998</v>
       </c>
       <c r="H598" t="n">
-        <v>0.4921262255713609</v>
+        <v>0.5313663893250479</v>
       </c>
       <c r="I598" t="n">
-        <v>0.4948853562833733</v>
+        <v>0.555049314513928</v>
       </c>
       <c r="J598" t="n">
-        <v>0.4841595037206512</v>
+        <v>0.5087952052368367</v>
       </c>
       <c r="K598" t="n">
-        <v>0.5000662744762616</v>
+        <v>0.5460539177150479</v>
       </c>
       <c r="L598" t="n">
-        <v>0.5558868376452938</v>
+        <v>0.5090799255089514</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>2.4839461323090797</v>
+        <v>2.410165554121681</v>
       </c>
       <c r="C606" t="n">
-        <v>2.859633489265479</v>
+        <v>2.75969805961322</v>
       </c>
       <c r="D606" t="n">
-        <v>2.875876272714998</v>
+        <v>2.802207271099025</v>
       </c>
       <c r="E606" t="n">
-        <v>2.624278778446245</v>
+        <v>2.528061367836414</v>
       </c>
       <c r="F606" t="n">
-        <v>2.4914230200090284</v>
+        <v>2.4399047211779155</v>
       </c>
       <c r="G606" t="n">
-        <v>2.4839461323090797</v>
+        <v>2.7430533183307237</v>
       </c>
       <c r="H606" t="n">
-        <v>2.859633489265479</v>
+        <v>2.5436143180940896</v>
       </c>
       <c r="I606" t="n">
-        <v>2.875876272714998</v>
+        <v>2.7298813928579206</v>
       </c>
       <c r="J606" t="n">
-        <v>2.624278778446245</v>
+        <v>2.5450377170439</v>
       </c>
       <c r="K606" t="n">
-        <v>2.4914230200090284</v>
+        <v>2.6564541924328946</v>
       </c>
       <c r="L606" t="n">
-        <v>2.4839461323090797</v>
+        <v>2.77315999927348</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>4.639321490076803</v>
+        <v>4.779906989776101</v>
       </c>
       <c r="C607" t="n">
-        <v>5.3410011303908</v>
+        <v>5.473109522397065</v>
       </c>
       <c r="D607" t="n">
-        <v>5.371338138643861</v>
+        <v>5.557414966379281</v>
       </c>
       <c r="E607" t="n">
-        <v>4.901423897417771</v>
+        <v>5.013721228419037</v>
       </c>
       <c r="F607" t="n">
-        <v>4.653286239687946</v>
+        <v>4.838886528438546</v>
       </c>
       <c r="G607" t="n">
-        <v>4.639321490076803</v>
+        <v>5.440099211108216</v>
       </c>
       <c r="H607" t="n">
-        <v>5.3410011303908</v>
+        <v>5.044566269549581</v>
       </c>
       <c r="I607" t="n">
-        <v>5.371338138643861</v>
+        <v>5.413976284187868</v>
       </c>
       <c r="J607" t="n">
-        <v>4.901423897417771</v>
+        <v>5.04738919371668</v>
       </c>
       <c r="K607" t="n">
-        <v>4.653286239687946</v>
+        <v>5.268353429379798</v>
       </c>
       <c r="L607" t="n">
-        <v>4.639321490076803</v>
+        <v>5.499807613475489</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>4.0950232300979215</v>
+        <v>4.054478445641506</v>
       </c>
       <c r="C608" t="n">
-        <v>3.979797376262914</v>
+        <v>3.9631221709365057</v>
       </c>
       <c r="D608" t="n">
-        <v>4.513884485520796</v>
+        <v>4.507174938097331</v>
       </c>
       <c r="E608" t="n">
-        <v>4.456926729630852</v>
+        <v>4.507174938097331</v>
       </c>
       <c r="F608" t="n">
-        <v>4.17872060905102</v>
+        <v>4.133889046871034</v>
       </c>
       <c r="G608" t="n">
-        <v>4.0950232300979215</v>
+        <v>4.294918445474062</v>
       </c>
       <c r="H608" t="n">
-        <v>3.979797376262914</v>
+        <v>4.477127105176683</v>
       </c>
       <c r="I608" t="n">
-        <v>4.513884485520796</v>
+        <v>4.0589339157693445</v>
       </c>
       <c r="J608" t="n">
-        <v>4.456926729630852</v>
+        <v>4.56003686769797</v>
       </c>
       <c r="K608" t="n">
-        <v>4.17872060905102</v>
+        <v>4.482560515667813</v>
       </c>
       <c r="L608" t="n">
-        <v>4.0950232300979215</v>
+        <v>4.646075300553612</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>5.01516131751017</v>
+        <v>5.115464543860374</v>
       </c>
       <c r="C609" t="n">
-        <v>5.100256248383177</v>
+        <v>5.2216345627575675</v>
       </c>
       <c r="D609" t="n">
-        <v>4.927240688745369</v>
+        <v>4.983432745370026</v>
       </c>
       <c r="E609" t="n">
-        <v>4.779075817531456</v>
+        <v>4.849390469410248</v>
       </c>
       <c r="F609" t="n">
-        <v>4.472835724140882</v>
+        <v>4.55675024965579</v>
       </c>
       <c r="G609" t="n">
-        <v>5.01516131751017</v>
+        <v>4.615007756652606</v>
       </c>
       <c r="H609" t="n">
-        <v>5.100256248383177</v>
+        <v>5.065527120139312</v>
       </c>
       <c r="I609" t="n">
-        <v>4.927240688745369</v>
+        <v>5.037863444760443</v>
       </c>
       <c r="J609" t="n">
-        <v>4.779075817531456</v>
+        <v>4.826976135414786</v>
       </c>
       <c r="K609" t="n">
-        <v>4.472835724140882</v>
+        <v>4.399787469007448</v>
       </c>
       <c r="L609" t="n">
-        <v>5.01516131751017</v>
+        <v>5.124937624877335</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>1.7512123101092385</v>
+        <v>1.7689013233426651</v>
       </c>
       <c r="C611" t="n">
-        <v>1.8323804802006738</v>
+        <v>1.8544612302331673</v>
       </c>
       <c r="D611" t="n">
-        <v>1.8850961154979338</v>
+        <v>1.916995387516054</v>
       </c>
       <c r="E611" t="n">
-        <v>1.833677695407237</v>
+        <v>1.8451214699328724</v>
       </c>
       <c r="F611" t="n">
-        <v>2.005046568125775</v>
+        <v>1.9983224638388852</v>
       </c>
       <c r="G611" t="n">
-        <v>1.7512123101092385</v>
+        <v>2.000747614160646</v>
       </c>
       <c r="H611" t="n">
-        <v>1.8323804802006738</v>
+        <v>1.7473407880052503</v>
       </c>
       <c r="I611" t="n">
-        <v>1.8850961154979338</v>
+        <v>2.011734023998878</v>
       </c>
       <c r="J611" t="n">
-        <v>1.833677695407237</v>
+        <v>2.0315662767907146</v>
       </c>
       <c r="K611" t="n">
-        <v>2.005046568125775</v>
+        <v>1.9886803786551999</v>
       </c>
       <c r="L611" t="n">
-        <v>1.7512123101092385</v>
+        <v>1.8116659707384657</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>1.2066150727425131</v>
+        <v>1.219054403389343</v>
       </c>
       <c r="C616" t="n">
-        <v>1.3261521612806648</v>
+        <v>1.3372432138824082</v>
       </c>
       <c r="D616" t="n">
-        <v>1.1599541041957742</v>
+        <v>1.1622039595359506</v>
       </c>
       <c r="E616" t="n">
-        <v>1.1919900534038397</v>
+        <v>1.2265541788056105</v>
       </c>
       <c r="F616" t="n">
-        <v>1.261143026784786</v>
+        <v>1.280966602269977</v>
       </c>
       <c r="G616" t="n">
-        <v>1.2066150727425131</v>
+        <v>1.2036656815973636</v>
       </c>
       <c r="H616" t="n">
-        <v>1.3261521612806648</v>
+        <v>1.2750458554376842</v>
       </c>
       <c r="I616" t="n">
-        <v>1.1599541041957742</v>
+        <v>1.329138709429709</v>
       </c>
       <c r="J616" t="n">
-        <v>1.1919900534038397</v>
+        <v>1.3792948879541307</v>
       </c>
       <c r="K616" t="n">
-        <v>1.261143026784786</v>
+        <v>1.3380591034527272</v>
       </c>
       <c r="L616" t="n">
-        <v>1.2066150727425131</v>
+        <v>1.3512500750590748</v>
       </c>
     </row>
     <row r="617">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>4.175208228339328</v>
+        <v>4.134274814336002</v>
       </c>
       <c r="C617" t="n">
-        <v>3.696308901809663</v>
+        <v>3.6799589011855485</v>
       </c>
       <c r="D617" t="n">
-        <v>3.7170324456529675</v>
+        <v>3.6759194299115263</v>
       </c>
       <c r="E617" t="n">
-        <v>3.636471682484822</v>
+        <v>3.5492979335497794</v>
       </c>
       <c r="F617" t="n">
-        <v>3.7559457834123755</v>
+        <v>3.722915620217101</v>
       </c>
       <c r="G617" t="n">
-        <v>4.175208228339328</v>
+        <v>4.083856828005825</v>
       </c>
       <c r="H617" t="n">
-        <v>3.696308901809663</v>
+        <v>3.9119915889793293</v>
       </c>
       <c r="I617" t="n">
-        <v>3.7170324456529675</v>
+        <v>4.086348503535044</v>
       </c>
       <c r="J617" t="n">
-        <v>3.636471682484822</v>
+        <v>3.7458194635301756</v>
       </c>
       <c r="K617" t="n">
-        <v>3.7559457834123755</v>
+        <v>4.020123169521258</v>
       </c>
       <c r="L617" t="n">
-        <v>4.175208228339328</v>
+        <v>3.7479156128766546</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>2.242139750230262</v>
+        <v>2.2197183527279587</v>
       </c>
       <c r="C618" t="n">
-        <v>2.1007603259981473</v>
+        <v>2.0694184530094097</v>
       </c>
       <c r="D618" t="n">
-        <v>2.2637522649597392</v>
+        <v>2.243962850158165</v>
       </c>
       <c r="E618" t="n">
-        <v>2.2854734389907687</v>
+        <v>2.241242893283263</v>
       </c>
       <c r="F618" t="n">
-        <v>2.2763069682998456</v>
+        <v>2.256284791895903</v>
       </c>
       <c r="G618" t="n">
-        <v>2.242139750230262</v>
+        <v>2.0798935749062992</v>
       </c>
       <c r="H618" t="n">
-        <v>2.1007603259981473</v>
+        <v>2.28274739196497</v>
       </c>
       <c r="I618" t="n">
-        <v>2.2637522649597392</v>
+        <v>2.2785278965158207</v>
       </c>
       <c r="J618" t="n">
-        <v>2.2854734389907687</v>
+        <v>2.230428695231937</v>
       </c>
       <c r="K618" t="n">
-        <v>2.2763069682998456</v>
+        <v>2.3258180981693957</v>
       </c>
       <c r="L618" t="n">
-        <v>2.242139750230262</v>
+        <v>2.150029520497625</v>
       </c>
     </row>
     <row r="619">
@@ -23704,34 +23704,34 @@
         <v>1.2526584724045373</v>
       </c>
       <c r="C622" t="n">
-        <v>1.2020095816114478</v>
+        <v>1.2071072545172274</v>
       </c>
       <c r="D622" t="n">
-        <v>1.2400820522943135</v>
+        <v>1.2294610929182028</v>
       </c>
       <c r="E622" t="n">
-        <v>1.1703907167506593</v>
+        <v>1.1579807969036873</v>
       </c>
       <c r="F622" t="n">
-        <v>1.192656046581873</v>
+        <v>1.2152086454871418</v>
       </c>
       <c r="G622" t="n">
-        <v>1.2526584724045373</v>
+        <v>1.0943554784643172</v>
       </c>
       <c r="H622" t="n">
-        <v>1.2020095816114478</v>
+        <v>1.1145646171353019</v>
       </c>
       <c r="I622" t="n">
-        <v>1.2400820522943135</v>
+        <v>1.0685230529962202</v>
       </c>
       <c r="J622" t="n">
-        <v>1.1703907167506593</v>
+        <v>1.0931542102878165</v>
       </c>
       <c r="K622" t="n">
-        <v>1.192656046581873</v>
+        <v>1.2144676647210038</v>
       </c>
       <c r="L622" t="n">
-        <v>1.2526584724045373</v>
+        <v>1.1633579455810341</v>
       </c>
     </row>
     <row r="623">
